--- a/Files Data.xlsx
+++ b/Files Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="القداس" sheetId="1" state="visible" r:id="rId1"/>
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -93,11 +93,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -467,9 +470,9 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E473"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -477,9 +480,9 @@
   <cols>
     <col width="59.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="42.86214285714286" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -2309,10 +2312,10 @@
         <v>459</v>
       </c>
       <c r="D87" t="n">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
@@ -2327,10 +2330,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -2348,10 +2351,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D89" t="n">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="E89" t="n">
         <v>6</v>
@@ -2369,10 +2372,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="D90" t="n">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E90" t="n">
         <v>2</v>
@@ -2390,10 +2393,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="D91" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="E91" t="n">
         <v>2</v>
@@ -2411,10 +2414,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="D92" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E92" t="n">
         <v>2</v>
@@ -2432,10 +2435,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D93" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
@@ -2453,10 +2456,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D94" t="n">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="E94" t="n">
         <v>2</v>
@@ -2474,10 +2477,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="D95" t="n">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="E95" t="n">
         <v>2</v>
@@ -2495,10 +2498,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D96" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E96" t="n">
         <v>2</v>
@@ -2516,10 +2519,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="D97" t="n">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="E97" t="n">
         <v>2</v>
@@ -2537,10 +2540,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D98" t="n">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="E98" t="n">
         <v>2</v>
@@ -2558,10 +2561,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D99" t="n">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E99" t="n">
         <v>2</v>
@@ -2579,10 +2582,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D100" t="n">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="E100" t="n">
         <v>2</v>
@@ -2600,10 +2603,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D101" t="n">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
@@ -2621,10 +2624,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D102" t="n">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
@@ -2642,10 +2645,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="D103" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E103" t="n">
         <v>2</v>
@@ -2663,10 +2666,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="D104" t="n">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E104" t="n">
         <v>2</v>
@@ -2684,10 +2687,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="D105" t="n">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="E105" t="n">
         <v>2</v>
@@ -2696,82 +2699,82 @@
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>مرد ابركسيس كيهك 1و3</t>
+          <t>مرد ابركسيس الملاك ميخائيل</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>{D68EE6A3-B55C-42B2-950D-21E2DE316BC9}</t>
+          <t>{4329E910-BD2C-4FBB-8FF3-A59F06EE9D45}</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="D106" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" ht="18.75" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>مرد ابركسيس كيهك 2و4 و الملاك غبريال</t>
+          <t>تكملة للملاك ميخائيل 12 هاتور</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>{D7004C9A-722E-4972-BC92-78D7310ECF12}</t>
+          <t>{14A3F09D-ACCA-461F-AD67-08484F44D518}</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D107" t="n">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="18.75" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>مرد ابركسيس الرسل</t>
+          <t>تكملة للملاك ميخائيل 12 بؤونة</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>{762611EA-8B39-4E15-9F20-2038B0577264}</t>
+          <t>{02EBDDE5-1CBF-452A-A12A-A3F76FE68DDC}</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D108" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" ht="18.75" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>مرد ابركسيس عيد الرسل</t>
+          <t>تكملة للملاك ميخائيل 1</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>{80A68B54-5ECA-43A2-8B2D-F0B462C4D3B3}</t>
+          <t>{56E5BC0D-5FFC-4411-AC9C-78085E58A9E3}</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D109" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
@@ -2780,61 +2783,61 @@
     <row r="110" ht="18.75" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>مرد ابركسيس الملاك ميخائيل</t>
+          <t>تكملة للملاك ميخائيل 2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>{4329E910-BD2C-4FBB-8FF3-A59F06EE9D45}</t>
+          <t>{5BB65881-3E8A-4130-839D-6EB6F9D5FAFA}</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D110" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" ht="18.75" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>تكملة للملاك ميخائيل 1</t>
+          <t>مرد ابركسيس كيهك 1و3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>{56E5BC0D-5FFC-4411-AC9C-78085E58A9E3}</t>
+          <t>{D68EE6A3-B55C-42B2-950D-21E2DE316BC9}</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="D111" t="n">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" ht="18.75" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>تكملة للملاك ميخائيل 2</t>
+          <t>مرد ابركسيس كيهك 2و4 و الملاك غبريال</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>{5BB65881-3E8A-4130-839D-6EB6F9D5FAFA}</t>
+          <t>{D7004C9A-722E-4972-BC92-78D7310ECF12}</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D112" t="n">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="E112" t="n">
         <v>2</v>
@@ -2843,61 +2846,61 @@
     <row r="113" ht="18.75" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>تكملة للملاك ميخائيل 12 هاتور</t>
+          <t>مرد ابركسيس الملاك رافائيل</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>{14A3F09D-ACCA-461F-AD67-08484F44D518}</t>
+          <t>{F3612A9D-7224-4B5A-8FBF-36D0E7492ABF}</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="D113" t="n">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" ht="18.75" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>تكملة للملاك ميخائيل 12 بؤونة</t>
+          <t>مرد ابركسيس يوحنا المعمدان</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>{02EBDDE5-1CBF-452A-A12A-A3F76FE68DDC}</t>
+          <t>{ED47AFA9-C30A-4E4C-91E6-A04ED89EDFB3}</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D114" t="n">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" ht="18.75" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>مرد ابركسيس الملاك رافائيل</t>
+          <t>مرد ابركسيس الرسل</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>{F3612A9D-7224-4B5A-8FBF-36D0E7492ABF}</t>
+          <t>{762611EA-8B39-4E15-9F20-2038B0577264}</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="D115" t="n">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="E115" t="n">
         <v>2</v>
@@ -2906,19 +2909,19 @@
     <row r="116" ht="18.75" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>مرد ابركسيس يوحنا المعمدان</t>
+          <t>مرد ابركسيس عيد الرسل</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>{ED47AFA9-C30A-4E4C-91E6-A04ED89EDFB3}</t>
+          <t>{80A68B54-5ECA-43A2-8B2D-F0B462C4D3B3}</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D116" t="n">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E116" t="n">
         <v>2</v>
@@ -2936,10 +2939,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D117" t="n">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="E117" t="n">
         <v>2</v>
@@ -2957,10 +2960,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D118" t="n">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="E118" t="n">
         <v>2</v>
@@ -2978,10 +2981,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="D119" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
@@ -2999,10 +3002,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D120" t="n">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="E120" t="n">
         <v>2</v>
@@ -3020,10 +3023,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="D121" t="n">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E121" t="n">
         <v>1</v>
@@ -3041,10 +3044,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D122" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
@@ -3062,10 +3065,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="D123" t="n">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -3083,10 +3086,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D124" t="n">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E124" t="n">
         <v>5</v>
@@ -3104,10 +3107,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="D125" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="E125" t="n">
         <v>2</v>
@@ -3125,10 +3128,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="D126" t="n">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
@@ -3146,10 +3149,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D127" t="n">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E127" t="n">
         <v>11</v>
@@ -3167,10 +3170,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="D128" t="n">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
@@ -3188,10 +3191,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="D129" t="n">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="E129" t="n">
         <v>14</v>
@@ -3209,10 +3212,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D130" t="n">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="E130" t="n">
         <v>4</v>
@@ -3230,10 +3233,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="D131" t="n">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E131" t="n">
         <v>6</v>
@@ -3251,10 +3254,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="D132" t="n">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="E132" t="n">
         <v>22</v>
@@ -3272,10 +3275,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D133" t="n">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="E133" t="n">
         <v>11</v>
@@ -3293,10 +3296,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="D134" t="n">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
@@ -3314,10 +3317,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D135" t="n">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="E135" t="n">
         <v>14</v>
@@ -3335,10 +3338,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="D136" t="n">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -3356,10 +3359,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="D137" t="n">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="E137" t="n">
         <v>2</v>
@@ -3377,10 +3380,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="D138" t="n">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="E138" t="n">
         <v>7</v>
@@ -3398,10 +3401,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="D139" t="n">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
@@ -3419,10 +3422,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="D140" t="n">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E140" t="n">
         <v>2</v>
@@ -3440,10 +3443,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="D141" t="n">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -3461,10 +3464,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="D142" t="n">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="E142" t="n">
         <v>6</v>
@@ -3482,10 +3485,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="D143" t="n">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="E143" t="n">
         <v>12</v>
@@ -3503,10 +3506,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="D144" t="n">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
@@ -3524,10 +3527,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D145" t="n">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="E145" t="n">
         <v>4</v>
@@ -3545,10 +3548,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="D146" t="n">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="E146" t="n">
         <v>3</v>
@@ -3566,10 +3569,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D147" t="n">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="E147" t="n">
         <v>8</v>
@@ -3587,10 +3590,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="D148" t="n">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="E148" t="n">
         <v>17</v>
@@ -3608,10 +3611,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="D149" t="n">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="E149" t="n">
         <v>4</v>
@@ -3629,10 +3632,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="D150" t="n">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="E150" t="n">
         <v>4</v>
@@ -3650,10 +3653,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D151" t="n">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="E151" t="n">
         <v>4</v>
@@ -3671,10 +3674,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="D152" t="n">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="E152" t="n">
         <v>2</v>
@@ -3692,10 +3695,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="D153" t="n">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E153" t="n">
         <v>3</v>
@@ -3713,10 +3716,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="D154" t="n">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="E154" t="n">
         <v>6</v>
@@ -3734,10 +3737,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D155" t="n">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="E155" t="n">
         <v>5</v>
@@ -3755,10 +3758,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D156" t="n">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="E156" t="n">
         <v>5</v>
@@ -3776,10 +3779,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D157" t="n">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E157" t="n">
         <v>2</v>
@@ -3797,10 +3800,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="D158" t="n">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -3818,10 +3821,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="D159" t="n">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
@@ -3839,10 +3842,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D160" t="n">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="E160" t="n">
         <v>2</v>
@@ -3860,10 +3863,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="D161" t="n">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="E161" t="n">
         <v>2</v>
@@ -3881,10 +3884,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="D162" t="n">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -3902,10 +3905,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D163" t="n">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="E163" t="n">
         <v>2</v>
@@ -3923,10 +3926,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="D164" t="n">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
@@ -3944,10 +3947,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="D165" t="n">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="E165" t="n">
         <v>22</v>
@@ -3965,10 +3968,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="D166" t="n">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="E166" t="n">
         <v>1</v>
@@ -3986,10 +3989,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="D167" t="n">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="E167" t="n">
         <v>4</v>
@@ -4007,10 +4010,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="D168" t="n">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="E168" t="n">
         <v>3</v>
@@ -4028,10 +4031,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="D169" t="n">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="E169" t="n">
         <v>4</v>
@@ -4049,10 +4052,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D170" t="n">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="E170" t="n">
         <v>4</v>
@@ -4070,10 +4073,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="D171" t="n">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E171" t="n">
         <v>2</v>
@@ -4091,10 +4094,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D172" t="n">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="E172" t="n">
         <v>3</v>
@@ -4112,10 +4115,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="D173" t="n">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="E173" t="n">
         <v>2</v>
@@ -4133,10 +4136,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="D174" t="n">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4154,10 +4157,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="D175" t="n">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="E175" t="n">
         <v>2</v>
@@ -4175,10 +4178,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="D176" t="n">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E176" t="n">
         <v>2</v>
@@ -4196,10 +4199,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="D177" t="n">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="E177" t="n">
         <v>2</v>
@@ -4217,10 +4220,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="D178" t="n">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="E178" t="n">
         <v>2</v>
@@ -4238,10 +4241,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="D179" t="n">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="E179" t="n">
         <v>1</v>
@@ -4259,10 +4262,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="D180" t="n">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="E180" t="n">
         <v>2</v>
@@ -4280,10 +4283,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="D181" t="n">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="E181" t="n">
         <v>1</v>
@@ -4301,10 +4304,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="D182" t="n">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="E182" t="n">
         <v>1</v>
@@ -4322,10 +4325,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="D183" t="n">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="E183" t="n">
         <v>1</v>
@@ -4343,10 +4346,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="D184" t="n">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="E184" t="n">
         <v>2</v>
@@ -4364,10 +4367,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="D185" t="n">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="E185" t="n">
         <v>2</v>
@@ -4385,10 +4388,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D186" t="n">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="E186" t="n">
         <v>1</v>
@@ -4406,10 +4409,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="D187" t="n">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="E187" t="n">
         <v>1</v>
@@ -4427,16 +4430,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="D188" t="n">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="E188" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="189" ht="19.5" customHeight="1">
+    <row r="189" ht="18.75" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
           <t>مرد المزمور</t>
@@ -4448,16 +4451,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="D189" t="n">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="E189" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="190" ht="19.5" customHeight="1">
+    <row r="190" ht="18.75" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
           <t>مقدمة الانجيل</t>
@@ -4469,16 +4472,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="D190" t="n">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="191" ht="19.5" customHeight="1">
+    <row r="191" ht="18.75" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
           <t>الانجيل قبطي</t>
@@ -4490,16 +4493,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="D191" t="n">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="E191" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="192" ht="19.5" customHeight="1">
+    <row r="192" ht="18.75" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
           <t>المزمور</t>
@@ -4511,16 +4514,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="D192" t="n">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="E192" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="193" ht="19.5" customHeight="1">
+    <row r="193" ht="18.75" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
           <t>فليرفعوه</t>
@@ -4532,16 +4535,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="D193" t="n">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="E193" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="194" ht="19.5" customHeight="1">
+    <row r="194" ht="18.75" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
           <t>الانجيل</t>
@@ -4553,16 +4556,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D194" t="n">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="E194" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="195" ht="19.5" customHeight="1">
+    <row r="195" ht="18.75" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
           <t>مرد انجيل النيروز</t>
@@ -4574,10 +4577,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D195" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="E195" t="n">
         <v>1</v>
@@ -4595,10 +4598,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D196" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="E196" t="n">
         <v>3</v>
@@ -4616,10 +4619,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D197" t="n">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="E197" t="n">
         <v>2</v>
@@ -4637,10 +4640,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D198" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="E198" t="n">
         <v>2</v>
@@ -4658,10 +4661,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="D199" t="n">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E199" t="n">
         <v>2</v>
@@ -4679,10 +4682,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="D200" t="n">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="E200" t="n">
         <v>5</v>
@@ -4700,10 +4703,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D201" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="E201" t="n">
         <v>1</v>
@@ -4721,10 +4724,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="D202" t="n">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="E202" t="n">
         <v>3</v>
@@ -4742,10 +4745,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D203" t="n">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="E203" t="n">
         <v>1</v>
@@ -4763,10 +4766,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="D204" t="n">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="E204" t="n">
         <v>12</v>
@@ -4784,10 +4787,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="D205" t="n">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="E205" t="n">
         <v>1</v>
@@ -4805,10 +4808,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="D206" t="n">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="E206" t="n">
         <v>2</v>
@@ -4826,10 +4829,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="D207" t="n">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="E207" t="n">
         <v>2</v>
@@ -4847,10 +4850,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D208" t="n">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E208" t="n">
         <v>2</v>
@@ -4868,10 +4871,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="D209" t="n">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="E209" t="n">
         <v>2</v>
@@ -4889,10 +4892,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="D210" t="n">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="E210" t="n">
         <v>4</v>
@@ -4910,10 +4913,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="D211" t="n">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="E211" t="n">
         <v>2</v>
@@ -4931,10 +4934,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="D212" t="n">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="E212" t="n">
         <v>1</v>
@@ -4952,10 +4955,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="D213" t="n">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="E213" t="n">
         <v>2</v>
@@ -4973,10 +4976,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="D214" t="n">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="E214" t="n">
         <v>1</v>
@@ -4994,10 +4997,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="D215" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E215" t="n">
         <v>3</v>
@@ -5015,10 +5018,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="D216" t="n">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="E216" t="n">
         <v>2</v>
@@ -5036,10 +5039,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="D217" t="n">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="E217" t="n">
         <v>2</v>
@@ -5057,10 +5060,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="D218" t="n">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="E218" t="n">
         <v>3</v>
@@ -5078,10 +5081,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="D219" t="n">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="E219" t="n">
         <v>2</v>
@@ -5099,10 +5102,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="D220" t="n">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="E220" t="n">
         <v>2</v>
@@ -5120,10 +5123,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="D221" t="n">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="E221" t="n">
         <v>3</v>
@@ -5141,10 +5144,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="D222" t="n">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="E222" t="n">
         <v>2</v>
@@ -5162,10 +5165,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="D223" t="n">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="E223" t="n">
         <v>2</v>
@@ -5183,10 +5186,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="D224" t="n">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="E224" t="n">
         <v>2</v>
@@ -5204,10 +5207,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="D225" t="n">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="E225" t="n">
         <v>3</v>
@@ -5225,10 +5228,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="D226" t="n">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="E226" t="n">
         <v>9</v>
@@ -5246,10 +5249,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="D227" t="n">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="E227" t="n">
         <v>3</v>
@@ -5267,10 +5270,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="D228" t="n">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="E228" t="n">
         <v>5</v>
@@ -5288,10 +5291,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="D229" t="n">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="E229" t="n">
         <v>3</v>
@@ -5309,10 +5312,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="D230" t="n">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5330,10 +5333,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="D231" t="n">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="E231" t="n">
         <v>3</v>
@@ -5351,10 +5354,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="D232" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="E232" t="n">
         <v>2</v>
@@ -5372,10 +5375,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="D233" t="n">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="E233" t="n">
         <v>2</v>
@@ -5393,10 +5396,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="D234" t="n">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="E234" t="n">
         <v>2</v>
@@ -5405,40 +5408,40 @@
     <row r="235" ht="18.75" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ربع يقال في صوم الرسل</t>
+          <t>ربع للملاك ميخائيل</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>{F5AB11D4-D7D2-4DA3-A830-32BA45BCB16D}</t>
+          <t>{9EF543FB-A75B-4171-B358-2EB549C98411}</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="D235" t="n">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" ht="18.75" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ربع يقال في عيد الرسل</t>
+          <t>ربع للملاك غبريال</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>{7279EB5A-C32A-41F8-80D7-A33740EC7C09}</t>
+          <t>{D291E41B-2C53-4536-8FD1-348E9CDB2155}</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="D236" t="n">
-        <v>1007</v>
+        <v>1016</v>
       </c>
       <c r="E236" t="n">
         <v>2</v>
@@ -5447,19 +5450,19 @@
     <row r="237" ht="18.75" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ربع للملاك ميخائيل</t>
+          <t>ربع ليوحنا المعمدان</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>{9EF543FB-A75B-4171-B358-2EB549C98411}</t>
+          <t>{1D7510AE-6E2C-4BA3-9D81-3EBDFCD8956C}</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="D237" t="n">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="E237" t="n">
         <v>2</v>
@@ -5468,19 +5471,19 @@
     <row r="238" ht="18.75" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ربع للملاك غبريال</t>
+          <t>ربع للرسل</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>{D291E41B-2C53-4536-8FD1-348E9CDB2155}</t>
+          <t>{F5AB11D4-D7D2-4DA3-A830-32BA45BCB16D}</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="D238" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="E238" t="n">
         <v>2</v>
@@ -5489,19 +5492,19 @@
     <row r="239" ht="18.75" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ربع ليوحنا المعمدان</t>
+          <t>ربع للرسولين بطرس و بولس</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>{1D7510AE-6E2C-4BA3-9D81-3EBDFCD8956C}</t>
+          <t>{7279EB5A-C32A-41F8-80D7-A33740EC7C09}</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="D239" t="n">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="E239" t="n">
         <v>2</v>
@@ -5519,10 +5522,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="D240" t="n">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="E240" t="n">
         <v>2</v>
@@ -5540,10 +5543,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="D241" t="n">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="E241" t="n">
         <v>2</v>
@@ -5561,10 +5564,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="D242" t="n">
-        <v>1049</v>
+        <v>1058</v>
       </c>
       <c r="E242" t="n">
         <v>32</v>
@@ -5582,10 +5585,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="D243" t="n">
-        <v>1090</v>
+        <v>1099</v>
       </c>
       <c r="E243" t="n">
         <v>41</v>
@@ -5603,10 +5606,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1091</v>
+        <v>1100</v>
       </c>
       <c r="D244" t="n">
-        <v>1123</v>
+        <v>1132</v>
       </c>
       <c r="E244" t="n">
         <v>33</v>
@@ -5624,10 +5627,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="D245" t="n">
-        <v>1124</v>
+        <v>1133</v>
       </c>
       <c r="E245" t="n">
         <v>1</v>
@@ -5645,10 +5648,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="D246" t="n">
-        <v>1137</v>
+        <v>1146</v>
       </c>
       <c r="E246" t="n">
         <v>13</v>
@@ -5666,10 +5669,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1138</v>
+        <v>1147</v>
       </c>
       <c r="D247" t="n">
-        <v>1167</v>
+        <v>1176</v>
       </c>
       <c r="E247" t="n">
         <v>30</v>
@@ -5687,10 +5690,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1168</v>
+        <v>1177</v>
       </c>
       <c r="D248" t="n">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="E248" t="n">
         <v>12</v>
@@ -5708,10 +5711,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="D249" t="n">
-        <v>1180</v>
+        <v>1189</v>
       </c>
       <c r="E249" t="n">
         <v>1</v>
@@ -5729,10 +5732,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1181</v>
+        <v>1190</v>
       </c>
       <c r="D250" t="n">
-        <v>1195</v>
+        <v>1204</v>
       </c>
       <c r="E250" t="n">
         <v>15</v>
@@ -5750,10 +5753,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1196</v>
+        <v>1205</v>
       </c>
       <c r="D251" t="n">
-        <v>1197</v>
+        <v>1206</v>
       </c>
       <c r="E251" t="n">
         <v>2</v>
@@ -5771,10 +5774,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1198</v>
+        <v>1207</v>
       </c>
       <c r="D252" t="n">
-        <v>1199</v>
+        <v>1208</v>
       </c>
       <c r="E252" t="n">
         <v>2</v>
@@ -5792,10 +5795,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1200</v>
+        <v>1209</v>
       </c>
       <c r="D253" t="n">
-        <v>1201</v>
+        <v>1210</v>
       </c>
       <c r="E253" t="n">
         <v>2</v>
@@ -5813,10 +5816,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1202</v>
+        <v>1211</v>
       </c>
       <c r="D254" t="n">
-        <v>1203</v>
+        <v>1212</v>
       </c>
       <c r="E254" t="n">
         <v>2</v>
@@ -5834,10 +5837,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1204</v>
+        <v>1213</v>
       </c>
       <c r="D255" t="n">
-        <v>1205</v>
+        <v>1214</v>
       </c>
       <c r="E255" t="n">
         <v>2</v>
@@ -5855,10 +5858,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1206</v>
+        <v>1215</v>
       </c>
       <c r="D256" t="n">
-        <v>1208</v>
+        <v>1217</v>
       </c>
       <c r="E256" t="n">
         <v>3</v>
@@ -5876,10 +5879,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1209</v>
+        <v>1218</v>
       </c>
       <c r="D257" t="n">
-        <v>1212</v>
+        <v>1221</v>
       </c>
       <c r="E257" t="n">
         <v>4</v>
@@ -5897,10 +5900,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1213</v>
+        <v>1222</v>
       </c>
       <c r="D258" t="n">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="E258" t="n">
         <v>2</v>
@@ -5918,10 +5921,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1215</v>
+        <v>1224</v>
       </c>
       <c r="D259" t="n">
-        <v>1216</v>
+        <v>1225</v>
       </c>
       <c r="E259" t="n">
         <v>2</v>
@@ -5939,10 +5942,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1217</v>
+        <v>1226</v>
       </c>
       <c r="D260" t="n">
-        <v>1218</v>
+        <v>1227</v>
       </c>
       <c r="E260" t="n">
         <v>2</v>
@@ -5960,10 +5963,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1219</v>
+        <v>1228</v>
       </c>
       <c r="D261" t="n">
-        <v>1220</v>
+        <v>1229</v>
       </c>
       <c r="E261" t="n">
         <v>2</v>
@@ -5981,10 +5984,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1221</v>
+        <v>1230</v>
       </c>
       <c r="D262" t="n">
-        <v>1223</v>
+        <v>1232</v>
       </c>
       <c r="E262" t="n">
         <v>3</v>
@@ -6002,10 +6005,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1224</v>
+        <v>1233</v>
       </c>
       <c r="D263" t="n">
-        <v>1225</v>
+        <v>1234</v>
       </c>
       <c r="E263" t="n">
         <v>2</v>
@@ -6023,10 +6026,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="D264" t="n">
-        <v>1229</v>
+        <v>1238</v>
       </c>
       <c r="E264" t="n">
         <v>4</v>
@@ -6044,10 +6047,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="D265" t="n">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="E265" t="n">
         <v>2</v>
@@ -6065,10 +6068,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="D266" t="n">
-        <v>1234</v>
+        <v>1243</v>
       </c>
       <c r="E266" t="n">
         <v>3</v>
@@ -6086,10 +6089,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1235</v>
+        <v>1244</v>
       </c>
       <c r="D267" t="n">
-        <v>1236</v>
+        <v>1245</v>
       </c>
       <c r="E267" t="n">
         <v>2</v>
@@ -6107,10 +6110,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1237</v>
+        <v>1246</v>
       </c>
       <c r="D268" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -6128,10 +6131,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1239</v>
+        <v>1248</v>
       </c>
       <c r="D269" t="n">
-        <v>1240</v>
+        <v>1249</v>
       </c>
       <c r="E269" t="n">
         <v>2</v>
@@ -6149,10 +6152,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="D270" t="n">
-        <v>1242</v>
+        <v>1251</v>
       </c>
       <c r="E270" t="n">
         <v>2</v>
@@ -6170,10 +6173,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1243</v>
+        <v>1252</v>
       </c>
       <c r="D271" t="n">
-        <v>1251</v>
+        <v>1260</v>
       </c>
       <c r="E271" t="n">
         <v>9</v>
@@ -6191,10 +6194,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1252</v>
+        <v>1261</v>
       </c>
       <c r="D272" t="n">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="E272" t="n">
         <v>7</v>
@@ -6212,10 +6215,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="D273" t="n">
-        <v>1272</v>
+        <v>1281</v>
       </c>
       <c r="E273" t="n">
         <v>14</v>
@@ -6233,10 +6236,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="D274" t="n">
-        <v>1278</v>
+        <v>1287</v>
       </c>
       <c r="E274" t="n">
         <v>6</v>
@@ -6254,10 +6257,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1279</v>
+        <v>1288</v>
       </c>
       <c r="D275" t="n">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="E275" t="n">
         <v>30</v>
@@ -6275,10 +6278,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1309</v>
+        <v>1318</v>
       </c>
       <c r="D276" t="n">
-        <v>1314</v>
+        <v>1323</v>
       </c>
       <c r="E276" t="n">
         <v>6</v>
@@ -6296,10 +6299,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="D277" t="n">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="E277" t="n">
         <v>1</v>
@@ -6317,10 +6320,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1316</v>
+        <v>1325</v>
       </c>
       <c r="D278" t="n">
-        <v>1325</v>
+        <v>1334</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -6338,10 +6341,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1326</v>
+        <v>1335</v>
       </c>
       <c r="D279" t="n">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="E279" t="n">
         <v>4</v>
@@ -6359,10 +6362,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1330</v>
+        <v>1339</v>
       </c>
       <c r="D280" t="n">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="E280" t="n">
         <v>3</v>
@@ -6380,10 +6383,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1333</v>
+        <v>1342</v>
       </c>
       <c r="D281" t="n">
-        <v>1345</v>
+        <v>1354</v>
       </c>
       <c r="E281" t="n">
         <v>13</v>
@@ -6401,10 +6404,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1346</v>
+        <v>1355</v>
       </c>
       <c r="D282" t="n">
-        <v>1347</v>
+        <v>1356</v>
       </c>
       <c r="E282" t="n">
         <v>2</v>
@@ -6422,10 +6425,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1348</v>
+        <v>1357</v>
       </c>
       <c r="D283" t="n">
-        <v>1351</v>
+        <v>1360</v>
       </c>
       <c r="E283" t="n">
         <v>4</v>
@@ -6443,10 +6446,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1352</v>
+        <v>1361</v>
       </c>
       <c r="D284" t="n">
-        <v>1355</v>
+        <v>1364</v>
       </c>
       <c r="E284" t="n">
         <v>4</v>
@@ -6464,10 +6467,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1356</v>
+        <v>1365</v>
       </c>
       <c r="D285" t="n">
-        <v>1357</v>
+        <v>1366</v>
       </c>
       <c r="E285" t="n">
         <v>2</v>
@@ -6485,10 +6488,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1358</v>
+        <v>1367</v>
       </c>
       <c r="D286" t="n">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="E286" t="n">
         <v>6</v>
@@ -6506,10 +6509,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="D287" t="n">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="E287" t="n">
         <v>4</v>
@@ -6527,10 +6530,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1368</v>
+        <v>1377</v>
       </c>
       <c r="D288" t="n">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="E288" t="n">
         <v>3</v>
@@ -6548,10 +6551,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="D289" t="n">
-        <v>1373</v>
+        <v>1382</v>
       </c>
       <c r="E289" t="n">
         <v>3</v>
@@ -6569,10 +6572,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1374</v>
+        <v>1383</v>
       </c>
       <c r="D290" t="n">
-        <v>1377</v>
+        <v>1386</v>
       </c>
       <c r="E290" t="n">
         <v>4</v>
@@ -6590,10 +6593,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1378</v>
+        <v>1387</v>
       </c>
       <c r="D291" t="n">
-        <v>1381</v>
+        <v>1390</v>
       </c>
       <c r="E291" t="n">
         <v>4</v>
@@ -6611,10 +6614,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1382</v>
+        <v>1391</v>
       </c>
       <c r="D292" t="n">
-        <v>1384</v>
+        <v>1393</v>
       </c>
       <c r="E292" t="n">
         <v>3</v>
@@ -6632,10 +6635,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1385</v>
+        <v>1394</v>
       </c>
       <c r="D293" t="n">
-        <v>1387</v>
+        <v>1396</v>
       </c>
       <c r="E293" t="n">
         <v>3</v>
@@ -6653,10 +6656,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1388</v>
+        <v>1397</v>
       </c>
       <c r="D294" t="n">
-        <v>1390</v>
+        <v>1399</v>
       </c>
       <c r="E294" t="n">
         <v>3</v>
@@ -6674,10 +6677,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1391</v>
+        <v>1400</v>
       </c>
       <c r="D295" t="n">
-        <v>1394</v>
+        <v>1403</v>
       </c>
       <c r="E295" t="n">
         <v>4</v>
@@ -6695,10 +6698,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="D296" t="n">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="E296" t="n">
         <v>41</v>
@@ -6716,10 +6719,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1436</v>
+        <v>1445</v>
       </c>
       <c r="D297" t="n">
-        <v>1488</v>
+        <v>1497</v>
       </c>
       <c r="E297" t="n">
         <v>53</v>
@@ -6737,10 +6740,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1489</v>
+        <v>1498</v>
       </c>
       <c r="D298" t="n">
-        <v>1509</v>
+        <v>1518</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -6758,10 +6761,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1510</v>
+        <v>1519</v>
       </c>
       <c r="D299" t="n">
-        <v>1533</v>
+        <v>1542</v>
       </c>
       <c r="E299" t="n">
         <v>24</v>
@@ -6779,10 +6782,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="D300" t="n">
-        <v>1540</v>
+        <v>1549</v>
       </c>
       <c r="E300" t="n">
         <v>7</v>
@@ -6800,10 +6803,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1541</v>
+        <v>1550</v>
       </c>
       <c r="D301" t="n">
-        <v>1551</v>
+        <v>1560</v>
       </c>
       <c r="E301" t="n">
         <v>11</v>
@@ -6821,10 +6824,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1552</v>
+        <v>1561</v>
       </c>
       <c r="D302" t="n">
-        <v>1563</v>
+        <v>1572</v>
       </c>
       <c r="E302" t="n">
         <v>12</v>
@@ -6842,10 +6845,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1564</v>
+        <v>1573</v>
       </c>
       <c r="D303" t="n">
-        <v>1579</v>
+        <v>1588</v>
       </c>
       <c r="E303" t="n">
         <v>16</v>
@@ -6863,10 +6866,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1580</v>
+        <v>1589</v>
       </c>
       <c r="D304" t="n">
-        <v>1589</v>
+        <v>1598</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -6884,10 +6887,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1590</v>
+        <v>1599</v>
       </c>
       <c r="D305" t="n">
-        <v>1595</v>
+        <v>1604</v>
       </c>
       <c r="E305" t="n">
         <v>6</v>
@@ -6905,10 +6908,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1596</v>
+        <v>1605</v>
       </c>
       <c r="D306" t="n">
-        <v>1598</v>
+        <v>1607</v>
       </c>
       <c r="E306" t="n">
         <v>3</v>
@@ -6926,10 +6929,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1599</v>
+        <v>1608</v>
       </c>
       <c r="D307" t="n">
-        <v>1611</v>
+        <v>1620</v>
       </c>
       <c r="E307" t="n">
         <v>13</v>
@@ -6947,10 +6950,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1612</v>
+        <v>1621</v>
       </c>
       <c r="D308" t="n">
-        <v>1621</v>
+        <v>1630</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -6968,10 +6971,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1622</v>
+        <v>1631</v>
       </c>
       <c r="D309" t="n">
-        <v>1629</v>
+        <v>1638</v>
       </c>
       <c r="E309" t="n">
         <v>8</v>
@@ -6989,10 +6992,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1630</v>
+        <v>1639</v>
       </c>
       <c r="D310" t="n">
-        <v>1648</v>
+        <v>1657</v>
       </c>
       <c r="E310" t="n">
         <v>19</v>
@@ -7010,10 +7013,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1649</v>
+        <v>1658</v>
       </c>
       <c r="D311" t="n">
-        <v>1664</v>
+        <v>1673</v>
       </c>
       <c r="E311" t="n">
         <v>16</v>
@@ -7031,10 +7034,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="D312" t="n">
-        <v>1672</v>
+        <v>1681</v>
       </c>
       <c r="E312" t="n">
         <v>8</v>
@@ -7052,10 +7055,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1673</v>
+        <v>1682</v>
       </c>
       <c r="D313" t="n">
-        <v>1711</v>
+        <v>1720</v>
       </c>
       <c r="E313" t="n">
         <v>39</v>
@@ -7073,10 +7076,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1712</v>
+        <v>1721</v>
       </c>
       <c r="D314" t="n">
-        <v>1735</v>
+        <v>1744</v>
       </c>
       <c r="E314" t="n">
         <v>24</v>
@@ -7094,10 +7097,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1736</v>
+        <v>1745</v>
       </c>
       <c r="D315" t="n">
-        <v>1748</v>
+        <v>1757</v>
       </c>
       <c r="E315" t="n">
         <v>13</v>
@@ -7115,10 +7118,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="D316" t="n">
-        <v>1761</v>
+        <v>1770</v>
       </c>
       <c r="E316" t="n">
         <v>13</v>
@@ -7136,10 +7139,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1762</v>
+        <v>1771</v>
       </c>
       <c r="D317" t="n">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="E317" t="n">
         <v>16</v>
@@ -7157,10 +7160,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1778</v>
+        <v>1787</v>
       </c>
       <c r="D318" t="n">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="E318" t="n">
         <v>8</v>
@@ -7178,10 +7181,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1786</v>
+        <v>1795</v>
       </c>
       <c r="D319" t="n">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="E319" t="n">
         <v>4</v>
@@ -7199,10 +7202,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1790</v>
+        <v>1799</v>
       </c>
       <c r="D320" t="n">
-        <v>1808</v>
+        <v>1817</v>
       </c>
       <c r="E320" t="n">
         <v>19</v>
@@ -7220,10 +7223,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1809</v>
+        <v>1818</v>
       </c>
       <c r="D321" t="n">
-        <v>1831</v>
+        <v>1840</v>
       </c>
       <c r="E321" t="n">
         <v>23</v>
@@ -7241,10 +7244,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1832</v>
+        <v>1841</v>
       </c>
       <c r="D322" t="n">
-        <v>1839</v>
+        <v>1848</v>
       </c>
       <c r="E322" t="n">
         <v>8</v>
@@ -7262,10 +7265,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1840</v>
+        <v>1849</v>
       </c>
       <c r="D323" t="n">
-        <v>1852</v>
+        <v>1861</v>
       </c>
       <c r="E323" t="n">
         <v>13</v>
@@ -7283,10 +7286,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1853</v>
+        <v>1862</v>
       </c>
       <c r="D324" t="n">
-        <v>1858</v>
+        <v>1867</v>
       </c>
       <c r="E324" t="n">
         <v>6</v>
@@ -7304,10 +7307,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1859</v>
+        <v>1868</v>
       </c>
       <c r="D325" t="n">
-        <v>1872</v>
+        <v>1881</v>
       </c>
       <c r="E325" t="n">
         <v>14</v>
@@ -7325,10 +7328,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1873</v>
+        <v>1882</v>
       </c>
       <c r="D326" t="n">
-        <v>1881</v>
+        <v>1890</v>
       </c>
       <c r="E326" t="n">
         <v>9</v>
@@ -7346,10 +7349,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1882</v>
+        <v>1891</v>
       </c>
       <c r="D327" t="n">
-        <v>1892</v>
+        <v>1901</v>
       </c>
       <c r="E327" t="n">
         <v>11</v>
@@ -7367,10 +7370,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1893</v>
+        <v>1902</v>
       </c>
       <c r="D328" t="n">
-        <v>1900</v>
+        <v>1909</v>
       </c>
       <c r="E328" t="n">
         <v>8</v>
@@ -7388,10 +7391,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1901</v>
+        <v>1910</v>
       </c>
       <c r="D329" t="n">
-        <v>1912</v>
+        <v>1921</v>
       </c>
       <c r="E329" t="n">
         <v>12</v>
@@ -7409,10 +7412,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1913</v>
+        <v>1922</v>
       </c>
       <c r="D330" t="n">
-        <v>1915</v>
+        <v>1924</v>
       </c>
       <c r="E330" t="n">
         <v>3</v>
@@ -7430,10 +7433,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1916</v>
+        <v>1925</v>
       </c>
       <c r="D331" t="n">
-        <v>1918</v>
+        <v>1927</v>
       </c>
       <c r="E331" t="n">
         <v>3</v>
@@ -7451,10 +7454,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1919</v>
+        <v>1928</v>
       </c>
       <c r="D332" t="n">
-        <v>1937</v>
+        <v>1946</v>
       </c>
       <c r="E332" t="n">
         <v>19</v>
@@ -7472,10 +7475,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1938</v>
+        <v>1947</v>
       </c>
       <c r="D333" t="n">
-        <v>1944</v>
+        <v>1953</v>
       </c>
       <c r="E333" t="n">
         <v>7</v>
@@ -7493,10 +7496,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1945</v>
+        <v>1954</v>
       </c>
       <c r="D334" t="n">
-        <v>1954</v>
+        <v>1963</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -7514,10 +7517,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="D335" t="n">
-        <v>1960</v>
+        <v>1969</v>
       </c>
       <c r="E335" t="n">
         <v>6</v>
@@ -7535,10 +7538,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1961</v>
+        <v>1970</v>
       </c>
       <c r="D336" t="n">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="E336" t="n">
         <v>11</v>
@@ -7556,10 +7559,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1972</v>
+        <v>1981</v>
       </c>
       <c r="D337" t="n">
-        <v>1981</v>
+        <v>1990</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -7577,10 +7580,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1982</v>
+        <v>1991</v>
       </c>
       <c r="D338" t="n">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="E338" t="n">
         <v>8</v>
@@ -7598,10 +7601,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="D339" t="n">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="E339" t="n">
         <v>3</v>
@@ -7619,10 +7622,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1993</v>
+        <v>2002</v>
       </c>
       <c r="D340" t="n">
-        <v>1997</v>
+        <v>2006</v>
       </c>
       <c r="E340" t="n">
         <v>5</v>
@@ -7640,10 +7643,10 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="D341" t="n">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="E341" t="n">
         <v>5</v>
@@ -7661,10 +7664,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="D342" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -7682,10 +7685,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="D343" t="n">
-        <v>2017</v>
+        <v>2026</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -7703,10 +7706,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2018</v>
+        <v>2027</v>
       </c>
       <c r="D344" t="n">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E344" t="n">
         <v>4</v>
@@ -7724,10 +7727,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2022</v>
+        <v>2031</v>
       </c>
       <c r="D345" t="n">
-        <v>2026</v>
+        <v>2035</v>
       </c>
       <c r="E345" t="n">
         <v>5</v>
@@ -7745,10 +7748,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2027</v>
+        <v>2036</v>
       </c>
       <c r="D346" t="n">
-        <v>2035</v>
+        <v>2044</v>
       </c>
       <c r="E346" t="n">
         <v>9</v>
@@ -7766,10 +7769,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2036</v>
+        <v>2045</v>
       </c>
       <c r="D347" t="n">
-        <v>2061</v>
+        <v>2070</v>
       </c>
       <c r="E347" t="n">
         <v>26</v>
@@ -7787,10 +7790,10 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2062</v>
+        <v>2071</v>
       </c>
       <c r="D348" t="n">
-        <v>2068</v>
+        <v>2077</v>
       </c>
       <c r="E348" t="n">
         <v>7</v>
@@ -7808,10 +7811,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2069</v>
+        <v>2078</v>
       </c>
       <c r="D349" t="n">
-        <v>2186</v>
+        <v>2195</v>
       </c>
       <c r="E349" t="n">
         <v>118</v>
@@ -7829,10 +7832,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2187</v>
+        <v>2196</v>
       </c>
       <c r="D350" t="n">
-        <v>2220</v>
+        <v>2229</v>
       </c>
       <c r="E350" t="n">
         <v>34</v>
@@ -7850,10 +7853,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2221</v>
+        <v>2230</v>
       </c>
       <c r="D351" t="n">
-        <v>2227</v>
+        <v>2236</v>
       </c>
       <c r="E351" t="n">
         <v>7</v>
@@ -7871,10 +7874,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2228</v>
+        <v>2237</v>
       </c>
       <c r="D352" t="n">
-        <v>2239</v>
+        <v>2248</v>
       </c>
       <c r="E352" t="n">
         <v>12</v>
@@ -7892,10 +7895,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2240</v>
+        <v>2249</v>
       </c>
       <c r="D353" t="n">
-        <v>2245</v>
+        <v>2254</v>
       </c>
       <c r="E353" t="n">
         <v>6</v>
@@ -7913,10 +7916,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2246</v>
+        <v>2255</v>
       </c>
       <c r="D354" t="n">
-        <v>2319</v>
+        <v>2328</v>
       </c>
       <c r="E354" t="n">
         <v>74</v>
@@ -7934,10 +7937,10 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2320</v>
+        <v>2329</v>
       </c>
       <c r="D355" t="n">
-        <v>2325</v>
+        <v>2334</v>
       </c>
       <c r="E355" t="n">
         <v>6</v>
@@ -7955,10 +7958,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2326</v>
+        <v>2335</v>
       </c>
       <c r="D356" t="n">
-        <v>2407</v>
+        <v>2416</v>
       </c>
       <c r="E356" t="n">
         <v>82</v>
@@ -7976,10 +7979,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2408</v>
+        <v>2417</v>
       </c>
       <c r="D357" t="n">
-        <v>2456</v>
+        <v>2465</v>
       </c>
       <c r="E357" t="n">
         <v>49</v>
@@ -7997,10 +8000,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2457</v>
+        <v>2466</v>
       </c>
       <c r="D358" t="n">
-        <v>2481</v>
+        <v>2490</v>
       </c>
       <c r="E358" t="n">
         <v>25</v>
@@ -8018,10 +8021,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2482</v>
+        <v>2491</v>
       </c>
       <c r="D359" t="n">
-        <v>2494</v>
+        <v>2503</v>
       </c>
       <c r="E359" t="n">
         <v>13</v>
@@ -8039,10 +8042,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2495</v>
+        <v>2504</v>
       </c>
       <c r="D360" t="n">
-        <v>2503</v>
+        <v>2512</v>
       </c>
       <c r="E360" t="n">
         <v>9</v>
@@ -8060,10 +8063,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2504</v>
+        <v>2513</v>
       </c>
       <c r="D361" t="n">
-        <v>2513</v>
+        <v>2522</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -8081,10 +8084,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2514</v>
+        <v>2523</v>
       </c>
       <c r="D362" t="n">
-        <v>2526</v>
+        <v>2535</v>
       </c>
       <c r="E362" t="n">
         <v>13</v>
@@ -8102,10 +8105,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2527</v>
+        <v>2536</v>
       </c>
       <c r="D363" t="n">
-        <v>2530</v>
+        <v>2539</v>
       </c>
       <c r="E363" t="n">
         <v>4</v>
@@ -8123,10 +8126,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2531</v>
+        <v>2540</v>
       </c>
       <c r="D364" t="n">
-        <v>2535</v>
+        <v>2544</v>
       </c>
       <c r="E364" t="n">
         <v>5</v>
@@ -8144,10 +8147,10 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2536</v>
+        <v>2545</v>
       </c>
       <c r="D365" t="n">
-        <v>2543</v>
+        <v>2552</v>
       </c>
       <c r="E365" t="n">
         <v>8</v>
@@ -8165,10 +8168,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2544</v>
+        <v>2553</v>
       </c>
       <c r="D366" t="n">
-        <v>2549</v>
+        <v>2558</v>
       </c>
       <c r="E366" t="n">
         <v>6</v>
@@ -8186,10 +8189,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2550</v>
+        <v>2559</v>
       </c>
       <c r="D367" t="n">
-        <v>2562</v>
+        <v>2571</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
@@ -8207,10 +8210,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2563</v>
+        <v>2572</v>
       </c>
       <c r="D368" t="n">
-        <v>2575</v>
+        <v>2584</v>
       </c>
       <c r="E368" t="n">
         <v>13</v>
@@ -8228,10 +8231,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2576</v>
+        <v>2585</v>
       </c>
       <c r="D369" t="n">
-        <v>2585</v>
+        <v>2594</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -8249,10 +8252,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2586</v>
+        <v>2595</v>
       </c>
       <c r="D370" t="n">
-        <v>2592</v>
+        <v>2601</v>
       </c>
       <c r="E370" t="n">
         <v>7</v>
@@ -8270,10 +8273,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2593</v>
+        <v>2602</v>
       </c>
       <c r="D371" t="n">
-        <v>2611</v>
+        <v>2620</v>
       </c>
       <c r="E371" t="n">
         <v>19</v>
@@ -8291,10 +8294,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2612</v>
+        <v>2621</v>
       </c>
       <c r="D372" t="n">
-        <v>2627</v>
+        <v>2636</v>
       </c>
       <c r="E372" t="n">
         <v>16</v>
@@ -8312,10 +8315,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2628</v>
+        <v>2637</v>
       </c>
       <c r="D373" t="n">
-        <v>2643</v>
+        <v>2652</v>
       </c>
       <c r="E373" t="n">
         <v>16</v>
@@ -8333,10 +8336,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2644</v>
+        <v>2653</v>
       </c>
       <c r="D374" t="n">
-        <v>2684</v>
+        <v>2693</v>
       </c>
       <c r="E374" t="n">
         <v>41</v>
@@ -8354,10 +8357,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2685</v>
+        <v>2694</v>
       </c>
       <c r="D375" t="n">
-        <v>2698</v>
+        <v>2707</v>
       </c>
       <c r="E375" t="n">
         <v>14</v>
@@ -8375,10 +8378,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2699</v>
+        <v>2708</v>
       </c>
       <c r="D376" t="n">
-        <v>2711</v>
+        <v>2720</v>
       </c>
       <c r="E376" t="n">
         <v>13</v>
@@ -8396,10 +8399,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2712</v>
+        <v>2721</v>
       </c>
       <c r="D377" t="n">
-        <v>2727</v>
+        <v>2736</v>
       </c>
       <c r="E377" t="n">
         <v>16</v>
@@ -8417,10 +8420,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2728</v>
+        <v>2737</v>
       </c>
       <c r="D378" t="n">
-        <v>2735</v>
+        <v>2744</v>
       </c>
       <c r="E378" t="n">
         <v>8</v>
@@ -8438,10 +8441,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2736</v>
+        <v>2745</v>
       </c>
       <c r="D379" t="n">
-        <v>2739</v>
+        <v>2748</v>
       </c>
       <c r="E379" t="n">
         <v>4</v>
@@ -8459,10 +8462,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2740</v>
+        <v>2749</v>
       </c>
       <c r="D380" t="n">
-        <v>2763</v>
+        <v>2772</v>
       </c>
       <c r="E380" t="n">
         <v>24</v>
@@ -8480,10 +8483,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2764</v>
+        <v>2773</v>
       </c>
       <c r="D381" t="n">
-        <v>2789</v>
+        <v>2798</v>
       </c>
       <c r="E381" t="n">
         <v>26</v>
@@ -8501,10 +8504,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2790</v>
+        <v>2799</v>
       </c>
       <c r="D382" t="n">
-        <v>2793</v>
+        <v>2802</v>
       </c>
       <c r="E382" t="n">
         <v>4</v>
@@ -8522,10 +8525,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2794</v>
+        <v>2803</v>
       </c>
       <c r="D383" t="n">
-        <v>2800</v>
+        <v>2809</v>
       </c>
       <c r="E383" t="n">
         <v>7</v>
@@ -8543,10 +8546,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2801</v>
+        <v>2810</v>
       </c>
       <c r="D384" t="n">
-        <v>2803</v>
+        <v>2812</v>
       </c>
       <c r="E384" t="n">
         <v>3</v>
@@ -8564,10 +8567,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2804</v>
+        <v>2813</v>
       </c>
       <c r="D385" t="n">
-        <v>2815</v>
+        <v>2824</v>
       </c>
       <c r="E385" t="n">
         <v>12</v>
@@ -8585,10 +8588,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2816</v>
+        <v>2825</v>
       </c>
       <c r="D386" t="n">
-        <v>2820</v>
+        <v>2829</v>
       </c>
       <c r="E386" t="n">
         <v>5</v>
@@ -8606,10 +8609,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2821</v>
+        <v>2830</v>
       </c>
       <c r="D387" t="n">
-        <v>2831</v>
+        <v>2840</v>
       </c>
       <c r="E387" t="n">
         <v>11</v>
@@ -8627,10 +8630,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2832</v>
+        <v>2841</v>
       </c>
       <c r="D388" t="n">
-        <v>2840</v>
+        <v>2849</v>
       </c>
       <c r="E388" t="n">
         <v>9</v>
@@ -8648,10 +8651,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2841</v>
+        <v>2850</v>
       </c>
       <c r="D389" t="n">
-        <v>2847</v>
+        <v>2856</v>
       </c>
       <c r="E389" t="n">
         <v>7</v>
@@ -8669,10 +8672,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2848</v>
+        <v>2857</v>
       </c>
       <c r="D390" t="n">
-        <v>2851</v>
+        <v>2860</v>
       </c>
       <c r="E390" t="n">
         <v>4</v>
@@ -8690,10 +8693,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2852</v>
+        <v>2861</v>
       </c>
       <c r="D391" t="n">
-        <v>2855</v>
+        <v>2864</v>
       </c>
       <c r="E391" t="n">
         <v>4</v>
@@ -8711,10 +8714,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2856</v>
+        <v>2865</v>
       </c>
       <c r="D392" t="n">
-        <v>2867</v>
+        <v>2876</v>
       </c>
       <c r="E392" t="n">
         <v>12</v>
@@ -8732,10 +8735,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2868</v>
+        <v>2877</v>
       </c>
       <c r="D393" t="n">
-        <v>2872</v>
+        <v>2881</v>
       </c>
       <c r="E393" t="n">
         <v>5</v>
@@ -8753,10 +8756,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2873</v>
+        <v>2882</v>
       </c>
       <c r="D394" t="n">
-        <v>2883</v>
+        <v>2892</v>
       </c>
       <c r="E394" t="n">
         <v>11</v>
@@ -8774,10 +8777,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2884</v>
+        <v>2893</v>
       </c>
       <c r="D395" t="n">
-        <v>2889</v>
+        <v>2898</v>
       </c>
       <c r="E395" t="n">
         <v>6</v>
@@ -8795,10 +8798,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2890</v>
+        <v>2899</v>
       </c>
       <c r="D396" t="n">
-        <v>2899</v>
+        <v>2908</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -8816,10 +8819,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2900</v>
+        <v>2909</v>
       </c>
       <c r="D397" t="n">
-        <v>2907</v>
+        <v>2916</v>
       </c>
       <c r="E397" t="n">
         <v>8</v>
@@ -8837,10 +8840,10 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2908</v>
+        <v>2917</v>
       </c>
       <c r="D398" t="n">
-        <v>2918</v>
+        <v>2927</v>
       </c>
       <c r="E398" t="n">
         <v>11</v>
@@ -8858,10 +8861,10 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2919</v>
+        <v>2928</v>
       </c>
       <c r="D399" t="n">
-        <v>2923</v>
+        <v>2932</v>
       </c>
       <c r="E399" t="n">
         <v>5</v>
@@ -8879,10 +8882,10 @@
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2924</v>
+        <v>2933</v>
       </c>
       <c r="D400" t="n">
-        <v>2937</v>
+        <v>2946</v>
       </c>
       <c r="E400" t="n">
         <v>14</v>
@@ -8900,10 +8903,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2938</v>
+        <v>2947</v>
       </c>
       <c r="D401" t="n">
-        <v>2947</v>
+        <v>2956</v>
       </c>
       <c r="E401" t="n">
         <v>10</v>
@@ -8921,10 +8924,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2948</v>
+        <v>2957</v>
       </c>
       <c r="D402" t="n">
-        <v>2953</v>
+        <v>2962</v>
       </c>
       <c r="E402" t="n">
         <v>6</v>
@@ -8942,10 +8945,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2954</v>
+        <v>2963</v>
       </c>
       <c r="D403" t="n">
-        <v>2959</v>
+        <v>2968</v>
       </c>
       <c r="E403" t="n">
         <v>6</v>
@@ -8963,10 +8966,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2960</v>
+        <v>2969</v>
       </c>
       <c r="D404" t="n">
-        <v>2963</v>
+        <v>2972</v>
       </c>
       <c r="E404" t="n">
         <v>4</v>
@@ -8984,10 +8987,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2964</v>
+        <v>2973</v>
       </c>
       <c r="D405" t="n">
-        <v>2968</v>
+        <v>2977</v>
       </c>
       <c r="E405" t="n">
         <v>5</v>
@@ -9005,10 +9008,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2969</v>
+        <v>2978</v>
       </c>
       <c r="D406" t="n">
-        <v>2977</v>
+        <v>2986</v>
       </c>
       <c r="E406" t="n">
         <v>9</v>
@@ -9026,10 +9029,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2978</v>
+        <v>2987</v>
       </c>
       <c r="D407" t="n">
-        <v>2985</v>
+        <v>2994</v>
       </c>
       <c r="E407" t="n">
         <v>8</v>
@@ -9047,10 +9050,10 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2986</v>
+        <v>2995</v>
       </c>
       <c r="D408" t="n">
-        <v>2990</v>
+        <v>2999</v>
       </c>
       <c r="E408" t="n">
         <v>5</v>
@@ -9068,10 +9071,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2991</v>
+        <v>3000</v>
       </c>
       <c r="D409" t="n">
-        <v>2996</v>
+        <v>3005</v>
       </c>
       <c r="E409" t="n">
         <v>6</v>
@@ -9089,10 +9092,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2997</v>
+        <v>3006</v>
       </c>
       <c r="D410" t="n">
-        <v>2999</v>
+        <v>3008</v>
       </c>
       <c r="E410" t="n">
         <v>3</v>
@@ -9110,10 +9113,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3000</v>
+        <v>3009</v>
       </c>
       <c r="D411" t="n">
-        <v>3006</v>
+        <v>3015</v>
       </c>
       <c r="E411" t="n">
         <v>7</v>
@@ -9131,10 +9134,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3007</v>
+        <v>3016</v>
       </c>
       <c r="D412" t="n">
-        <v>3016</v>
+        <v>3025</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -9152,10 +9155,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3017</v>
+        <v>3026</v>
       </c>
       <c r="D413" t="n">
-        <v>3024</v>
+        <v>3033</v>
       </c>
       <c r="E413" t="n">
         <v>8</v>
@@ -9173,10 +9176,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3025</v>
+        <v>3034</v>
       </c>
       <c r="D414" t="n">
-        <v>3031</v>
+        <v>3040</v>
       </c>
       <c r="E414" t="n">
         <v>7</v>
@@ -9194,10 +9197,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3032</v>
+        <v>3041</v>
       </c>
       <c r="D415" t="n">
-        <v>3036</v>
+        <v>3045</v>
       </c>
       <c r="E415" t="n">
         <v>5</v>
@@ -9206,43 +9209,43 @@
     <row r="416" ht="18.75" customHeight="1">
       <c r="A416" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
+          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
+          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3037</v>
+        <v>3046</v>
       </c>
       <c r="D416" t="n">
-        <v>3043</v>
+        <v>3053</v>
       </c>
       <c r="E416" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" ht="18.75" customHeight="1">
       <c r="A417" t="inlineStr">
         <is>
-          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
+          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
+          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3044</v>
+        <v>3054</v>
       </c>
       <c r="D417" t="n">
-        <v>3051</v>
+        <v>3060</v>
       </c>
       <c r="E417" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" ht="18.75" customHeight="1">
@@ -9257,10 +9260,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3052</v>
+        <v>3061</v>
       </c>
       <c r="D418" t="n">
-        <v>3063</v>
+        <v>3072</v>
       </c>
       <c r="E418" t="n">
         <v>12</v>
@@ -9278,10 +9281,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3064</v>
+        <v>3073</v>
       </c>
       <c r="D419" t="n">
-        <v>3072</v>
+        <v>3081</v>
       </c>
       <c r="E419" t="n">
         <v>9</v>
@@ -9299,10 +9302,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3073</v>
+        <v>3082</v>
       </c>
       <c r="D420" t="n">
-        <v>3086</v>
+        <v>3095</v>
       </c>
       <c r="E420" t="n">
         <v>14</v>
@@ -9320,10 +9323,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3087</v>
+        <v>3096</v>
       </c>
       <c r="D421" t="n">
-        <v>3094</v>
+        <v>3103</v>
       </c>
       <c r="E421" t="n">
         <v>8</v>
@@ -9341,10 +9344,10 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3095</v>
+        <v>3104</v>
       </c>
       <c r="D422" t="n">
-        <v>3100</v>
+        <v>3109</v>
       </c>
       <c r="E422" t="n">
         <v>6</v>
@@ -9353,7 +9356,7 @@
     <row r="423" ht="18.75" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
-          <t>واحد هو الاب القدوس</t>
+          <t>ما قبل الإعتراف</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -9362,10 +9365,10 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3101</v>
+        <v>3110</v>
       </c>
       <c r="D423" t="n">
-        <v>3125</v>
+        <v>3134</v>
       </c>
       <c r="E423" t="n">
         <v>25</v>
@@ -9383,13 +9386,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3126</v>
+        <v>3135</v>
       </c>
       <c r="D424" t="n">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="E424" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" ht="18.75" customHeight="1">
@@ -9404,10 +9407,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="D425" t="n">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="E425" t="n">
         <v>1</v>
@@ -9425,10 +9428,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="D426" t="n">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="E426" t="n">
         <v>1</v>
@@ -9446,10 +9449,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="D427" t="n">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="E427" t="n">
         <v>1</v>
@@ -9467,10 +9470,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="D428" t="n">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="E428" t="n">
         <v>1</v>
@@ -9488,10 +9491,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="D429" t="n">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="E429" t="n">
         <v>1</v>
@@ -9509,10 +9512,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="D430" t="n">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="E430" t="n">
         <v>1</v>
@@ -9530,10 +9533,10 @@
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="D431" t="n">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="E431" t="n">
         <v>1</v>
@@ -9551,10 +9554,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="D432" t="n">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
@@ -9572,10 +9575,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D433" t="n">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -9593,10 +9596,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="D434" t="n">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -9614,10 +9617,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="D435" t="n">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -9635,10 +9638,10 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="D436" t="n">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="E436" t="n">
         <v>1</v>
@@ -9656,10 +9659,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="D437" t="n">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -9677,10 +9680,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="D438" t="n">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="E438" t="n">
         <v>1</v>
@@ -9698,10 +9701,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="D439" t="n">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="E439" t="n">
         <v>17</v>
@@ -9719,10 +9722,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="D440" t="n">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="E440" t="n">
         <v>22</v>
@@ -9740,10 +9743,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="D441" t="n">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="E441" t="n">
         <v>28</v>
@@ -9761,10 +9764,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="D442" t="n">
-        <v>3241</v>
+        <v>3243</v>
       </c>
       <c r="E442" t="n">
         <v>4</v>
@@ -9782,10 +9785,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="D443" t="n">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
@@ -9803,10 +9806,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="D444" t="n">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="E444" t="n">
         <v>2</v>
@@ -9824,10 +9827,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="D445" t="n">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="E445" t="n">
         <v>11</v>
@@ -9845,10 +9848,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="D446" t="n">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="E446" t="n">
         <v>2</v>
@@ -9866,10 +9869,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="D447" t="n">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="E447" t="n">
         <v>25</v>
@@ -9887,10 +9890,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="D448" t="n">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="E448" t="n">
         <v>39</v>
@@ -9908,10 +9911,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="D449" t="n">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="E449" t="n">
         <v>13</v>
@@ -9929,10 +9932,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="D450" t="n">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="E450" t="n">
         <v>16</v>
@@ -9950,10 +9953,10 @@
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="D451" t="n">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="E451" t="n">
         <v>15</v>
@@ -9971,10 +9974,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="D452" t="n">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="E452" t="n">
         <v>20</v>
@@ -9983,61 +9986,61 @@
     <row r="453" ht="18.75" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>مدائح سنوي</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>{E9D130FE-E3C4-4DDD-906B-AB1F7EC48106}</t>
+          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="D453" t="n">
-        <v>3411</v>
+        <v>3388</v>
       </c>
       <c r="E453" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" ht="18.75" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
-          <t>اسموعوا يا شعب المسيح</t>
+          <t>مدائح كيهك</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>{3C4E2465-7AA0-4798-B0C2-FD8025F28A32}</t>
+          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3412</v>
+        <v>3389</v>
       </c>
       <c r="D454" t="n">
-        <v>3438</v>
+        <v>3389</v>
       </c>
       <c r="E454" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" ht="18.75" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
-          <t>فلنجتمع نحن الشعب</t>
+          <t>مدائح الميلاد</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>{9954FA42-58D0-4D8F-8676-897F8A929B66}</t>
+          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3439</v>
+        <v>3390</v>
       </c>
       <c r="D455" t="n">
-        <v>3439</v>
+        <v>3390</v>
       </c>
       <c r="E455" t="n">
         <v>1</v>
@@ -10046,19 +10049,19 @@
     <row r="456" ht="18.75" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
-          <t>مدائح سنوي</t>
+          <t>مدائح صوم نينوى</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
+          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3440</v>
+        <v>3391</v>
       </c>
       <c r="D456" t="n">
-        <v>3440</v>
+        <v>3391</v>
       </c>
       <c r="E456" t="n">
         <v>1</v>
@@ -10067,19 +10070,19 @@
     <row r="457" ht="18.75" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
-          <t>مدائح كيهك</t>
+          <t>مدائح الصوم الكبير</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
+          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>3441</v>
+        <v>3392</v>
       </c>
       <c r="D457" t="n">
-        <v>3441</v>
+        <v>3392</v>
       </c>
       <c r="E457" t="n">
         <v>1</v>
@@ -10088,19 +10091,19 @@
     <row r="458" ht="18.75" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
-          <t>مدائح الميلاد</t>
+          <t>مدائح سبت لعازر</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
+          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3442</v>
+        <v>3393</v>
       </c>
       <c r="D458" t="n">
-        <v>3442</v>
+        <v>3393</v>
       </c>
       <c r="E458" t="n">
         <v>1</v>
@@ -10109,19 +10112,19 @@
     <row r="459" ht="18.75" customHeight="1">
       <c r="A459" t="inlineStr">
         <is>
-          <t>مدائح صوم نينوى</t>
+          <t>مدائح احد الشعانين</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
+          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3443</v>
+        <v>3394</v>
       </c>
       <c r="D459" t="n">
-        <v>3443</v>
+        <v>3394</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
@@ -10130,19 +10133,19 @@
     <row r="460" ht="18.75" customHeight="1">
       <c r="A460" t="inlineStr">
         <is>
-          <t>مدائح الصوم الكبير</t>
+          <t>مدائح القيامة</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
+          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3444</v>
+        <v>3395</v>
       </c>
       <c r="D460" t="n">
-        <v>3444</v>
+        <v>3395</v>
       </c>
       <c r="E460" t="n">
         <v>1</v>
@@ -10151,19 +10154,19 @@
     <row r="461" ht="18.75" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
-          <t>مدائح سبت لعازر</t>
+          <t>مدائح الخماسين من 2 الى 39</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
+          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3445</v>
+        <v>3396</v>
       </c>
       <c r="D461" t="n">
-        <v>3445</v>
+        <v>3396</v>
       </c>
       <c r="E461" t="n">
         <v>1</v>
@@ -10172,19 +10175,19 @@
     <row r="462" ht="18.75" customHeight="1">
       <c r="A462" t="inlineStr">
         <is>
-          <t>مدائح احد الشعانين</t>
+          <t>مدائح الصعود الى العنصرة</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
+          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3446</v>
+        <v>3397</v>
       </c>
       <c r="D462" t="n">
-        <v>3446</v>
+        <v>3397</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -10193,19 +10196,19 @@
     <row r="463" ht="18.75" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
-          <t>مدائح القيامة</t>
+          <t>مدائح صوم الرسل</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
+          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3447</v>
+        <v>3398</v>
       </c>
       <c r="D463" t="n">
-        <v>3447</v>
+        <v>3398</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -10214,19 +10217,19 @@
     <row r="464" ht="18.75" customHeight="1">
       <c r="A464" t="inlineStr">
         <is>
-          <t>مدائح الخماسين من 2 الى 39</t>
+          <t>مدائح ال29 من الشهر</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
+          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3448</v>
+        <v>3399</v>
       </c>
       <c r="D464" t="n">
-        <v>3448</v>
+        <v>3399</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -10235,40 +10238,40 @@
     <row r="465" ht="18.75" customHeight="1">
       <c r="A465" t="inlineStr">
         <is>
-          <t>مدائح الصعود الى العنصرة</t>
+          <t>ابؤرو للتوزيع</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
+          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3449</v>
+        <v>3400</v>
       </c>
       <c r="D465" t="n">
-        <v>3449</v>
+        <v>3410</v>
       </c>
       <c r="E465" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="466" ht="18.75" customHeight="1">
       <c r="A466" t="inlineStr">
         <is>
-          <t>مدائح ال29 من الشهر</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3450</v>
+        <v>3411</v>
       </c>
       <c r="D466" t="n">
-        <v>3450</v>
+        <v>3411</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
@@ -10277,150 +10280,111 @@
     <row r="467" ht="18.75" customHeight="1">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ابؤرو للتوزيع</t>
+          <t>الختام السنوي</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
+          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3451</v>
+        <v>3412</v>
       </c>
       <c r="D467" t="n">
-        <v>3461</v>
+        <v>3414</v>
       </c>
       <c r="E467" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" ht="18.75" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>الختام في الصوم المقدس</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3462</v>
+        <v>3415</v>
       </c>
       <c r="D468" t="n">
-        <v>3462</v>
+        <v>3420</v>
       </c>
       <c r="E468" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469" ht="18.75" customHeight="1">
       <c r="A469" t="inlineStr">
         <is>
-          <t>الختام السنوي</t>
+          <t>تكملة على حسب المناسبة</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3463</v>
+        <v>3421</v>
       </c>
       <c r="D469" t="n">
-        <v>3465</v>
+        <v>3445</v>
       </c>
       <c r="E469" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="470" ht="18.75" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
-          <t>الختام في الصوم المقدس</t>
+          <t>في حضور الاسقف</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3466</v>
+        <v>3446</v>
       </c>
       <c r="D470" t="n">
-        <v>3471</v>
+        <v>3454</v>
       </c>
       <c r="E470" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471" ht="18.75" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>الختام 2</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3472</v>
+        <v>3455</v>
       </c>
       <c r="D471" t="n">
-        <v>3496</v>
+        <v>3459</v>
       </c>
       <c r="E471" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="472" ht="18.75" customHeight="1">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>في حضور الاسقف</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
-        </is>
-      </c>
-      <c r="C472" t="n">
-        <v>3497</v>
-      </c>
-      <c r="D472" t="n">
-        <v>3505</v>
-      </c>
-      <c r="E472" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="473" ht="18.75" customHeight="1">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>الختام 2</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
-        </is>
-      </c>
-      <c r="C473" t="n">
-        <v>3506</v>
-      </c>
-      <c r="D473" t="n">
-        <v>3510</v>
-      </c>
-      <c r="E473" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="472" ht="18.75" customHeight="1"/>
+    <row r="473" ht="18.75" customHeight="1"/>
+    <row r="474" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10432,7 +10396,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10442,9 +10406,9 @@
   <cols>
     <col width="41.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -11161,10 +11125,10 @@
         <v>1093</v>
       </c>
       <c r="D34" t="n">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
@@ -11179,10 +11143,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D35" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E35" t="n">
         <v>57</v>
@@ -11200,10 +11164,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D36" t="n">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E36" t="n">
         <v>57</v>
@@ -11221,10 +11185,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D37" t="n">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E37" t="n">
         <v>61</v>
@@ -11242,432 +11206,537 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D38" t="n">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>الباب الثاني</t>
+          <t>(الخماسين) عيد الصعود - المجد لله والأكرام</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{E9ED8CBA-74AF-4903-9BE7-83949A2E6042}</t>
+          <t>{0B00A682-598E-42FA-9F88-D72EAFF6E783}</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D39" t="n">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>أبادير وإيرائي اخته</t>
+          <t>(الخماسين) عيد العنصرة - المجد لله القدوس</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{418E980F-1BC4-40C4-AED7-1DE2566AF0A8}</t>
+          <t>{C028FF9B-09C1-42E1-90E0-2C45A634BAF0}</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="D40" t="n">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E40" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>أبا اسخيرون القليني</t>
+          <t>(صوم وعيد الرسل) الفاعل الأمين لا يخزى</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{21D2DCA4-5857-4F13-886C-A79FCE9F45CF}</t>
+          <t>{B9A8D07C-0514-491C-A91B-A5BD0B14C556}</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="D41" t="n">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>أباكراجون البتانوني</t>
+          <t>(صوم و عيد الرسل) فلنسبح إلهنا القـدوس</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{C6670786-A976-4B52-868E-171137C94BF0}</t>
+          <t>{FFAC3DB8-CD69-4363-AEEE-0A77AFA5C14C}</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="D42" t="n">
-        <v>1365</v>
+        <v>1398</v>
       </c>
       <c r="E42" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>اباكير و يوحنا</t>
+          <t>(سنوي) ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{94B1CF6F-400F-4EBB-BEB3-7561B8B79E22}</t>
+          <t>{55AD0713-7619-4F4A-BBF7-CBEC78E9D2B6}</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1366</v>
+        <v>1399</v>
       </c>
       <c r="D43" t="n">
-        <v>1382</v>
+        <v>1412</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>أبانوب النهيسي</t>
+          <t>(سنوي) اسمعوا يا شعب المسيح</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{B7505EB8-9095-443D-8AB4-76B429FB6882}</t>
+          <t>{FBABEA1B-1917-427E-BD5E-EB2368CB6293}</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1383</v>
+        <v>1413</v>
       </c>
       <c r="D44" t="n">
-        <v>1398</v>
+        <v>1441</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>الأنبا إبرآم أسقف الفيوم</t>
+          <t>الباب الثاني</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{76A5C39E-E378-49E4-A1B3-3C3C6AD0FC45}</t>
+          <t>{E9ED8CBA-74AF-4903-9BE7-83949A2E6042}</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1399</v>
+        <v>1442</v>
       </c>
       <c r="D45" t="n">
-        <v>1418</v>
+        <v>1442</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>القمص ابراهيم البسيط</t>
+          <t>أبادير وإيرائي اخته</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{EC6CEE3E-0C3F-4410-923F-4BFEBFAA87CD}</t>
+          <t>{418E980F-1BC4-40C4-AED7-1DE2566AF0A8}</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1419</v>
+        <v>1443</v>
       </c>
       <c r="D46" t="n">
-        <v>1428</v>
+        <v>1467</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>الأنبا أبوللو والأنبا أبيب</t>
+          <t>أبا اسخيرون القليني</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{15F37CDF-162E-4235-B0CD-3EC560293C8F}</t>
+          <t>{21D2DCA4-5857-4F13-886C-A79FCE9F45CF}</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1429</v>
+        <v>1468</v>
       </c>
       <c r="D47" t="n">
-        <v>1447</v>
+        <v>1479</v>
       </c>
       <c r="E47" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>الشهيد مارجرجس الروماني</t>
+          <t>أباكراجون البتانوني</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{FFF1B9FE-C89C-4F56-85B7-F375461AEA62}</t>
+          <t>{C6670786-A976-4B52-868E-171137C94BF0}</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1448</v>
+        <v>1480</v>
       </c>
       <c r="D48" t="n">
-        <v>1459</v>
+        <v>1495</v>
       </c>
       <c r="E48" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>القديس لوقا الانجيلي</t>
+          <t>اباكير و يوحنا</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{50EEB170-6F56-438C-943C-B8B3136DBB6A}</t>
+          <t>{94B1CF6F-400F-4EBB-BEB3-7561B8B79E22}</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1460</v>
+        <v>1496</v>
       </c>
       <c r="D49" t="n">
-        <v>1477</v>
+        <v>1512</v>
       </c>
       <c r="E49" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>القديس مارمرقس الرسول</t>
+          <t>أبانوب النهيسي</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{D4872368-E5CE-4B87-A314-70582CB26D33}</t>
+          <t>{B7505EB8-9095-443D-8AB4-76B429FB6882}</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1478</v>
+        <v>1513</v>
       </c>
       <c r="D50" t="n">
-        <v>1496</v>
+        <v>1528</v>
       </c>
       <c r="E50" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>العذراء مريم</t>
+          <t>الأنبا إبرآم أسقف الفيوم</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{BC31EDAD-70A8-41AD-8F09-30FB6E612B63}</t>
+          <t>{76A5C39E-E378-49E4-A1B3-3C3C6AD0FC45}</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1497</v>
+        <v>1529</v>
       </c>
       <c r="D51" t="n">
-        <v>1515</v>
+        <v>1548</v>
       </c>
       <c r="E51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>الملاك ميخائيل</t>
+          <t>الأنبا أبوللو والأنبا أبيب</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{12793581-7FD0-4EE7-B903-2943F410A5D2}</t>
+          <t>{15F37CDF-162E-4235-B0CD-3EC560293C8F}</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1516</v>
+        <v>1549</v>
       </c>
       <c r="D52" t="n">
-        <v>1527</v>
+        <v>1567</v>
       </c>
       <c r="E52" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>الباب الثالث</t>
+          <t>الشهيد مارجرجس الروماني</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{E5B98BC1-9C9D-42EC-BB16-E848179FB9DC}</t>
+          <t>{FFF1B9FE-C89C-4F56-85B7-F375461AEA62}</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1528</v>
+        <v>1568</v>
       </c>
       <c r="D53" t="n">
-        <v>1528</v>
+        <v>1579</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>رحلة الصوم الكبير</t>
+          <t>القديس لوقا الانجيلي</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{11755A37-6BDF-4E72-9537-F39867C5BB7D}</t>
+          <t>{50EEB170-6F56-438C-943C-B8B3136DBB6A}</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1529</v>
+        <v>1580</v>
       </c>
       <c r="D54" t="n">
-        <v>1534</v>
+        <v>1597</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>عند شق الفجر باكر</t>
+          <t>القديس مارمرقس الرسول</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{D4859CD1-25CE-465C-846E-A0311D24DB66}</t>
+          <t>{D4872368-E5CE-4B87-A314-70582CB26D33}</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1535</v>
+        <v>1598</v>
       </c>
       <c r="D55" t="n">
-        <v>1567</v>
+        <v>1616</v>
       </c>
       <c r="E55" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>قام حقا</t>
+          <t>العذراء مريم</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{4615B620-F94D-4CAD-843A-EB32E8369AAB}</t>
+          <t>{BC31EDAD-70A8-41AD-8F09-30FB6E612B63}</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1568</v>
+        <v>1617</v>
       </c>
       <c r="D56" t="n">
-        <v>1581</v>
+        <v>1635</v>
       </c>
       <c r="E56" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>انظروا يديه تأملوا رجليه</t>
+          <t>الملاك ميخائيل</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{E1A31474-7F00-4B7D-90FD-A67415E32872}</t>
+          <t>{12793581-7FD0-4EE7-B903-2943F410A5D2}</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1582</v>
+        <v>1636</v>
       </c>
       <c r="D57" t="n">
-        <v>1596</v>
+        <v>1647</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
+          <t>الباب الثالث</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>{E5B98BC1-9C9D-42EC-BB16-E848179FB9DC}</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1648</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1648</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>رحلة الصوم الكبير</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>{11755A37-6BDF-4E72-9537-F39867C5BB7D}</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1649</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1654</v>
+      </c>
+      <c r="E59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>عند شق الفجر باكر</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{D4859CD1-25CE-465C-846E-A0311D24DB66}</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1655</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1687</v>
+      </c>
+      <c r="E60" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>قام حقا</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{4615B620-F94D-4CAD-843A-EB32E8369AAB}</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1688</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1701</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>انظروا يديه تأملوا رجليه</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>{E1A31474-7F00-4B7D-90FD-A67415E32872}</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1702</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1716</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>يا ربنا مولى السلام</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>{325B4DE6-FA63-4B6D-827F-BCC78EF1FEC9}</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1597</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1639</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="C63" t="n">
+        <v>1717</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E63" t="n">
         <v>43</v>
       </c>
     </row>
@@ -11692,9 +11761,9 @@
   <cols>
     <col width="20.29071428571428" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -12046,9 +12115,9 @@
   <cols>
     <col width="15.29071428571429" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -12442,9 +12511,9 @@
   <cols>
     <col width="17.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -13111,9 +13180,9 @@
   <cols>
     <col width="28.43357142857143" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -18540,9 +18609,9 @@
   <cols>
     <col width="20.71928571428571" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -19497,9 +19566,9 @@
   <cols>
     <col width="19.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -21202,7 +21271,7 @@
   </sheetPr>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21210,9 +21279,9 @@
   <cols>
     <col width="30.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -23237,9 +23306,9 @@
   <cols>
     <col width="19.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -24193,9 +24262,9 @@
   <cols>
     <col width="17.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -24394,9 +24463,9 @@
   <cols>
     <col width="21.005" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -25833,9 +25902,9 @@
   <cols>
     <col width="28.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="17.71928571428571" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="16.43357142857143" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="16.43357142857143" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">

--- a/Files Data.xlsx
+++ b/Files Data.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E474"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4250,7 +4250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" ht="19.5" customHeight="1">
+    <row r="180" ht="18.75" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
           <t>مرد مزمور الختان</t>
@@ -4271,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" ht="19.5" customHeight="1">
+    <row r="181" ht="18.75" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
           <t>مرد مزمور الغطاس</t>
@@ -4292,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" ht="19.5" customHeight="1">
+    <row r="182" ht="18.75" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
           <t>مرد مزمور عرس قانا الجليل</t>
@@ -4313,7 +4313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" ht="19.5" customHeight="1">
+    <row r="183" ht="18.75" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
           <t>مرد مزمور دخول المسيح الهيكل</t>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" ht="19.5" customHeight="1">
+    <row r="184" ht="18.75" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
           <t>مرد مزمور البشارة</t>
@@ -4355,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" ht="19.5" customHeight="1">
+    <row r="185" ht="18.75" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
           <t>مرد مزمور الشعانين</t>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" ht="19.5" customHeight="1">
+    <row r="186" ht="18.75" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
           <t>مرد المزمور القيامة</t>
@@ -4397,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" ht="19.5" customHeight="1">
+    <row r="187" ht="18.75" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
           <t>مرد مزمور الصعود</t>
@@ -4418,7 +4418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" ht="19.5" customHeight="1">
+    <row r="188" ht="18.75" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
           <t>مرد مزمور العنصرة</t>
@@ -9314,187 +9314,187 @@
     <row r="421" ht="18.75" customHeight="1">
       <c r="A421" t="inlineStr">
         <is>
-          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
+          <t>قسمة للإبن تُقال في عيد التجلي (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
+          <t>{C23F094B-BD4E-4348-8186-D1C4B8744FAA}</t>
         </is>
       </c>
       <c r="C421" t="n">
         <v>3082</v>
       </c>
       <c r="D421" t="n">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="E421" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" ht="18.75" customHeight="1">
       <c r="A422" t="inlineStr">
         <is>
-          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
+          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
+          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="D422" t="n">
-        <v>3104</v>
+        <v>3096</v>
       </c>
       <c r="E422" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" ht="18.75" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
+          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
+          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3105</v>
+        <v>3097</v>
       </c>
       <c r="D423" t="n">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="E423" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="424" ht="18.75" customHeight="1">
       <c r="A424" t="inlineStr">
         <is>
-          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
+          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D424" t="n">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="E424" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="425" ht="18.75" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
+          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="D425" t="n">
         <v>3128</v>
       </c>
       <c r="E425" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" ht="18.75" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ما قبل الإعتراف</t>
+          <t>ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
+          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
         </is>
       </c>
       <c r="C426" t="n">
         <v>3129</v>
       </c>
       <c r="D426" t="n">
-        <v>3153</v>
+        <v>3134</v>
       </c>
       <c r="E426" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" ht="18.75" customHeight="1">
       <c r="A427" t="inlineStr">
         <is>
-          <t>الاعتراف</t>
+          <t>ما قبل الإعتراف</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
+          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3154</v>
+        <v>3135</v>
       </c>
       <c r="D427" t="n">
-        <v>3177</v>
+        <v>3159</v>
       </c>
       <c r="E427" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="428" ht="18.75" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
-          <t>مرد توزيع النيروز</t>
+          <t>الاعتراف</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
+          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3178</v>
+        <v>3160</v>
       </c>
       <c r="D428" t="n">
-        <v>3178</v>
+        <v>3183</v>
       </c>
       <c r="E428" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" ht="18.75" customHeight="1">
       <c r="A429" t="inlineStr">
         <is>
-          <t>مرد توزيع الصليب</t>
+          <t>مرد توزيع النيروز</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
+          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="D429" t="n">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="E429" t="n">
         <v>1</v>
@@ -9503,19 +9503,19 @@
     <row r="430" ht="18.75" customHeight="1">
       <c r="A430" t="inlineStr">
         <is>
-          <t>مرد توزيع الغطاس</t>
+          <t>مرد توزيع الصليب</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
+          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="D430" t="n">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="E430" t="n">
         <v>1</v>
@@ -9524,19 +9524,19 @@
     <row r="431" ht="18.75" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
-          <t>مرد توزيع الختان</t>
+          <t>مرد توزيع الغطاس</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
+          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="D431" t="n">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="E431" t="n">
         <v>1</v>
@@ -9545,19 +9545,19 @@
     <row r="432" ht="18.75" customHeight="1">
       <c r="A432" t="inlineStr">
         <is>
-          <t>مرد توزيع عرس قانا الجليل</t>
+          <t>مرد توزيع الختان</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
+          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3182</v>
+        <v>3187</v>
       </c>
       <c r="D432" t="n">
-        <v>3182</v>
+        <v>3187</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
@@ -9566,19 +9566,19 @@
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" t="inlineStr">
         <is>
-          <t>مرد توزيع دخول المسيح الهيكل</t>
+          <t>مرد توزيع عرس قانا الجليل</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
+          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3183</v>
+        <v>3188</v>
       </c>
       <c r="D433" t="n">
-        <v>3183</v>
+        <v>3188</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -9587,19 +9587,19 @@
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" t="inlineStr">
         <is>
-          <t>مرد توزيع صوم نينوى</t>
+          <t>مرد توزيع دخول المسيح الهيكل</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
+          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3184</v>
+        <v>3189</v>
       </c>
       <c r="D434" t="n">
-        <v>3184</v>
+        <v>3189</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -9608,19 +9608,19 @@
     <row r="435" ht="18.75" customHeight="1">
       <c r="A435" t="inlineStr">
         <is>
-          <t>مرد توزيع الصوم الكبير</t>
+          <t>مرد توزيع صوم نينوى</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
+          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3185</v>
+        <v>3190</v>
       </c>
       <c r="D435" t="n">
-        <v>3185</v>
+        <v>3190</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -9629,19 +9629,19 @@
     <row r="436" ht="18.75" customHeight="1">
       <c r="A436" t="inlineStr">
         <is>
-          <t>مرد توزيع الشعانين</t>
+          <t>مرد توزيع الصوم الكبير</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
+          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="D436" t="n">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="E436" t="n">
         <v>1</v>
@@ -9650,19 +9650,19 @@
     <row r="437" ht="18.75" customHeight="1">
       <c r="A437" t="inlineStr">
         <is>
-          <t>مرد توزيع البشارة</t>
+          <t>مرد توزيع الشعانين</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
+          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3187</v>
+        <v>3192</v>
       </c>
       <c r="D437" t="n">
-        <v>3187</v>
+        <v>3192</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -9671,19 +9671,19 @@
     <row r="438" ht="18.75" customHeight="1">
       <c r="A438" t="inlineStr">
         <is>
-          <t>مرد توزيع الميلاد</t>
+          <t>مرد توزيع البشارة</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
+          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3188</v>
+        <v>3193</v>
       </c>
       <c r="D438" t="n">
-        <v>3188</v>
+        <v>3193</v>
       </c>
       <c r="E438" t="n">
         <v>1</v>
@@ -9692,19 +9692,19 @@
     <row r="439" ht="18.75" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
-          <t>مرد توزيع القيامة</t>
+          <t>مرد توزيع الميلاد</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
+          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3189</v>
+        <v>3194</v>
       </c>
       <c r="D439" t="n">
-        <v>3189</v>
+        <v>3194</v>
       </c>
       <c r="E439" t="n">
         <v>1</v>
@@ -9713,19 +9713,19 @@
     <row r="440" ht="18.75" customHeight="1">
       <c r="A440" t="inlineStr">
         <is>
-          <t>مرد توزيع الصعود</t>
+          <t>مرد توزيع القيامة</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
+          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3190</v>
+        <v>3195</v>
       </c>
       <c r="D440" t="n">
-        <v>3190</v>
+        <v>3195</v>
       </c>
       <c r="E440" t="n">
         <v>1</v>
@@ -9734,19 +9734,19 @@
     <row r="441" ht="18.75" customHeight="1">
       <c r="A441" t="inlineStr">
         <is>
-          <t>مرد توزيع العنصرة</t>
+          <t>مرد توزيع الصعود</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
+          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3191</v>
+        <v>3196</v>
       </c>
       <c r="D441" t="n">
-        <v>3191</v>
+        <v>3196</v>
       </c>
       <c r="E441" t="n">
         <v>1</v>
@@ -9755,166 +9755,166 @@
     <row r="442" ht="18.75" customHeight="1">
       <c r="A442" t="inlineStr">
         <is>
-          <t>مزمور التوزيع</t>
+          <t>مرد توزيع العنصرة</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
+          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3192</v>
+        <v>3197</v>
       </c>
       <c r="D442" t="n">
-        <v>3208</v>
+        <v>3197</v>
       </c>
       <c r="E442" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" ht="18.75" customHeight="1">
       <c r="A443" t="inlineStr">
         <is>
-          <t>اطاي بارثينوس</t>
+          <t>مرد توزيع التجلي</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
+          <t>{0080F7D2-9802-4100-8B27-DD23FBF42BCF}</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3209</v>
+        <v>3198</v>
       </c>
       <c r="D443" t="n">
-        <v>3230</v>
+        <v>3198</v>
       </c>
       <c r="E443" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" ht="18.75" customHeight="1">
       <c r="A444" t="inlineStr">
         <is>
-          <t>لازاروس</t>
+          <t>مزمور التوزيع</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
+          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3231</v>
+        <v>3199</v>
       </c>
       <c r="D444" t="n">
-        <v>3258</v>
+        <v>3215</v>
       </c>
       <c r="E444" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" ht="18.75" customHeight="1">
       <c r="A445" t="inlineStr">
         <is>
-          <t>كاطا ني خوروس</t>
+          <t>اطاي بارثينوس</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
+          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3259</v>
+        <v>3216</v>
       </c>
       <c r="D445" t="n">
-        <v>3262</v>
+        <v>3237</v>
       </c>
       <c r="E445" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="446" ht="18.75" customHeight="1">
       <c r="A446" t="inlineStr">
         <is>
-          <t>فهرس الحان التوزيع</t>
+          <t>لازاروس</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
+          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3263</v>
+        <v>3238</v>
       </c>
       <c r="D446" t="n">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="E446" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="447" ht="18.75" customHeight="1">
       <c r="A447" t="inlineStr">
         <is>
-          <t>اك اسماروؤت</t>
+          <t>كاطا ني خوروس</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
+          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="D447" t="n">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="E447" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" ht="18.75" customHeight="1">
       <c r="A448" t="inlineStr">
         <is>
-          <t>بي اويك</t>
+          <t>فهرس الحان التوزيع</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
+          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="D448" t="n">
-        <v>3276</v>
+        <v>3270</v>
       </c>
       <c r="E448" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" ht="18.75" customHeight="1">
       <c r="A449" t="inlineStr">
         <is>
-          <t>جي اف اسماروؤت</t>
+          <t>اك اسماروؤت</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
+          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3277</v>
+        <v>3271</v>
       </c>
       <c r="D449" t="n">
-        <v>3278</v>
+        <v>3272</v>
       </c>
       <c r="E449" t="n">
         <v>2</v>
@@ -9923,187 +9923,187 @@
     <row r="450" ht="18.75" customHeight="1">
       <c r="A450" t="inlineStr">
         <is>
-          <t>اسومين</t>
+          <t>بي اويك</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
+          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3279</v>
+        <v>3273</v>
       </c>
       <c r="D450" t="n">
-        <v>3303</v>
+        <v>3283</v>
       </c>
       <c r="E450" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="451" ht="18.75" customHeight="1">
       <c r="A451" t="inlineStr">
         <is>
-          <t>اف امبشا غار</t>
+          <t>جي اف اسماروؤت</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
+          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3304</v>
+        <v>3284</v>
       </c>
       <c r="D451" t="n">
-        <v>3342</v>
+        <v>3285</v>
       </c>
       <c r="E451" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" ht="18.75" customHeight="1">
       <c r="A452" t="inlineStr">
         <is>
-          <t>تي بارثينوس</t>
+          <t>اسومين</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
+          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3343</v>
+        <v>3286</v>
       </c>
       <c r="D452" t="n">
-        <v>3355</v>
+        <v>3310</v>
       </c>
       <c r="E452" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="453" ht="18.75" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
-          <t>يونا بى ابروفيتيس</t>
+          <t>اف امبشا غار</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
+          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3356</v>
+        <v>3311</v>
       </c>
       <c r="D453" t="n">
-        <v>3371</v>
+        <v>3349</v>
       </c>
       <c r="E453" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" ht="18.75" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
-          <t>بي ماي رومي</t>
+          <t>تي بارثينوس</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
+          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3372</v>
+        <v>3350</v>
       </c>
       <c r="D454" t="n">
-        <v>3386</v>
+        <v>3362</v>
       </c>
       <c r="E454" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="455" ht="18.75" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
-          <t>اونيشتي اميستيريون</t>
+          <t>يونا بى ابروفيتيس</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
+          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3387</v>
+        <v>3363</v>
       </c>
       <c r="D455" t="n">
-        <v>3406</v>
+        <v>3378</v>
       </c>
       <c r="E455" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456" ht="18.75" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
-          <t>مدائح سنوي</t>
+          <t>بي ماي رومي</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
+          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3407</v>
+        <v>3379</v>
       </c>
       <c r="D456" t="n">
-        <v>3407</v>
+        <v>3393</v>
       </c>
       <c r="E456" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457" ht="18.75" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
-          <t>مدائح كيهك</t>
+          <t>اونيشتي اميستيريون</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
+          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>3408</v>
+        <v>3394</v>
       </c>
       <c r="D457" t="n">
-        <v>3408</v>
+        <v>3413</v>
       </c>
       <c r="E457" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" ht="18.75" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
-          <t>مدائح الميلاد</t>
+          <t>مدائح سنوي</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
+          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="D458" t="n">
-        <v>3409</v>
+        <v>3414</v>
       </c>
       <c r="E458" t="n">
         <v>1</v>
@@ -10112,19 +10112,19 @@
     <row r="459" ht="18.75" customHeight="1">
       <c r="A459" t="inlineStr">
         <is>
-          <t>مدائح صوم نينوى</t>
+          <t>مدائح كيهك</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
+          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="D459" t="n">
-        <v>3410</v>
+        <v>3415</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
@@ -10133,19 +10133,19 @@
     <row r="460" ht="18.75" customHeight="1">
       <c r="A460" t="inlineStr">
         <is>
-          <t>مدائح الصوم الكبير</t>
+          <t>مدائح الميلاد</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
+          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3411</v>
+        <v>3416</v>
       </c>
       <c r="D460" t="n">
-        <v>3411</v>
+        <v>3416</v>
       </c>
       <c r="E460" t="n">
         <v>1</v>
@@ -10154,19 +10154,19 @@
     <row r="461" ht="18.75" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
-          <t>مدائح سبت لعازر</t>
+          <t>مدائح صوم نينوى</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
+          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3412</v>
+        <v>3417</v>
       </c>
       <c r="D461" t="n">
-        <v>3412</v>
+        <v>3417</v>
       </c>
       <c r="E461" t="n">
         <v>1</v>
@@ -10175,19 +10175,19 @@
     <row r="462" ht="18.75" customHeight="1">
       <c r="A462" t="inlineStr">
         <is>
-          <t>مدائح احد الشعانين</t>
+          <t>مدائح الصوم الكبير</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
+          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3413</v>
+        <v>3418</v>
       </c>
       <c r="D462" t="n">
-        <v>3413</v>
+        <v>3418</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -10196,19 +10196,19 @@
     <row r="463" ht="18.75" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
-          <t>مدائح القيامة</t>
+          <t>مدائح سبت لعازر</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
+          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3414</v>
+        <v>3419</v>
       </c>
       <c r="D463" t="n">
-        <v>3414</v>
+        <v>3419</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -10217,19 +10217,19 @@
     <row r="464" ht="18.75" customHeight="1">
       <c r="A464" t="inlineStr">
         <is>
-          <t>مدائح الخماسين من 2 الى 39</t>
+          <t>مدائح احد الشعانين</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
+          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3415</v>
+        <v>3420</v>
       </c>
       <c r="D464" t="n">
-        <v>3415</v>
+        <v>3420</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -10238,19 +10238,19 @@
     <row r="465" ht="18.75" customHeight="1">
       <c r="A465" t="inlineStr">
         <is>
-          <t>مدائح الصعود الى العنصرة</t>
+          <t>مدائح القيامة</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
+          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3416</v>
+        <v>3421</v>
       </c>
       <c r="D465" t="n">
-        <v>3416</v>
+        <v>3421</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
@@ -10259,19 +10259,19 @@
     <row r="466" ht="18.75" customHeight="1">
       <c r="A466" t="inlineStr">
         <is>
-          <t>مدائح صوم الرسل</t>
+          <t>مدائح الخماسين من 2 الى 39</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
+          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3417</v>
+        <v>3422</v>
       </c>
       <c r="D466" t="n">
-        <v>3417</v>
+        <v>3422</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
@@ -10280,19 +10280,19 @@
     <row r="467" ht="18.75" customHeight="1">
       <c r="A467" t="inlineStr">
         <is>
-          <t>مدائح ال29 من الشهر</t>
+          <t>مدائح الصعود الى العنصرة</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
+          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3418</v>
+        <v>3423</v>
       </c>
       <c r="D467" t="n">
-        <v>3418</v>
+        <v>3423</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
@@ -10301,40 +10301,40 @@
     <row r="468" ht="18.75" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ابؤرو للتوزيع</t>
+          <t>مدائح صوم الرسل</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
+          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3419</v>
+        <v>3424</v>
       </c>
       <c r="D468" t="n">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="E468" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" ht="18.75" customHeight="1">
       <c r="A469" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>مدائح الاعياد السيدية</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{147FD013-1F73-40AC-92A0-5544B48FA888}</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="D469" t="n">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="E469" t="n">
         <v>1</v>
@@ -10343,105 +10343,168 @@
     <row r="470" ht="18.75" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
-          <t>الختام السنوي</t>
+          <t>مدائح ال29 من الشهر</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
+          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="D470" t="n">
-        <v>3433</v>
+        <v>3426</v>
       </c>
       <c r="E470" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" ht="18.75" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
-          <t>الختام في الصوم المقدس</t>
+          <t>ابؤرو للتوزيع</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
+          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3434</v>
+        <v>3427</v>
       </c>
       <c r="D471" t="n">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="E471" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="472" ht="18.75" customHeight="1">
       <c r="A472" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="D472" t="n">
-        <v>3464</v>
+        <v>3438</v>
       </c>
       <c r="E472" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" ht="18.75" customHeight="1">
       <c r="A473" t="inlineStr">
         <is>
-          <t>في حضور الاسقف</t>
+          <t>الختام السنوي</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3465</v>
+        <v>3439</v>
       </c>
       <c r="D473" t="n">
-        <v>3473</v>
+        <v>3441</v>
       </c>
       <c r="E473" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" ht="18.75" customHeight="1">
       <c r="A474" t="inlineStr">
         <is>
+          <t>الختام في الصوم المقدس</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>3442</v>
+      </c>
+      <c r="D474" t="n">
+        <v>3447</v>
+      </c>
+      <c r="E474" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" ht="18.75" customHeight="1">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>تكملة على حسب المناسبة</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>3448</v>
+      </c>
+      <c r="D475" t="n">
+        <v>3472</v>
+      </c>
+      <c r="E475" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" ht="18.75" customHeight="1">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>في حضور الاسقف</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>3473</v>
+      </c>
+      <c r="D476" t="n">
+        <v>3481</v>
+      </c>
+      <c r="E476" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="477" ht="18.75" customHeight="1">
+      <c r="A477" t="inlineStr">
+        <is>
           <t>الختام 2</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B477" t="inlineStr">
         <is>
           <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
         </is>
       </c>
-      <c r="C474" t="n">
-        <v>3474</v>
-      </c>
-      <c r="D474" t="n">
-        <v>3478</v>
-      </c>
-      <c r="E474" t="n">
+      <c r="C477" t="n">
+        <v>3482</v>
+      </c>
+      <c r="D477" t="n">
+        <v>3486</v>
+      </c>
+      <c r="E477" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10456,7 +10519,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10954,10 +11017,10 @@
         <v>825</v>
       </c>
       <c r="D23" t="n">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
@@ -10972,10 +11035,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D24" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E24" t="n">
         <v>17</v>
@@ -10993,10 +11056,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D25" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E25" t="n">
         <v>43</v>
@@ -11014,10 +11077,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D26" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -11035,10 +11098,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D27" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E27" t="n">
         <v>13</v>
@@ -11056,10 +11119,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D28" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E28" t="n">
         <v>16</v>
@@ -11077,10 +11140,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D29" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -11098,10 +11161,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D30" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E30" t="n">
         <v>30</v>
@@ -11119,10 +11182,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D31" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E31" t="n">
         <v>51</v>
@@ -11140,10 +11203,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D32" t="n">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E32" t="n">
         <v>29</v>
@@ -11161,10 +11224,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D33" t="n">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -11182,10 +11245,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D34" t="n">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E34" t="n">
         <v>20</v>
@@ -11203,10 +11266,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D35" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E35" t="n">
         <v>57</v>
@@ -11224,10 +11287,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D36" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E36" t="n">
         <v>57</v>
@@ -11245,10 +11308,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D37" t="n">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E37" t="n">
         <v>61</v>
@@ -11266,10 +11329,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="D38" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E38" t="n">
         <v>16</v>
@@ -11287,10 +11350,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D39" t="n">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E39" t="n">
         <v>17</v>
@@ -11308,10 +11371,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D40" t="n">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E40" t="n">
         <v>18</v>
@@ -11329,10 +11392,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D41" t="n">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E41" t="n">
         <v>30</v>
@@ -11350,10 +11413,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D42" t="n">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="E42" t="n">
         <v>30</v>
@@ -11362,334 +11425,334 @@
     <row r="43" ht="18.75" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(سنوي) ابانا الذي في السموات</t>
+          <t>(التجلي) المجد لله ذي الرحمة</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{55AD0713-7619-4F4A-BBF7-CBEC78E9D2B6}</t>
+          <t>{72B6A886-BE5B-444C-ADB8-80108ED1C462}</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D43" t="n">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="E43" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>(سنوي) اسمعوا يا شعب المسيح</t>
+          <t>(سنوي) ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{FBABEA1B-1917-427E-BD5E-EB2368CB6293}</t>
+          <t>{55AD0713-7619-4F4A-BBF7-CBEC78E9D2B6}</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="D44" t="n">
-        <v>1441</v>
+        <v>1428</v>
       </c>
       <c r="E44" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>(سنوي) المجد لمن رفع السموات</t>
+          <t>(سنوي) اسمعوا يا شعب المسيح</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{12A69F25-ED75-4850-8C2A-4864364C2131}</t>
+          <t>{FBABEA1B-1917-427E-BD5E-EB2368CB6293}</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1442</v>
+        <v>1429</v>
       </c>
       <c r="D45" t="n">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="E45" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(سنوي) أول ما أبدي أسبح الإله</t>
+          <t>(سنوي) المجد لمن رفع السموات</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{BA707332-FF09-40ED-BD05-0F3CE5931805}</t>
+          <t>{12A69F25-ED75-4850-8C2A-4864364C2131}</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="D46" t="n">
-        <v>1478</v>
+        <v>1488</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>الباب الثاني</t>
+          <t>(سنوي) أول ما أبدي أسبح الإله</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{E9ED8CBA-74AF-4903-9BE7-83949A2E6042}</t>
+          <t>{BA707332-FF09-40ED-BD05-0F3CE5931805}</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1479</v>
+        <v>1489</v>
       </c>
       <c r="D47" t="n">
-        <v>1479</v>
+        <v>1518</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>أبادير وإيرائي اخته</t>
+          <t>الباب الثاني</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{418E980F-1BC4-40C4-AED7-1DE2566AF0A8}</t>
+          <t>{E9ED8CBA-74AF-4903-9BE7-83949A2E6042}</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1480</v>
+        <v>1519</v>
       </c>
       <c r="D48" t="n">
-        <v>1504</v>
+        <v>1519</v>
       </c>
       <c r="E48" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>أبا اسخيرون القليني</t>
+          <t>أبادير وإيرائي اخته</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{21D2DCA4-5857-4F13-886C-A79FCE9F45CF}</t>
+          <t>{418E980F-1BC4-40C4-AED7-1DE2566AF0A8}</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1505</v>
+        <v>1520</v>
       </c>
       <c r="D49" t="n">
-        <v>1516</v>
+        <v>1544</v>
       </c>
       <c r="E49" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>أباكراجون البتانوني</t>
+          <t>أبا اسخيرون القليني</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{C6670786-A976-4B52-868E-171137C94BF0}</t>
+          <t>{21D2DCA4-5857-4F13-886C-A79FCE9F45CF}</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1517</v>
+        <v>1545</v>
       </c>
       <c r="D50" t="n">
-        <v>1532</v>
+        <v>1556</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>اباكير و يوحنا</t>
+          <t>أباكراجون البتانوني</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{94B1CF6F-400F-4EBB-BEB3-7561B8B79E22}</t>
+          <t>{C6670786-A976-4B52-868E-171137C94BF0}</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1533</v>
+        <v>1557</v>
       </c>
       <c r="D51" t="n">
-        <v>1549</v>
+        <v>1572</v>
       </c>
       <c r="E51" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>أبانوب النهيسي</t>
+          <t>اباكير و يوحنا</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{B7505EB8-9095-443D-8AB4-76B429FB6882}</t>
+          <t>{94B1CF6F-400F-4EBB-BEB3-7561B8B79E22}</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1550</v>
+        <v>1573</v>
       </c>
       <c r="D52" t="n">
-        <v>1565</v>
+        <v>1589</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>الأنبا إبرآم أسقف الفيوم</t>
+          <t>أبانوب النهيسي</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{76A5C39E-E378-49E4-A1B3-3C3C6AD0FC45}</t>
+          <t>{B7505EB8-9095-443D-8AB4-76B429FB6882}</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1566</v>
+        <v>1590</v>
       </c>
       <c r="D53" t="n">
-        <v>1585</v>
+        <v>1605</v>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>الأنبا أبوللو والأنبا أبيب</t>
+          <t>الأنبا إبرآم أسقف الفيوم</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{15F37CDF-162E-4235-B0CD-3EC560293C8F}</t>
+          <t>{76A5C39E-E378-49E4-A1B3-3C3C6AD0FC45}</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1586</v>
+        <v>1606</v>
       </c>
       <c r="D54" t="n">
-        <v>1604</v>
+        <v>1625</v>
       </c>
       <c r="E54" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>الشهيد مارجرجس الروماني</t>
+          <t>الأنبا أبوللو والأنبا أبيب</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{FFF1B9FE-C89C-4F56-85B7-F375461AEA62}</t>
+          <t>{15F37CDF-162E-4235-B0CD-3EC560293C8F}</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1605</v>
+        <v>1626</v>
       </c>
       <c r="D55" t="n">
-        <v>1616</v>
+        <v>1644</v>
       </c>
       <c r="E55" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>القديس لوقا الانجيلي</t>
+          <t>الشهيد مارجرجس الروماني</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{50EEB170-6F56-438C-943C-B8B3136DBB6A}</t>
+          <t>{FFF1B9FE-C89C-4F56-85B7-F375461AEA62}</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1617</v>
+        <v>1645</v>
       </c>
       <c r="D56" t="n">
-        <v>1634</v>
+        <v>1656</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>القديس مارمرقس الرسول</t>
+          <t>القديس لوقا الانجيلي</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{D4872368-E5CE-4B87-A314-70582CB26D33}</t>
+          <t>{50EEB170-6F56-438C-943C-B8B3136DBB6A}</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1635</v>
+        <v>1657</v>
       </c>
       <c r="D57" t="n">
-        <v>1653</v>
+        <v>1674</v>
       </c>
       <c r="E57" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>العذراء مريم</t>
+          <t>القديس مارمرقس الرسول</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{BC31EDAD-70A8-41AD-8F09-30FB6E612B63}</t>
+          <t>{D4872368-E5CE-4B87-A314-70582CB26D33}</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1654</v>
+        <v>1675</v>
       </c>
       <c r="D58" t="n">
-        <v>1672</v>
+        <v>1693</v>
       </c>
       <c r="E58" t="n">
         <v>19</v>
@@ -11698,147 +11761,189 @@
     <row r="59" ht="18.75" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>الملاك ميخائيل</t>
+          <t>العذراء مريم</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{12793581-7FD0-4EE7-B903-2943F410A5D2}</t>
+          <t>{BC31EDAD-70A8-41AD-8F09-30FB6E612B63}</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1673</v>
+        <v>1694</v>
       </c>
       <c r="D59" t="n">
-        <v>1684</v>
+        <v>1712</v>
       </c>
       <c r="E59" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
+          <t>الملاك ميخائيل</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>{12793581-7FD0-4EE7-B903-2943F410A5D2}</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1724</v>
+      </c>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>الملاك غبريال</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>{FFD2036A-0F2D-47E3-B5B9-AC167E3F6FF3}</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1725</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1736</v>
+      </c>
+      <c r="E61" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>الباب الثالث</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>{E5B98BC1-9C9D-42EC-BB16-E848179FB9DC}</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>1685</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1685</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="C62" t="n">
+        <v>1737</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1737</v>
+      </c>
+      <c r="E62" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="63" ht="18.75" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>رحلة الصوم الكبير</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>{11755A37-6BDF-4E72-9537-F39867C5BB7D}</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1686</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1692</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="C63" t="n">
+        <v>1738</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1744</v>
+      </c>
+      <c r="E63" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="64" ht="18.75" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>عند شق الفجر باكر</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>{D4859CD1-25CE-465C-846E-A0311D24DB66}</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1693</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1725</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="C64" t="n">
+        <v>1745</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1777</v>
+      </c>
+      <c r="E64" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="65" ht="18.75" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>قام حقا</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>{4615B620-F94D-4CAD-843A-EB32E8369AAB}</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1726</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1739</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="C65" t="n">
+        <v>1778</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1791</v>
+      </c>
+      <c r="E65" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="66" ht="18.75" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>انظروا يديه تأملوا رجليه</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>{E1A31474-7F00-4B7D-90FD-A67415E32872}</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1740</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1754</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="C66" t="n">
+        <v>1792</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1806</v>
+      </c>
+      <c r="E66" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="67" ht="18.75" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>يا ربنا مولى السلام</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>{325B4DE6-FA63-4B6D-827F-BCC78EF1FEC9}</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1755</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1798</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="C67" t="n">
+        <v>1807</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E67" t="n">
         <v>44</v>
       </c>
     </row>
@@ -24343,7 +24448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="18.75" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
           <t>الشهيد فيلوباتير مرقوريوس</t>
@@ -24364,7 +24469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="18.75" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
           <t>الشهيد مارمينا</t>
@@ -24385,7 +24490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="18.75" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>الأنبا أنطونيوس</t>
@@ -24406,7 +24511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="18.75" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>الانبا بولا</t>
@@ -24427,7 +24532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="18.75" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>الأنبا بيشوى و الأنبا بولا</t>
@@ -24448,7 +24553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="18.75" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
           <t>ختام الذكصولوجيات</t>
@@ -24681,7 +24786,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26109,7 +26214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="18.75" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
           <t>ختام التسبحة</t>
@@ -26130,7 +26235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="18.75" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
           <t>قدوس قدوس قدوس</t>
@@ -26145,10 +26250,31 @@
         <v>1611</v>
       </c>
       <c r="D69" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ابانا الذي في السموات</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>{68CD9B8E-B861-4695-8C6E-F8E0D19B6D78}</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
         <v>1615</v>
       </c>
-      <c r="E69" t="n">
-        <v>5</v>
+      <c r="D70" t="n">
+        <v>1615</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Files Data.xlsx
+++ b/Files Data.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E477"/>
+  <dimension ref="A1:E478"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,10 +5609,10 @@
         <v>1036</v>
       </c>
       <c r="D244" t="n">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="E244" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" ht="18.75" customHeight="1">
@@ -5627,13 +5627,13 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D245" t="n">
-        <v>1108</v>
+        <v>1087</v>
       </c>
       <c r="E245" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="246" ht="18.75" customHeight="1">
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>1109</v>
+        <v>1088</v>
       </c>
       <c r="D246" t="n">
-        <v>1141</v>
+        <v>1120</v>
       </c>
       <c r="E246" t="n">
         <v>33</v>
@@ -5669,10 +5669,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="D247" t="n">
-        <v>1142</v>
+        <v>1121</v>
       </c>
       <c r="E247" t="n">
         <v>1</v>
@@ -5690,136 +5690,136 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1143</v>
+        <v>1122</v>
       </c>
       <c r="D248" t="n">
-        <v>1155</v>
+        <v>1125</v>
       </c>
       <c r="E248" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" ht="18.75" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>صلاة الصلح</t>
+          <t>بداية صلاة الصلح</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>{61896DF5-07BF-4DEF-859A-F2046DD3BB84}</t>
+          <t>{8A156F41-5913-448D-AA31-B215DAD44A4F}</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="D249" t="n">
-        <v>1185</v>
+        <v>1130</v>
       </c>
       <c r="E249" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" ht="18.75" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>صلاة صلح  عال فوق كل قوة  2</t>
+          <t>صلاة الصلح باسيلي – يا الله العظيم الأبدي</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>{23BF5744-FBEF-4745-BA59-5BD55E6574CA}</t>
+          <t>{61896DF5-07BF-4DEF-859A-F2046DD3BB84}</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1186</v>
+        <v>1131</v>
       </c>
       <c r="D250" t="n">
-        <v>1197</v>
+        <v>1149</v>
       </c>
       <c r="E250" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="251" ht="18.75" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>الاسبسمس الادام</t>
+          <t>صلاة الصلح باسيلي – عال فوق كل قوة</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>{22F83DFC-792B-4148-8AED-E77703B6E7BB}</t>
+          <t>{23BF5744-FBEF-4745-BA59-5BD55E6574CA}</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1198</v>
+        <v>1150</v>
       </c>
       <c r="D251" t="n">
-        <v>1198</v>
+        <v>1171</v>
       </c>
       <c r="E251" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252" ht="18.75" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>الاسبسمس الادام السنوي+الختام</t>
+          <t>الاسبسمس الادام</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>{0C7A7725-643D-4F7E-A2F0-0C8A36C2A594}</t>
+          <t>{22F83DFC-792B-4148-8AED-E77703B6E7BB}</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1199</v>
+        <v>1172</v>
       </c>
       <c r="D252" t="n">
-        <v>1213</v>
+        <v>1172</v>
       </c>
       <c r="E252" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" ht="18.75" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>اسبسمس ادام للنيروز</t>
+          <t>الاسبسمس الادام السنوي+الختام</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>{D6A90169-94C5-4E1C-8154-AFF5E572A6CF}</t>
+          <t>{0C7A7725-643D-4F7E-A2F0-0C8A36C2A594}</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1214</v>
+        <v>1173</v>
       </c>
       <c r="D253" t="n">
-        <v>1215</v>
+        <v>1186</v>
       </c>
       <c r="E253" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" ht="18.75" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد الصليب</t>
+          <t>اسبسمس ادام للنيروز</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>{56962C9F-AA71-4EBE-BFCC-82940ED9C771}</t>
+          <t>{D6A90169-94C5-4E1C-8154-AFF5E572A6CF}</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1216</v>
+        <v>1187</v>
       </c>
       <c r="D254" t="n">
-        <v>1217</v>
+        <v>1188</v>
       </c>
       <c r="E254" t="n">
         <v>2</v>
@@ -5828,19 +5828,19 @@
     <row r="255" ht="18.75" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>اسبسمس ادام كيهك الاسبوع الاول</t>
+          <t>اسبسمس ادام لعيد الصليب</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>{01E23C15-498A-4810-AAD1-174FEFA3C566}</t>
+          <t>{56962C9F-AA71-4EBE-BFCC-82940ED9C771}</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>1218</v>
+        <v>1189</v>
       </c>
       <c r="D255" t="n">
-        <v>1219</v>
+        <v>1190</v>
       </c>
       <c r="E255" t="n">
         <v>2</v>
@@ -5849,19 +5849,19 @@
     <row r="256" ht="18.75" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>اسبسمس ادام كيهك الاسبوع الثاني</t>
+          <t>اسبسمس ادام كيهك الاسبوع الاول</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>{F046848F-99FB-45E4-A140-948DC7BD91CF}</t>
+          <t>{01E23C15-498A-4810-AAD1-174FEFA3C566}</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1220</v>
+        <v>1191</v>
       </c>
       <c r="D256" t="n">
-        <v>1221</v>
+        <v>1192</v>
       </c>
       <c r="E256" t="n">
         <v>2</v>
@@ -5870,19 +5870,19 @@
     <row r="257" ht="18.75" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>اسبسمس ادام كيهك الاسبوع الرابع</t>
+          <t>اسبسمس ادام كيهك الاسبوع الثاني</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>{AE5FB0E7-7B18-42AC-99D5-6473237B786E}</t>
+          <t>{F046848F-99FB-45E4-A140-948DC7BD91CF}</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1222</v>
+        <v>1193</v>
       </c>
       <c r="D257" t="n">
-        <v>1223</v>
+        <v>1194</v>
       </c>
       <c r="E257" t="n">
         <v>2</v>
@@ -5891,82 +5891,82 @@
     <row r="258" ht="18.75" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لبرامون الميلاد</t>
+          <t>اسبسمس ادام كيهك الاسبوع الرابع</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>{8A043029-9932-4D3C-8172-4B76E426B092}</t>
+          <t>{AE5FB0E7-7B18-42AC-99D5-6473237B786E}</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1224</v>
+        <v>1195</v>
       </c>
       <c r="D258" t="n">
-        <v>1226</v>
+        <v>1196</v>
       </c>
       <c r="E258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" ht="18.75" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>اسبسمس ادام  لعيد الميلاد 1</t>
+          <t>اسبسمس ادام لبرامون الميلاد</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>{5CAA4865-5192-4635-9967-094B52BFFE83}</t>
+          <t>{8A043029-9932-4D3C-8172-4B76E426B092}</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1227</v>
+        <v>1197</v>
       </c>
       <c r="D259" t="n">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="E259" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" ht="18.75" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد الميلاد 2</t>
+          <t>اسبسمس ادام  لعيد الميلاد 1</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>{042E4C02-9095-48E6-B619-5E95A092A467}</t>
+          <t>{5CAA4865-5192-4635-9967-094B52BFFE83}</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1231</v>
+        <v>1200</v>
       </c>
       <c r="D260" t="n">
-        <v>1232</v>
+        <v>1203</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" ht="18.75" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد الغطاس</t>
+          <t>اسبسمس ادام لعيد الميلاد 2</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>{B5AB6224-7866-490E-8536-A614C66FB653}</t>
+          <t>{042E4C02-9095-48E6-B619-5E95A092A467}</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1233</v>
+        <v>1204</v>
       </c>
       <c r="D261" t="n">
-        <v>1234</v>
+        <v>1205</v>
       </c>
       <c r="E261" t="n">
         <v>2</v>
@@ -5975,19 +5975,19 @@
     <row r="262" ht="18.75" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد عرس قانا الجليل</t>
+          <t>اسبسمس ادام لعيد الغطاس</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>{F4065161-D3EA-4EC0-9FC9-6787FB4900DD}</t>
+          <t>{B5AB6224-7866-490E-8536-A614C66FB653}</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1235</v>
+        <v>1206</v>
       </c>
       <c r="D262" t="n">
-        <v>1236</v>
+        <v>1207</v>
       </c>
       <c r="E262" t="n">
         <v>2</v>
@@ -5996,19 +5996,19 @@
     <row r="263" ht="18.75" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>اسبسمس ادام للصوم الكبير</t>
+          <t>اسبسمس ادام لعيد عرس قانا الجليل</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>{7C69B347-63A6-409B-9C80-6F7AA907197B}</t>
+          <t>{F4065161-D3EA-4EC0-9FC9-6787FB4900DD}</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="D263" t="n">
-        <v>1238</v>
+        <v>1209</v>
       </c>
       <c r="E263" t="n">
         <v>2</v>
@@ -6017,145 +6017,145 @@
     <row r="264" ht="18.75" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد البشارة</t>
+          <t>اسبسمس ادام للصوم الكبير</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>{0C416407-7559-4449-BC08-E161F996B9F0}</t>
+          <t>{7C69B347-63A6-409B-9C80-6F7AA907197B}</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1239</v>
+        <v>1210</v>
       </c>
       <c r="D264" t="n">
-        <v>1241</v>
+        <v>1211</v>
       </c>
       <c r="E264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" ht="18.75" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لسبت لعازر</t>
+          <t>اسبسمس ادام لعيد البشارة</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>{7D07F022-6B6E-4F94-BF58-0C259920A0B8}</t>
+          <t>{0C416407-7559-4449-BC08-E161F996B9F0}</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1242</v>
+        <v>1212</v>
       </c>
       <c r="D265" t="n">
-        <v>1243</v>
+        <v>1214</v>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" ht="18.75" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لاحد الشعانين</t>
+          <t>اسبسمس ادام لسبت لعازر</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>{8F01200A-5058-41B2-8B20-179191B203ED}</t>
+          <t>{7D07F022-6B6E-4F94-BF58-0C259920A0B8}</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1244</v>
+        <v>1215</v>
       </c>
       <c r="D266" t="n">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="E266" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" ht="18.75" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لسبت النور</t>
+          <t>اسبسمس ادام لاحد الشعانين</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>{207DD04A-8E47-466A-9FE5-51EF3E7D7C1A}</t>
+          <t>{8F01200A-5058-41B2-8B20-179191B203ED}</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="D267" t="n">
-        <v>1249</v>
+        <v>1220</v>
       </c>
       <c r="E267" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" ht="18.75" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد القيامة</t>
+          <t>اسبسمس ادام لسبت النور</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>{2F9B712F-EC2B-474A-B445-B4A46D96A229}</t>
+          <t>{207DD04A-8E47-466A-9FE5-51EF3E7D7C1A}</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1250</v>
+        <v>1221</v>
       </c>
       <c r="D268" t="n">
-        <v>1252</v>
+        <v>1222</v>
       </c>
       <c r="E268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" ht="18.75" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد الصعود</t>
+          <t>اسبسمس ادام لعيد القيامة</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>{A91FBB00-3AAB-4A9A-8A22-6E086F37BCF1}</t>
+          <t>{2F9B712F-EC2B-474A-B445-B4A46D96A229}</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1253</v>
+        <v>1223</v>
       </c>
       <c r="D269" t="n">
-        <v>1254</v>
+        <v>1225</v>
       </c>
       <c r="E269" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" ht="18.75" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد العنصرة</t>
+          <t>اسبسمس ادام لعيد الصعود</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>{5D584DBA-C59D-40EA-9739-C83DA37F8C12}</t>
+          <t>{A91FBB00-3AAB-4A9A-8A22-6E086F37BCF1}</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1255</v>
+        <v>1226</v>
       </c>
       <c r="D270" t="n">
-        <v>1256</v>
+        <v>1227</v>
       </c>
       <c r="E270" t="n">
         <v>2</v>
@@ -6164,19 +6164,19 @@
     <row r="271" ht="18.75" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لصوم الرسل</t>
+          <t>اسبسمس ادام لعيد العنصرة</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>{0F90E375-2889-4751-8B6F-2CBA104BE05A}</t>
+          <t>{5D584DBA-C59D-40EA-9739-C83DA37F8C12}</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1257</v>
+        <v>1228</v>
       </c>
       <c r="D271" t="n">
-        <v>1258</v>
+        <v>1229</v>
       </c>
       <c r="E271" t="n">
         <v>2</v>
@@ -6185,19 +6185,19 @@
     <row r="272" ht="18.75" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لعيد الرسل</t>
+          <t>اسبسمس ادام لصوم الرسل</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>{ED6C64C6-470F-4506-A03B-46A67986126F}</t>
+          <t>{0F90E375-2889-4751-8B6F-2CBA104BE05A}</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1259</v>
+        <v>1230</v>
       </c>
       <c r="D272" t="n">
-        <v>1260</v>
+        <v>1231</v>
       </c>
       <c r="E272" t="n">
         <v>2</v>
@@ -6206,292 +6206,292 @@
     <row r="273" ht="18.75" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ختام الاسبسمس الادام</t>
+          <t>اسبسمس ادام لعيد الرسل</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>{1CDFD5FF-8DF5-48CF-A773-F5EEBD56469C}</t>
+          <t>{ED6C64C6-470F-4506-A03B-46A67986126F}</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1261</v>
+        <v>1232</v>
       </c>
       <c r="D273" t="n">
-        <v>1269</v>
+        <v>1233</v>
       </c>
       <c r="E273" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" ht="18.75" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>قبلو بعضكم</t>
+          <t>ختام الاسبسمس الادام</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>{BB1B1638-8290-46A9-ABFA-1E32DE905A3A}</t>
+          <t>{1CDFD5FF-8DF5-48CF-A773-F5EEBD56469C}</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1270</v>
+        <v>1234</v>
       </c>
       <c r="D274" t="n">
-        <v>1276</v>
+        <v>1241</v>
       </c>
       <c r="E274" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" ht="18.75" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>قبلوا الكبيرة ( اسبازيتي)</t>
+          <t>قبلو بعضكم</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>{2567665D-27E7-4BF2-BD00-420871C10D93}</t>
+          <t>{BB1B1638-8290-46A9-ABFA-1E32DE905A3A}</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1277</v>
+        <v>1242</v>
       </c>
       <c r="D275" t="n">
-        <v>1290</v>
+        <v>1246</v>
       </c>
       <c r="E275" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" ht="18.75" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>بشافاعات والدة الاله</t>
+          <t>قبلوا الكبيرة ( اسبازيتي)</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>{8DA8D4C2-8AA8-4C2D-9F82-F45F191B9BE9}</t>
+          <t>{2567665D-27E7-4BF2-BD00-420871C10D93}</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1291</v>
+        <v>1247</v>
       </c>
       <c r="D276" t="n">
-        <v>1296</v>
+        <v>1260</v>
       </c>
       <c r="E276" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" ht="18.75" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>الانافورا باسيلي</t>
+          <t>بشافاعات والدة الاله</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>{732239A9-E3A6-4426-A21E-66B3BB718C0B}</t>
+          <t>{8DA8D4C2-8AA8-4C2D-9F82-F45F191B9BE9}</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1297</v>
+        <v>1261</v>
       </c>
       <c r="D277" t="n">
-        <v>1326</v>
+        <v>1266</v>
       </c>
       <c r="E277" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" ht="18.75" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>الشاروبيم</t>
+          <t>الانافورا باسيلي</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>{BA0D5339-8D92-43FA-9F01-A03C5264D6F2}</t>
+          <t>{732239A9-E3A6-4426-A21E-66B3BB718C0B}</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1327</v>
+        <v>1267</v>
       </c>
       <c r="D278" t="n">
-        <v>1332</v>
+        <v>1296</v>
       </c>
       <c r="E278" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279" ht="18.75" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>أسبسمس واطس</t>
+          <t>الشاروبيم</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>{2EB8E5B7-6049-402F-80E4-ED6EDFAB83F4}</t>
+          <t>{BA0D5339-8D92-43FA-9F01-A03C5264D6F2}</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1333</v>
+        <v>1297</v>
       </c>
       <c r="D279" t="n">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" ht="18.75" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>الأسبسمس الواطس السنوى + الختام</t>
+          <t>أسبسمس واطس</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>{6D4272C0-AF9F-458D-BBAA-D43C516EBA89}</t>
+          <t>{2EB8E5B7-6049-402F-80E4-ED6EDFAB83F4}</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="D280" t="n">
-        <v>1343</v>
+        <v>1303</v>
       </c>
       <c r="E280" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" ht="18.75" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>الأسبسمس الواطس للنيروز</t>
+          <t>الأسبسمس الواطس السنوى + الختام</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>{F60C9DDF-C389-4AE1-8AA0-2FD11F9F5021}</t>
+          <t>{6D4272C0-AF9F-458D-BBAA-D43C516EBA89}</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1344</v>
+        <v>1304</v>
       </c>
       <c r="D281" t="n">
-        <v>1347</v>
+        <v>1313</v>
       </c>
       <c r="E281" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" ht="18.75" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد الصليب</t>
+          <t>الأسبسمس الواطس للنيروز</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>{02523737-EC78-4811-84BB-436795EE788F}</t>
+          <t>{F60C9DDF-C389-4AE1-8AA0-2FD11F9F5021}</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1348</v>
+        <v>1314</v>
       </c>
       <c r="D282" t="n">
-        <v>1350</v>
+        <v>1317</v>
       </c>
       <c r="E282" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" ht="18.75" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لكيهك</t>
+          <t>اسبسمس واطس لعيد الصليب</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>{052B715B-BEE3-42A5-8A19-19FECEF152D7}</t>
+          <t>{02523737-EC78-4811-84BB-436795EE788F}</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1351</v>
+        <v>1318</v>
       </c>
       <c r="D283" t="n">
-        <v>1363</v>
+        <v>1320</v>
       </c>
       <c r="E283" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" ht="18.75" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لبرامون الميلاد</t>
+          <t>اسبسمس واطس لكيهك</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>{5A2BD4C2-011E-4638-BCD3-E787E5587101}</t>
+          <t>{052B715B-BEE3-42A5-8A19-19FECEF152D7}</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1364</v>
+        <v>1321</v>
       </c>
       <c r="D284" t="n">
-        <v>1365</v>
+        <v>1333</v>
       </c>
       <c r="E284" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" ht="18.75" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد الميلاد</t>
+          <t>اسبسمس واطس لبرامون الميلاد</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>{2445EC6C-3293-405F-A586-E32C677B7751}</t>
+          <t>{5A2BD4C2-011E-4638-BCD3-E787E5587101}</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1366</v>
+        <v>1334</v>
       </c>
       <c r="D285" t="n">
-        <v>1369</v>
+        <v>1335</v>
       </c>
       <c r="E285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" ht="18.75" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد الغطاس</t>
+          <t>اسبسمس واطس لعيد الميلاد</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>{D4BF84D6-EF42-4768-8B47-A7210154C3F2}</t>
+          <t>{2445EC6C-3293-405F-A586-E32C677B7751}</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1370</v>
+        <v>1336</v>
       </c>
       <c r="D286" t="n">
-        <v>1373</v>
+        <v>1339</v>
       </c>
       <c r="E286" t="n">
         <v>4</v>
@@ -6500,103 +6500,103 @@
     <row r="287" ht="18.75" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد عرس قانا الجليل</t>
+          <t>اسبسمس واطس لعيد الغطاس</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>{F3233AE7-B87B-4C93-9DC7-24745DCD672E}</t>
+          <t>{D4BF84D6-EF42-4768-8B47-A7210154C3F2}</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>1374</v>
+        <v>1340</v>
       </c>
       <c r="D287" t="n">
-        <v>1375</v>
+        <v>1343</v>
       </c>
       <c r="E287" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" ht="18.75" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>اسبسمس واطس للصوم الكبير</t>
+          <t>اسبسمس واطس لعيد عرس قانا الجليل</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>{6BD6B64E-0E1F-4BAC-A7DD-E10B1476E5E3}</t>
+          <t>{F3233AE7-B87B-4C93-9DC7-24745DCD672E}</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1376</v>
+        <v>1344</v>
       </c>
       <c r="D288" t="n">
-        <v>1381</v>
+        <v>1345</v>
       </c>
       <c r="E288" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" ht="18.75" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد البشارة</t>
+          <t>اسبسمس واطس للصوم الكبير</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>{45FA414E-7385-4E3A-9163-587A152CA1F8}</t>
+          <t>{6BD6B64E-0E1F-4BAC-A7DD-E10B1476E5E3}</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1382</v>
+        <v>1346</v>
       </c>
       <c r="D289" t="n">
-        <v>1385</v>
+        <v>1351</v>
       </c>
       <c r="E289" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" ht="18.75" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لاحد الشعانين</t>
+          <t>اسبسمس واطس لعيد البشارة</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>{12528D33-08EB-4995-AF1F-61B8AB2F51C2}</t>
+          <t>{45FA414E-7385-4E3A-9163-587A152CA1F8}</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1386</v>
+        <v>1352</v>
       </c>
       <c r="D290" t="n">
-        <v>1388</v>
+        <v>1355</v>
       </c>
       <c r="E290" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" ht="18.75" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد القيامة</t>
+          <t>اسبسمس واطس لاحد الشعانين</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>{9888DFF9-9A38-4DB9-80E8-E000DA07D088}</t>
+          <t>{12528D33-08EB-4995-AF1F-61B8AB2F51C2}</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1389</v>
+        <v>1356</v>
       </c>
       <c r="D291" t="n">
-        <v>1391</v>
+        <v>1358</v>
       </c>
       <c r="E291" t="n">
         <v>3</v>
@@ -6605,40 +6605,40 @@
     <row r="292" ht="18.75" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد الصعود</t>
+          <t>اسبسمس واطس لعيد القيامة</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>{BA393839-A242-4557-8097-032911C32D90}</t>
+          <t>{9888DFF9-9A38-4DB9-80E8-E000DA07D088}</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1392</v>
+        <v>1359</v>
       </c>
       <c r="D292" t="n">
-        <v>1395</v>
+        <v>1361</v>
       </c>
       <c r="E292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" ht="18.75" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد العنصرة</t>
+          <t>اسبسمس واطس لعيد الصعود</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>{9C8B1B1B-D26E-4129-A376-E3FBC58BE596}</t>
+          <t>{BA393839-A242-4557-8097-032911C32D90}</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1396</v>
+        <v>1362</v>
       </c>
       <c r="D293" t="n">
-        <v>1399</v>
+        <v>1365</v>
       </c>
       <c r="E293" t="n">
         <v>4</v>
@@ -6647,40 +6647,40 @@
     <row r="294" ht="18.75" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لصوم الرسل</t>
+          <t>اسبسمس واطس لعيد العنصرة</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>{8E785032-24C5-4549-B836-775B681E2339}</t>
+          <t>{9C8B1B1B-D26E-4129-A376-E3FBC58BE596}</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1400</v>
+        <v>1366</v>
       </c>
       <c r="D294" t="n">
-        <v>1402</v>
+        <v>1369</v>
       </c>
       <c r="E294" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" ht="18.75" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>اسبسمس واطس لعيد الرسل</t>
+          <t>اسبسمس واطس لصوم الرسل</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>{9791B5D5-AAAD-43E2-80BD-37349C914E3A}</t>
+          <t>{8E785032-24C5-4549-B836-775B681E2339}</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>1403</v>
+        <v>1370</v>
       </c>
       <c r="D295" t="n">
-        <v>1405</v>
+        <v>1372</v>
       </c>
       <c r="E295" t="n">
         <v>3</v>
@@ -6689,19 +6689,19 @@
     <row r="296" ht="18.75" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>اسبسمس ادام لصوم السيدة العذراء</t>
+          <t>اسبسمس واطس لعيد الرسل</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>{F1B5792A-2FA4-40B5-94B9-48FF1FE86323}</t>
+          <t>{9791B5D5-AAAD-43E2-80BD-37349C914E3A}</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1406</v>
+        <v>1373</v>
       </c>
       <c r="D296" t="n">
-        <v>1408</v>
+        <v>1375</v>
       </c>
       <c r="E296" t="n">
         <v>3</v>
@@ -6710,460 +6710,460 @@
     <row r="297" ht="18.75" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ختام الأسبسمس الواطس</t>
+          <t>اسبسمس ادام لصوم السيدة العذراء</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>{F0C07D6A-9B65-4AF5-AF75-7BA80C1EEEFC}</t>
+          <t>{F1B5792A-2FA4-40B5-94B9-48FF1FE86323}</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>1409</v>
+        <v>1376</v>
       </c>
       <c r="D297" t="n">
-        <v>1412</v>
+        <v>1378</v>
       </c>
       <c r="E297" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" ht="18.75" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>الانافورا باسيلي 2</t>
+          <t>ختام الأسبسمس الواطس</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>{0635840D-EAB4-4EC5-A03C-5E2AC77708B5}</t>
+          <t>{F0C07D6A-9B65-4AF5-AF75-7BA80C1EEEFC}</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>1413</v>
+        <v>1379</v>
       </c>
       <c r="D298" t="n">
-        <v>1453</v>
+        <v>1382</v>
       </c>
       <c r="E298" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" ht="18.75" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>الصلوات التأسيسية</t>
+          <t>الانافورا باسيلي 2</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>{8EB032A1-1E00-42A8-A163-612021B30F09}</t>
+          <t>{0635840D-EAB4-4EC5-A03C-5E2AC77708B5}</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>1454</v>
+        <v>1383</v>
       </c>
       <c r="D299" t="n">
-        <v>1506</v>
+        <v>1423</v>
       </c>
       <c r="E299" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="300" ht="18.75" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>حلول الروح القدس</t>
+          <t>الصلوات التأسيسية</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>{7C64C4D5-2E63-4E97-817D-1D92E897EBEB}</t>
+          <t>{8EB032A1-1E00-42A8-A163-612021B30F09}</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1507</v>
+        <v>1424</v>
       </c>
       <c r="D300" t="n">
-        <v>1527</v>
+        <v>1476</v>
       </c>
       <c r="E300" t="n">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="301" ht="18.75" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>طلبة نعم نسالك ايها المسيح</t>
+          <t>حلول الروح القدس</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>{F67F7DE1-7F1D-45F1-A785-B55F1ACBF7A3}</t>
+          <t>{7C64C4D5-2E63-4E97-817D-1D92E897EBEB}</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1528</v>
+        <v>1477</v>
       </c>
       <c r="D301" t="n">
-        <v>1551</v>
+        <v>1497</v>
       </c>
       <c r="E301" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="302" ht="18.75" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>الاواشي</t>
+          <t>طلبة نعم نسالك ايها المسيح</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>{DBAACFE5-56C3-4515-93FA-FA5DC8BAF1C4}</t>
+          <t>{F67F7DE1-7F1D-45F1-A785-B55F1ACBF7A3}</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1552</v>
+        <v>1498</v>
       </c>
       <c r="D302" t="n">
-        <v>1558</v>
+        <v>1521</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" ht="18.75" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>اوشية السلام</t>
+          <t>الاواشي</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>{F7EC0CF4-D52D-40DF-AF0F-F78D32D941E6}</t>
+          <t>{DBAACFE5-56C3-4515-93FA-FA5DC8BAF1C4}</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1559</v>
+        <v>1522</v>
       </c>
       <c r="D303" t="n">
-        <v>1569</v>
+        <v>1528</v>
       </c>
       <c r="E303" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" ht="18.75" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>اوشية الاباء (ب)</t>
+          <t>اوشية السلام</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>{74A33555-8E08-47DF-B3CD-A1B4C7AF2B4E}</t>
+          <t>{F7EC0CF4-D52D-40DF-AF0F-F78D32D941E6}</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1570</v>
+        <v>1529</v>
       </c>
       <c r="D304" t="n">
-        <v>1581</v>
+        <v>1535</v>
       </c>
       <c r="E304" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="305" ht="18.75" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>اوشية الاباء القمامصة</t>
+          <t>اوشية الاباء (ب)</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>{9D2C1240-0C77-48D7-8E06-006A8E871249}</t>
+          <t>{74A33555-8E08-47DF-B3CD-A1B4C7AF2B4E}</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1582</v>
+        <v>1536</v>
       </c>
       <c r="D305" t="n">
-        <v>1597</v>
+        <v>1545</v>
       </c>
       <c r="E305" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" ht="18.75" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>اوشية الموضع</t>
+          <t>اوشية الاباء القمامصة</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>{2ECD6135-2428-4841-B908-03856AFDC81D}</t>
+          <t>{9D2C1240-0C77-48D7-8E06-006A8E871249}</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1598</v>
+        <v>1546</v>
       </c>
       <c r="D306" t="n">
-        <v>1607</v>
+        <v>1561</v>
       </c>
       <c r="E306" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" ht="18.75" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>شعبك و كنيستك</t>
+          <t>اوشية الموضع</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>{1F952089-45AE-42C0-8112-C78465ED3E6F}</t>
+          <t>{2ECD6135-2428-4841-B908-03856AFDC81D}</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1608</v>
+        <v>1562</v>
       </c>
       <c r="D307" t="n">
-        <v>1613</v>
+        <v>1571</v>
       </c>
       <c r="E307" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" ht="18.75" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>انعم على شعبك  (ب)</t>
+          <t>شعبك و كنيستك</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>{D5C49608-F0FA-4671-A539-CDDC22CF5DFA}</t>
+          <t>{1F952089-45AE-42C0-8112-C78465ED3E6F}</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1614</v>
+        <v>1572</v>
       </c>
       <c r="D308" t="n">
-        <v>1616</v>
+        <v>1577</v>
       </c>
       <c r="E308" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" ht="18.75" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>اوشية الزروع  العشب</t>
+          <t>انعم على شعبك  (ب)</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>{F94B3D1F-649D-4839-BD2E-19439E173129}</t>
+          <t>{D5C49608-F0FA-4671-A539-CDDC22CF5DFA}</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1617</v>
+        <v>1578</v>
       </c>
       <c r="D309" t="n">
-        <v>1629</v>
+        <v>1580</v>
       </c>
       <c r="E309" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" ht="18.75" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>اوشية اهوية السماء</t>
+          <t>اوشية الزروع  العشب</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>{BC7E3DCD-6AA8-44CC-B8AF-BC3E2BC71B5A}</t>
+          <t>{F94B3D1F-649D-4839-BD2E-19439E173129}</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1630</v>
+        <v>1581</v>
       </c>
       <c r="D310" t="n">
-        <v>1639</v>
+        <v>1593</v>
       </c>
       <c r="E310" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" ht="18.75" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>اوشية المياة</t>
+          <t>اوشية اهوية السماء</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>{C7FC170A-D45F-4D4E-BD01-F17CADBFB65C}</t>
+          <t>{BC7E3DCD-6AA8-44CC-B8AF-BC3E2BC71B5A}</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1640</v>
+        <v>1594</v>
       </c>
       <c r="D311" t="n">
-        <v>1647</v>
+        <v>1603</v>
       </c>
       <c r="E311" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" ht="18.75" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>تكملة الاواشي</t>
+          <t>اوشية المياة</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
+          <t>{C7FC170A-D45F-4D4E-BD01-F17CADBFB65C}</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1648</v>
+        <v>1604</v>
       </c>
       <c r="D312" t="n">
-        <v>1666</v>
+        <v>1611</v>
       </c>
       <c r="E312" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" ht="18.75" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>طلبة شفاء للمرضي</t>
+          <t>تكملة الاواشي</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>{86B5CAD4-1D22-4D49-9B93-49C5B6DCE1DF}</t>
+          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1667</v>
+        <v>1612</v>
       </c>
       <c r="D313" t="n">
-        <v>1682</v>
+        <v>1630</v>
       </c>
       <c r="E313" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" ht="18.75" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>اوشية القرابين</t>
+          <t>طلبة شفاء للمرضي</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>{F588C389-BFD4-4A54-B993-15734340E7FF}</t>
+          <t>{86B5CAD4-1D22-4D49-9B93-49C5B6DCE1DF}</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1683</v>
+        <v>1631</v>
       </c>
       <c r="D314" t="n">
-        <v>1690</v>
+        <v>1646</v>
       </c>
       <c r="E314" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" ht="18.75" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>المجمع</t>
+          <t>اوشية القرابين</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>{8FCBD292-4189-45F5-AF0B-9EAD4160BB28}</t>
+          <t>{F588C389-BFD4-4A54-B993-15734340E7FF}</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1691</v>
+        <v>1647</v>
       </c>
       <c r="D315" t="n">
-        <v>1729</v>
+        <v>1654</v>
       </c>
       <c r="E315" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" ht="18.75" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>تكملة المجمع</t>
+          <t>المجمع</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>{4DF61446-E421-4047-B456-1B71E19EBFD8}</t>
+          <t>{8FCBD292-4189-45F5-AF0B-9EAD4160BB28}</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1730</v>
+        <v>1655</v>
       </c>
       <c r="D316" t="n">
-        <v>1753</v>
+        <v>1693</v>
       </c>
       <c r="E316" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="317" ht="18.75" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>الترحيم</t>
+          <t>تكملة المجمع</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>{FFBD833A-6176-47DE-A85E-7A9BB2FFE72F}</t>
+          <t>{4DF61446-E421-4047-B456-1B71E19EBFD8}</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1754</v>
+        <v>1694</v>
       </c>
       <c r="D317" t="n">
-        <v>1766</v>
+        <v>1717</v>
       </c>
       <c r="E317" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" ht="18.75" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>اوشية الراقدين</t>
+          <t>الترحيم</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>{55D9CC4B-BC83-4237-85FE-6D531AF420A0}</t>
+          <t>{FFBD833A-6176-47DE-A85E-7A9BB2FFE72F}</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1767</v>
+        <v>1718</v>
       </c>
       <c r="D318" t="n">
-        <v>1779</v>
+        <v>1730</v>
       </c>
       <c r="E318" t="n">
         <v>13</v>
@@ -7172,313 +7172,313 @@
     <row r="319" ht="18.75" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>افشيس</t>
+          <t>اوشية الراقدين</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>{03EDB4A5-40B5-4F67-9CDB-183580596BDE}</t>
+          <t>{55D9CC4B-BC83-4237-85FE-6D531AF420A0}</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1780</v>
+        <v>1731</v>
       </c>
       <c r="D319" t="n">
-        <v>1795</v>
+        <v>1743</v>
       </c>
       <c r="E319" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" ht="18.75" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>بي نشتي</t>
+          <t>افشيس</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>{B0EAE33A-CFB5-43ED-837F-92BF160A191B}</t>
+          <t>{03EDB4A5-40B5-4F67-9CDB-183580596BDE}</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1796</v>
+        <v>1744</v>
       </c>
       <c r="D320" t="n">
-        <v>1803</v>
+        <v>1759</v>
       </c>
       <c r="E320" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321" ht="18.75" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>بركتهم المقدسة</t>
+          <t>بي نشتي</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>{BAF472A2-B2E6-49D4-83D1-70E0A58B0511}</t>
+          <t>{B0EAE33A-CFB5-43ED-837F-92BF160A191B}</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1804</v>
+        <v>1760</v>
       </c>
       <c r="D321" t="n">
-        <v>1807</v>
+        <v>1767</v>
       </c>
       <c r="E321" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="322" ht="18.75" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>اولئك يارب باسيلي</t>
+          <t>بركتهم المقدسة</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>{CDA9FA3F-B284-4AEC-813A-0D768D8DA969}</t>
+          <t>{BAF472A2-B2E6-49D4-83D1-70E0A58B0511}</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1808</v>
+        <v>1768</v>
       </c>
       <c r="D322" t="n">
-        <v>1826</v>
+        <v>1771</v>
       </c>
       <c r="E322" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" ht="18.75" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>مقدمة القمسة</t>
+          <t>اولئك يارب باسيلي</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>{6C2572D7-3BC9-4B6E-B091-7E8D7012BBB4}</t>
+          <t>{CDA9FA3F-B284-4AEC-813A-0D768D8DA969}</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1827</v>
+        <v>1772</v>
       </c>
       <c r="D323" t="n">
-        <v>1849</v>
+        <v>1790</v>
       </c>
       <c r="E323" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="324" ht="18.75" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>صلاة الصلح كيرلسي - يا رئيس الحياة</t>
+          <t>مقدمة القمسة</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>{63765287-CFAE-4A09-8ABE-6C4A062E93F7}</t>
+          <t>{6C2572D7-3BC9-4B6E-B091-7E8D7012BBB4}</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1850</v>
+        <v>1791</v>
       </c>
       <c r="D324" t="n">
-        <v>1857</v>
+        <v>1813</v>
       </c>
       <c r="E324" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="325" ht="18.75" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>صلاة الصلح بعنق العبودية  كيرلسي 1</t>
+          <t>صلاة الصلح كيرلسي - يا رئيس الحياة</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>{CCD4C0F9-F9FF-4577-B53C-FD4D26B293F4}</t>
+          <t>{63765287-CFAE-4A09-8ABE-6C4A062E93F7}</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1858</v>
+        <v>1814</v>
       </c>
       <c r="D325" t="n">
-        <v>1870</v>
+        <v>1821</v>
       </c>
       <c r="E325" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" ht="18.75" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>صلاة صلح ثانية يا اله المحبة كيرلسي 2</t>
+          <t>صلاة الصلح بعنق العبودية  كيرلسي 1</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>{98135805-5FF1-49A7-BBD4-DB7347DC1D4D}</t>
+          <t>{CCD4C0F9-F9FF-4577-B53C-FD4D26B293F4}</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1871</v>
+        <v>1822</v>
       </c>
       <c r="D326" t="n">
-        <v>1876</v>
+        <v>1834</v>
       </c>
       <c r="E326" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" ht="18.75" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>تكملة القداس الكيرلسي</t>
+          <t>صلاة صلح ثانية يا اله المحبة كيرلسي 2</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>{955E93F1-B6A2-4E45-8F2F-BD62CA07640B}</t>
+          <t>{98135805-5FF1-49A7-BBD4-DB7347DC1D4D}</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1877</v>
+        <v>1835</v>
       </c>
       <c r="D327" t="n">
-        <v>1890</v>
+        <v>1840</v>
       </c>
       <c r="E327" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328" ht="18.75" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>اوشية السلامة  كيرلسي</t>
+          <t>تكملة القداس الكيرلسي</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>{340DA9A1-7654-4A30-A491-EA09CBEF4ED7}</t>
+          <t>{955E93F1-B6A2-4E45-8F2F-BD62CA07640B}</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1891</v>
+        <v>1841</v>
       </c>
       <c r="D328" t="n">
-        <v>1899</v>
+        <v>1854</v>
       </c>
       <c r="E328" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" ht="18.75" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>اوشية المرضي  كيرلسي</t>
+          <t>اوشية السلامة  كيرلسي</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>{16889C06-BBCA-4DB4-AE96-12DBEEE496E0}</t>
+          <t>{340DA9A1-7654-4A30-A491-EA09CBEF4ED7}</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1900</v>
+        <v>1855</v>
       </c>
       <c r="D329" t="n">
-        <v>1910</v>
+        <v>1863</v>
       </c>
       <c r="E329" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" ht="18.75" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>اوشية المسافرين  كيرلسي</t>
+          <t>اوشية المرضي  كيرلسي</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>{6E693822-2A92-42F1-BEFD-457A892648F1}</t>
+          <t>{16889C06-BBCA-4DB4-AE96-12DBEEE496E0}</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1911</v>
+        <v>1864</v>
       </c>
       <c r="D330" t="n">
-        <v>1918</v>
+        <v>1874</v>
       </c>
       <c r="E330" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" ht="18.75" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>اوشية الزروع و العشب  كيرلسي</t>
+          <t>اوشية المسافرين  كيرلسي</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>{D20A78DA-0456-493A-A49F-2979E8649CE7}</t>
+          <t>{6E693822-2A92-42F1-BEFD-457A892648F1}</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1919</v>
+        <v>1875</v>
       </c>
       <c r="D331" t="n">
-        <v>1930</v>
+        <v>1882</v>
       </c>
       <c r="E331" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" ht="18.75" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>اوهية السماء  كيرلسي</t>
+          <t>اوشية الزروع و العشب  كيرلسي</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>{167C8ECB-173C-44D4-9E97-C3002FBE8970}</t>
+          <t>{D20A78DA-0456-493A-A49F-2979E8649CE7}</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1931</v>
+        <v>1883</v>
       </c>
       <c r="D332" t="n">
-        <v>1933</v>
+        <v>1894</v>
       </c>
       <c r="E332" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" ht="18.75" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>اوشية المياة  كيرلسي</t>
+          <t>اوهية السماء  كيرلسي</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>{3C5DAA61-C03B-488A-8078-B0F7D264A8D7}</t>
+          <t>{167C8ECB-173C-44D4-9E97-C3002FBE8970}</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1934</v>
+        <v>1895</v>
       </c>
       <c r="D333" t="n">
-        <v>1936</v>
+        <v>1897</v>
       </c>
       <c r="E333" t="n">
         <v>3</v>
@@ -7487,85 +7487,85 @@
     <row r="334" ht="18.75" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>تكملة الاواشي  كيرلسي</t>
+          <t>اوشية المياة  كيرلسي</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>{9EF84E53-CF1B-4271-A7D5-D6714187A72A}</t>
+          <t>{3C5DAA61-C03B-488A-8078-B0F7D264A8D7}</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1937</v>
+        <v>1898</v>
       </c>
       <c r="D334" t="n">
-        <v>1955</v>
+        <v>1900</v>
       </c>
       <c r="E334" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" ht="18.75" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>اوشية الملك  كيرلسي</t>
+          <t>تكملة الاواشي  كيرلسي</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>{7D1156D6-3A8C-4821-967D-C6B993389F59}</t>
+          <t>{9EF84E53-CF1B-4271-A7D5-D6714187A72A}</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1956</v>
+        <v>1901</v>
       </c>
       <c r="D335" t="n">
-        <v>1962</v>
+        <v>1919</v>
       </c>
       <c r="E335" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="336" ht="18.75" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>المجمع  كيرلسي</t>
+          <t>اوشية الملك  كيرلسي</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>{28582067-ABA3-4CA6-A20F-9F5FC70F0388}</t>
+          <t>{7D1156D6-3A8C-4821-967D-C6B993389F59}</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1963</v>
+        <v>1920</v>
       </c>
       <c r="D336" t="n">
-        <v>1972</v>
+        <v>1926</v>
       </c>
       <c r="E336" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="337" ht="18.75" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>الترحيم  كيرلسي</t>
+          <t>المجمع  كيرلسي</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>{731C0222-4DEB-4BE3-BFC0-F033FAE75370}</t>
+          <t>{28582067-ABA3-4CA6-A20F-9F5FC70F0388}</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1973</v>
+        <v>1927</v>
       </c>
       <c r="D337" t="n">
-        <v>1978</v>
+        <v>1936</v>
       </c>
       <c r="E337" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" ht="18.75" customHeight="1">
@@ -7576,101 +7576,101 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>{D7C0CFE0-CE05-472D-B19E-2AC9D24E27F8}</t>
+          <t>{731C0222-4DEB-4BE3-BFC0-F033FAE75370}</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1979</v>
+        <v>1937</v>
       </c>
       <c r="D338" t="n">
-        <v>1989</v>
+        <v>1942</v>
       </c>
       <c r="E338" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" ht="18.75" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>اوشية القرابين  كيرلسي</t>
+          <t>الترحيم  كيرلسي</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>{2F871026-7578-4DC5-ACC0-1CA207EC60F4}</t>
+          <t>{D7C0CFE0-CE05-472D-B19E-2AC9D24E27F8}</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1990</v>
+        <v>1943</v>
       </c>
       <c r="D339" t="n">
-        <v>1999</v>
+        <v>1953</v>
       </c>
       <c r="E339" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" ht="18.75" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>اوشية البطريرك  كيرلسي</t>
+          <t>اوشية القرابين  كيرلسي</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>{1C9D0FE3-B92D-49E8-BD11-C4D8C07B712F}</t>
+          <t>{2F871026-7578-4DC5-ACC0-1CA207EC60F4}</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>2000</v>
+        <v>1954</v>
       </c>
       <c r="D340" t="n">
-        <v>2007</v>
+        <v>1963</v>
       </c>
       <c r="E340" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" ht="18.75" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>اوشية الاساقفة  كيرلسي</t>
+          <t>اوشية البطريرك  كيرلسي</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>{1BBEB8D9-C2E1-4E49-9E4C-BB84051D1B22}</t>
+          <t>{1C9D0FE3-B92D-49E8-BD11-C4D8C07B712F}</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>2008</v>
+        <v>1964</v>
       </c>
       <c r="D341" t="n">
-        <v>2010</v>
+        <v>1971</v>
       </c>
       <c r="E341" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" ht="18.75" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>اوشية القسوس  كيرلسي</t>
+          <t>اوشية الاساقفة  كيرلسي</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>{5D90CB09-2E95-47C4-B20D-AEE6F3E65A01}</t>
+          <t>{1BBEB8D9-C2E1-4E49-9E4C-BB84051D1B22}</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2011</v>
+        <v>1972</v>
       </c>
       <c r="D342" t="n">
-        <v>2015</v>
+        <v>1974</v>
       </c>
       <c r="E342" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" ht="18.75" customHeight="1">
@@ -7681,14 +7681,14 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>{B55D570E-7773-4EF8-A742-B7D712925011}</t>
+          <t>{5D90CB09-2E95-47C4-B20D-AEE6F3E65A01}</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>2016</v>
+        <v>1975</v>
       </c>
       <c r="D343" t="n">
-        <v>2020</v>
+        <v>1979</v>
       </c>
       <c r="E343" t="n">
         <v>5</v>
@@ -7697,127 +7697,127 @@
     <row r="344" ht="18.75" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>اوشية الموضع  كيرلسي</t>
+          <t>اوشية القسوس  كيرلسي</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>{9672DED3-7848-4D74-B426-932E4E7A644F}</t>
+          <t>{B55D570E-7773-4EF8-A742-B7D712925011}</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>2021</v>
+        <v>1980</v>
       </c>
       <c r="D344" t="n">
-        <v>2030</v>
+        <v>1984</v>
       </c>
       <c r="E344" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" ht="18.75" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>أوشية تذكار الموصين كيرلسي</t>
+          <t>اوشية الموضع  كيرلسي</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>{CCE6BBA2-58C3-4D14-A4FC-099784C5A510}</t>
+          <t>{9672DED3-7848-4D74-B426-932E4E7A644F}</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>2031</v>
+        <v>1985</v>
       </c>
       <c r="D345" t="n">
-        <v>2035</v>
+        <v>1994</v>
       </c>
       <c r="E345" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" ht="18.75" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>كيرلسي</t>
+          <t>أوشية تذكار الموصين كيرلسي</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>{7D4E2885-59B2-458D-9A11-95390B340D12}</t>
+          <t>{CCE6BBA2-58C3-4D14-A4FC-099784C5A510}</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>2036</v>
+        <v>1995</v>
       </c>
       <c r="D346" t="n">
-        <v>2039</v>
+        <v>1999</v>
       </c>
       <c r="E346" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" ht="18.75" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>اوشية الكهنوت كيرلسي</t>
+          <t>كيرلسي</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>{C143CC01-6DCC-4259-8D92-426D290B6744}</t>
+          <t>{7D4E2885-59B2-458D-9A11-95390B340D12}</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2040</v>
+        <v>2000</v>
       </c>
       <c r="D347" t="n">
-        <v>2044</v>
+        <v>2003</v>
       </c>
       <c r="E347" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" ht="18.75" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>اوشيه الاجتماعات كيرلسي</t>
+          <t>اوشية الكهنوت كيرلسي</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>{FD27AF11-9B0B-4169-8105-33F457DB2B76}</t>
+          <t>{C143CC01-6DCC-4259-8D92-426D290B6744}</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2045</v>
+        <v>2004</v>
       </c>
       <c r="D348" t="n">
-        <v>2053</v>
+        <v>2008</v>
       </c>
       <c r="E348" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" ht="18.75" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>كيرلسي</t>
+          <t>اوشيه الاجتماعات كيرلسي</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>{0B57DB68-84E9-4905-8DEA-F0EF30C7AF9A}</t>
+          <t>{FD27AF11-9B0B-4169-8105-33F457DB2B76}</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2054</v>
+        <v>2009</v>
       </c>
       <c r="D349" t="n">
-        <v>2079</v>
+        <v>2017</v>
       </c>
       <c r="E349" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" ht="18.75" customHeight="1">
@@ -7828,434 +7828,434 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>{CD9F44D3-4698-47A7-9721-B3E0C22C6296}</t>
+          <t>{0B57DB68-84E9-4905-8DEA-F0EF30C7AF9A}</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2080</v>
+        <v>2018</v>
       </c>
       <c r="D350" t="n">
-        <v>2086</v>
+        <v>2043</v>
       </c>
       <c r="E350" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="351" ht="18.75" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>نهاية الكيرلسي</t>
+          <t>كيرلسي</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>{94BB223B-8F01-4E99-AA4F-47986D7DFFB1}</t>
+          <t>{CD9F44D3-4698-47A7-9721-B3E0C22C6296}</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2087</v>
+        <v>2044</v>
       </c>
       <c r="D351" t="n">
-        <v>2204</v>
+        <v>2050</v>
       </c>
       <c r="E351" t="n">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="352" ht="18.75" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>صلاة الصلح الغريغوري</t>
+          <t>نهاية الكيرلسي</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>{3BC71AB1-EED4-44BF-AD68-E2CAB42E7B46}</t>
+          <t>{94BB223B-8F01-4E99-AA4F-47986D7DFFB1}</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2205</v>
+        <v>2051</v>
       </c>
       <c r="D352" t="n">
-        <v>2238</v>
+        <v>2168</v>
       </c>
       <c r="E352" t="n">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="353" ht="18.75" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>قبلو بعضكم</t>
+          <t>صلاة الصلح الغريغوري</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>{F9629322-CB65-4820-8A4F-1525DA7C29BC}</t>
+          <t>{3BC71AB1-EED4-44BF-AD68-E2CAB42E7B46}</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2239</v>
+        <v>2169</v>
       </c>
       <c r="D353" t="n">
-        <v>2245</v>
+        <v>2201</v>
       </c>
       <c r="E353" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="354" ht="18.75" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>قبلوا الكبيرة ( اسبازيتي)  غ</t>
+          <t>قبلو بعضكم</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>{82C51C9A-F8C3-469C-A147-8DC4705E6B19}</t>
+          <t>{F9629322-CB65-4820-8A4F-1525DA7C29BC}</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2246</v>
+        <v>2202</v>
       </c>
       <c r="D354" t="n">
-        <v>2257</v>
+        <v>2208</v>
       </c>
       <c r="E354" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" ht="18.75" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>بشافاعات والدة الاله</t>
+          <t>قبلوا الكبيرة ( اسبازيتي)  غ</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>{946602B6-52AA-4366-B9D4-B425DDE6F19B}</t>
+          <t>{82C51C9A-F8C3-469C-A147-8DC4705E6B19}</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2258</v>
+        <v>2209</v>
       </c>
       <c r="D355" t="n">
-        <v>2263</v>
+        <v>2220</v>
       </c>
       <c r="E355" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" ht="18.75" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>الانافورا غورغوري</t>
+          <t>بشافاعات والدة الاله</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>{CE8740B1-B325-44CA-8D6C-D7795F0B74D9}</t>
+          <t>{946602B6-52AA-4366-B9D4-B425DDE6F19B}</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2264</v>
+        <v>2221</v>
       </c>
       <c r="D356" t="n">
-        <v>2337</v>
+        <v>2226</v>
       </c>
       <c r="E356" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" ht="18.75" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>الشاروبيم (غ)</t>
+          <t>الانافورا غورغوري</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>{AED5AC0D-D4EA-470D-8C90-CC421CCD6F6B}</t>
+          <t>{CE8740B1-B325-44CA-8D6C-D7795F0B74D9}</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2338</v>
+        <v>2227</v>
       </c>
       <c r="D357" t="n">
-        <v>2343</v>
+        <v>2300</v>
       </c>
       <c r="E357" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="358" ht="18.75" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>تكلمة الانافورا غريغوري</t>
+          <t>الشاروبيم (غ)</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>{17A22C0D-DE20-43A4-B799-28755E1BA794}</t>
+          <t>{AED5AC0D-D4EA-470D-8C90-CC421CCD6F6B}</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2344</v>
+        <v>2301</v>
       </c>
       <c r="D358" t="n">
-        <v>2425</v>
+        <v>2306</v>
       </c>
       <c r="E358" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" ht="18.75" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>الصلوات التأسيسية الغريغوري</t>
+          <t>تكلمة الانافورا غريغوري</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>{EEEB93D6-A541-4FE4-B34A-C0D4C3B663AE}</t>
+          <t>{17A22C0D-DE20-43A4-B799-28755E1BA794}</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2426</v>
+        <v>2307</v>
       </c>
       <c r="D359" t="n">
-        <v>2474</v>
+        <v>2388</v>
       </c>
       <c r="E359" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="360" ht="18.75" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>سر حلول الروح القدس غريغوري</t>
+          <t>الصلوات التأسيسية الغريغوري</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>{A6B3ADB6-5321-4D59-AB7D-50D42A368712}</t>
+          <t>{EEEB93D6-A541-4FE4-B34A-C0D4C3B663AE}</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2475</v>
+        <v>2389</v>
       </c>
       <c r="D360" t="n">
-        <v>2499</v>
+        <v>2437</v>
       </c>
       <c r="E360" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" ht="18.75" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>الطلبة الاولى غريغوري</t>
+          <t>سر حلول الروح القدس غريغوري</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>{F05CC5B8-E547-4A13-94AB-09A058F28367}</t>
+          <t>{A6B3ADB6-5321-4D59-AB7D-50D42A368712}</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2500</v>
+        <v>2438</v>
       </c>
       <c r="D361" t="n">
-        <v>2512</v>
+        <v>2462</v>
       </c>
       <c r="E361" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" ht="18.75" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>اوشية السلام غ</t>
+          <t>الطلبة الاولى غريغوري</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>{2871A82F-3C61-4C8B-8D2C-9105872E10BB}</t>
+          <t>{F05CC5B8-E547-4A13-94AB-09A058F28367}</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2513</v>
+        <v>2463</v>
       </c>
       <c r="D362" t="n">
-        <v>2521</v>
+        <v>2475</v>
       </c>
       <c r="E362" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" ht="18.75" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>اوشية الاباء غ</t>
+          <t>اوشية السلام غ</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>{474487EB-4554-4A30-B351-6EF762D2F2D6}</t>
+          <t>{2871A82F-3C61-4C8B-8D2C-9105872E10BB}</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2522</v>
+        <v>2476</v>
       </c>
       <c r="D363" t="n">
-        <v>2531</v>
+        <v>2480</v>
       </c>
       <c r="E363" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="364" ht="18.75" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>اوشية الاباء القمامصة  غ</t>
+          <t>اوشية الاباء غ</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>{4B91971E-0123-47B6-9384-1CC46F7E2AFF}</t>
+          <t>{474487EB-4554-4A30-B351-6EF762D2F2D6}</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2532</v>
+        <v>2481</v>
       </c>
       <c r="D364" t="n">
-        <v>2544</v>
+        <v>2491</v>
       </c>
       <c r="E364" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" ht="18.75" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>اوشية الملوك  غ</t>
+          <t>اوشية الاباء القمامصة  غ</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>{01356C3D-7679-4DAF-B84C-AB565D0F42B4}</t>
+          <t>{4B91971E-0123-47B6-9384-1CC46F7E2AFF}</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2545</v>
+        <v>2492</v>
       </c>
       <c r="D365" t="n">
-        <v>2548</v>
+        <v>2504</v>
       </c>
       <c r="E365" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" ht="18.75" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>اوشية البلاط  غ</t>
+          <t>اوشية الملوك  غ</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>{AE2C1828-83C0-44DB-A782-95847853A9FE}</t>
+          <t>{01356C3D-7679-4DAF-B84C-AB565D0F42B4}</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2549</v>
+        <v>2505</v>
       </c>
       <c r="D366" t="n">
-        <v>2553</v>
+        <v>2508</v>
       </c>
       <c r="E366" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" ht="18.75" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>اوشية القرابين غ</t>
+          <t>اوشية البلاط  غ</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>{75EC87D0-3172-4B55-8BFB-D574A915CE4C}</t>
+          <t>{AE2C1828-83C0-44DB-A782-95847853A9FE}</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2554</v>
+        <v>2509</v>
       </c>
       <c r="D367" t="n">
-        <v>2561</v>
+        <v>2513</v>
       </c>
       <c r="E367" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="368" ht="18.75" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>اوشية المسبيين  غ</t>
+          <t>اوشية القرابين غ</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>{9B41FE00-FD95-4983-A823-216FC8861E53}</t>
+          <t>{75EC87D0-3172-4B55-8BFB-D574A915CE4C}</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2562</v>
+        <v>2514</v>
       </c>
       <c r="D368" t="n">
-        <v>2567</v>
+        <v>2521</v>
       </c>
       <c r="E368" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="369" ht="18.75" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>شعبك وكنيستك  غ</t>
+          <t>اوشية المسبيين  غ</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>{76C56A92-AA5B-48EC-BF95-196908A09EBE}</t>
+          <t>{9B41FE00-FD95-4983-A823-216FC8861E53}</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2568</v>
+        <v>2522</v>
       </c>
       <c r="D369" t="n">
-        <v>2580</v>
+        <v>2527</v>
       </c>
       <c r="E369" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="370" ht="18.75" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>اوشية الزروع و العشب غ</t>
+          <t>شعبك وكنيستك  غ</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>{3D4C118C-E6FF-4DF8-8E8F-B0CDF0FDBA54}</t>
+          <t>{76C56A92-AA5B-48EC-BF95-196908A09EBE}</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2581</v>
+        <v>2528</v>
       </c>
       <c r="D370" t="n">
-        <v>2593</v>
+        <v>2540</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
@@ -8264,103 +8264,103 @@
     <row r="371" ht="18.75" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>اوشية اهوية السماء غ</t>
+          <t>اوشية الزروع و العشب غ</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>{A20DA654-32F7-4B4C-96CB-C76232EB96E8}</t>
+          <t>{3D4C118C-E6FF-4DF8-8E8F-B0CDF0FDBA54}</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2594</v>
+        <v>2541</v>
       </c>
       <c r="D371" t="n">
-        <v>2603</v>
+        <v>2553</v>
       </c>
       <c r="E371" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" ht="18.75" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>اوشية المياة غ</t>
+          <t>اوشية اهوية السماء غ</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>{5DD6BABA-9FE4-4D33-9F90-0C865CB95EE4}</t>
+          <t>{A20DA654-32F7-4B4C-96CB-C76232EB96E8}</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2604</v>
+        <v>2554</v>
       </c>
       <c r="D372" t="n">
-        <v>2610</v>
+        <v>2563</v>
       </c>
       <c r="E372" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" ht="18.75" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>تكملة الاواشي غ</t>
+          <t>اوشية المياة غ</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>{243BA6AB-32B4-49FC-97E7-920E4E05CE67}</t>
+          <t>{5DD6BABA-9FE4-4D33-9F90-0C865CB95EE4}</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2611</v>
+        <v>2564</v>
       </c>
       <c r="D373" t="n">
-        <v>2629</v>
+        <v>2570</v>
       </c>
       <c r="E373" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="374" ht="18.75" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>الطلبة الثانية</t>
+          <t>تكملة الاواشي غ</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>{A9AFDBDD-92C7-4D4A-825F-669B140FC280}</t>
+          <t>{243BA6AB-32B4-49FC-97E7-920E4E05CE67}</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2630</v>
+        <v>2571</v>
       </c>
       <c r="D374" t="n">
-        <v>2645</v>
+        <v>2589</v>
       </c>
       <c r="E374" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="375" ht="18.75" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>اوشية الموضع غ</t>
+          <t>الطلبة الثانية</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>{6BE3EFA4-4509-486C-903A-3621F43AC1BC}</t>
+          <t>{A9AFDBDD-92C7-4D4A-825F-669B140FC280}</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2646</v>
+        <v>2590</v>
       </c>
       <c r="D375" t="n">
-        <v>2661</v>
+        <v>2605</v>
       </c>
       <c r="E375" t="n">
         <v>16</v>
@@ -8369,376 +8369,376 @@
     <row r="376" ht="18.75" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
-          <t>المجمع غريغوري</t>
+          <t>اوشية الموضع غ</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>{4AD0C7EA-CB1D-4658-A57F-FB42A721C4D2}</t>
+          <t>{6BE3EFA4-4509-486C-903A-3621F43AC1BC}</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2662</v>
+        <v>2606</v>
       </c>
       <c r="D376" t="n">
-        <v>2702</v>
+        <v>2621</v>
       </c>
       <c r="E376" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377" ht="18.75" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
-          <t>الترحيم</t>
+          <t>المجمع غريغوري</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>{0348F644-C9BD-46E0-9195-9E1BC414CB06}</t>
+          <t>{4AD0C7EA-CB1D-4658-A57F-FB42A721C4D2}</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2703</v>
+        <v>2622</v>
       </c>
       <c r="D377" t="n">
-        <v>2716</v>
+        <v>2662</v>
       </c>
       <c r="E377" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="378" ht="18.75" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>اوشية الراقدين</t>
+          <t>الترحيم</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>{29FB122B-02C5-402C-BDF5-28621F4343D2}</t>
+          <t>{0348F644-C9BD-46E0-9195-9E1BC414CB06}</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2717</v>
+        <v>2663</v>
       </c>
       <c r="D378" t="n">
-        <v>2729</v>
+        <v>2676</v>
       </c>
       <c r="E378" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" ht="18.75" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
-          <t>افشيس</t>
+          <t>اوشية الراقدين</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>{147F01DB-6B54-479F-946C-73CACFA208A8}</t>
+          <t>{29FB122B-02C5-402C-BDF5-28621F4343D2}</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2730</v>
+        <v>2677</v>
       </c>
       <c r="D379" t="n">
-        <v>2745</v>
+        <v>2689</v>
       </c>
       <c r="E379" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" ht="18.75" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
-          <t>بي نشتي</t>
+          <t>افشيس</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>{07C520EB-CAE3-4B07-B2F5-20AD48A6274F}</t>
+          <t>{147F01DB-6B54-479F-946C-73CACFA208A8}</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2746</v>
+        <v>2690</v>
       </c>
       <c r="D380" t="n">
-        <v>2753</v>
+        <v>2705</v>
       </c>
       <c r="E380" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381" ht="18.75" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
-          <t>بركتهم المقدسة غ</t>
+          <t>بي نشتي</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>{1A423266-1309-43C1-B6E7-33568634EF99}</t>
+          <t>{07C520EB-CAE3-4B07-B2F5-20AD48A6274F}</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2754</v>
+        <v>2706</v>
       </c>
       <c r="D381" t="n">
-        <v>2757</v>
+        <v>2713</v>
       </c>
       <c r="E381" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" ht="18.75" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
-          <t>آرى إفميفئى إبشويس  (غريغوري)</t>
+          <t>بركتهم المقدسة غ</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>{CC1C566A-1B83-45E7-B6EF-6C6804C3F60D}</t>
+          <t>{1A423266-1309-43C1-B6E7-33568634EF99}</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2758</v>
+        <v>2714</v>
       </c>
       <c r="D382" t="n">
-        <v>2781</v>
+        <v>2717</v>
       </c>
       <c r="E382" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" ht="18.75" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
-          <t>مقدمة القسمة غريغوري</t>
+          <t>آرى إفميفئى إبشويس  (غريغوري)</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>{202CFCE8-4AB7-4B77-AF97-C1F250E8C17B}</t>
+          <t>{CC1C566A-1B83-45E7-B6EF-6C6804C3F60D}</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2782</v>
+        <v>2718</v>
       </c>
       <c r="D383" t="n">
-        <v>2807</v>
+        <v>2741</v>
       </c>
       <c r="E383" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" ht="18.75" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
-          <t>القسمة</t>
+          <t>مقدمة القسمة غريغوري</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>{01F61BFD-210C-4F99-A7C7-7308CFAA93F4}</t>
+          <t>{202CFCE8-4AB7-4B77-AF97-C1F250E8C17B}</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2808</v>
+        <v>2742</v>
       </c>
       <c r="D384" t="n">
-        <v>2811</v>
+        <v>2767</v>
       </c>
       <c r="E384" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="385" ht="18.75" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
-          <t>قسمة القداس الباسيلي (أيها السيد الرب إلهنا)</t>
+          <t>القسمة</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>{681FF6A7-4230-4171-8F41-83FD64E8C960}</t>
+          <t>{01F61BFD-210C-4F99-A7C7-7308CFAA93F4}</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2812</v>
+        <v>2768</v>
       </c>
       <c r="D385" t="n">
-        <v>2818</v>
+        <v>2771</v>
       </c>
       <c r="E385" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" ht="18.75" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
-          <t>القسمة الوجيزة. (يا الله الذى أنعم)</t>
+          <t>قسمة القداس الباسيلي (أيها السيد الرب إلهنا)</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>{7B54BAD5-B8CF-4429-A92E-5B93F815B4CC}</t>
+          <t>{681FF6A7-4230-4171-8F41-83FD64E8C960}</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2819</v>
+        <v>2772</v>
       </c>
       <c r="D386" t="n">
-        <v>2821</v>
+        <v>2778</v>
       </c>
       <c r="E386" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="387" ht="18.75" customHeight="1">
       <c r="A387" t="inlineStr">
         <is>
-          <t>قسمة للآب للقديس إغريغوريوس (يا الله العظيم القدوس المحتجب)</t>
+          <t>القسمة الوجيزة. (يا الله الذى أنعم)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>{CD4B0555-C283-484C-9B20-BFAEC3D58EDF}</t>
+          <t>{7B54BAD5-B8CF-4429-A92E-5B93F815B4CC}</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2822</v>
+        <v>2779</v>
       </c>
       <c r="D387" t="n">
-        <v>2833</v>
+        <v>2781</v>
       </c>
       <c r="E387" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" ht="18.75" customHeight="1">
       <c r="A388" t="inlineStr">
         <is>
-          <t>قسمة للقديس أثناسيوس الرسولي. (وأيضاً نتضرع إلى الرحمة)</t>
+          <t>قسمة للآب للقديس إغريغوريوس (يا الله العظيم القدوس المحتجب)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>{9909362D-CDB1-45A5-A137-1D47556E7993}</t>
+          <t>{CD4B0555-C283-484C-9B20-BFAEC3D58EDF}</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2834</v>
+        <v>2782</v>
       </c>
       <c r="D388" t="n">
-        <v>2838</v>
+        <v>2793</v>
       </c>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" ht="18.75" customHeight="1">
       <c r="A389" t="inlineStr">
         <is>
-          <t>قسمة للقديس كيرلس (يا حمل الله الذى بأوجاعك)</t>
+          <t>قسمة للقديس أثناسيوس الرسولي. (وأيضاً نتضرع إلى الرحمة)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>{4EAEC385-F619-4C46-9589-1F1CA515D356}</t>
+          <t>{9909362D-CDB1-45A5-A137-1D47556E7993}</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2839</v>
+        <v>2794</v>
       </c>
       <c r="D389" t="n">
-        <v>2849</v>
+        <v>2798</v>
       </c>
       <c r="E389" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" ht="18.75" customHeight="1">
       <c r="A390" t="inlineStr">
         <is>
-          <t>قسمة سنوي للقديس أبيفانيوس (يا إلهنا بلاد الحكمة أين مسكنها)</t>
+          <t>قسمة للقديس كيرلس (يا حمل الله الذى بأوجاعك)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>{C2DFC0DA-3FDC-48DD-9C18-031C9675CB8F}</t>
+          <t>{4EAEC385-F619-4C46-9589-1F1CA515D356}</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2850</v>
+        <v>2799</v>
       </c>
       <c r="D390" t="n">
-        <v>2858</v>
+        <v>2809</v>
       </c>
       <c r="E390" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" ht="18.75" customHeight="1">
       <c r="A391" t="inlineStr">
         <is>
-          <t>القسمة السريانية (هكذا بالحقيقة تألم كلمة الله)</t>
+          <t>قسمة سنوي للقديس أبيفانيوس (يا إلهنا بلاد الحكمة أين مسكنها)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>{A713A459-8589-42C8-A9D7-AC9B6A4DAF13}</t>
+          <t>{C2DFC0DA-3FDC-48DD-9C18-031C9675CB8F}</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2859</v>
+        <v>2810</v>
       </c>
       <c r="D391" t="n">
-        <v>2865</v>
+        <v>2818</v>
       </c>
       <c r="E391" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" ht="18.75" customHeight="1">
       <c r="A392" t="inlineStr">
         <is>
-          <t>قسمة للآب سنوى (اللهم والد النور، ورئيس الحياة)</t>
+          <t>القسمة السريانية (هكذا بالحقيقة تألم كلمة الله)</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>{C9D901A8-7926-457C-8037-22BD903476CC}</t>
+          <t>{A713A459-8589-42C8-A9D7-AC9B6A4DAF13}</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2866</v>
+        <v>2819</v>
       </c>
       <c r="D392" t="n">
-        <v>2869</v>
+        <v>2825</v>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="393" ht="18.75" customHeight="1">
       <c r="A393" t="inlineStr">
         <is>
-          <t>قسمة للآب سنوى (أيها الرب إلهنا العظيم)</t>
+          <t>قسمة للآب سنوى (اللهم والد النور، ورئيس الحياة)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>{21A8229B-E244-4F4E-9CF9-334DF58C50B8}</t>
+          <t>{C9D901A8-7926-457C-8037-22BD903476CC}</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2870</v>
+        <v>2826</v>
       </c>
       <c r="D393" t="n">
-        <v>2873</v>
+        <v>2829</v>
       </c>
       <c r="E393" t="n">
         <v>4</v>
@@ -8747,250 +8747,250 @@
     <row r="394" ht="18.75" customHeight="1">
       <c r="A394" t="inlineStr">
         <is>
-          <t>قسمة للإبن سنوى (أيها الكائن الذى كان)</t>
+          <t>قسمة للآب سنوى (أيها الرب إلهنا العظيم)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>{F90E4B14-C4FF-486F-98C1-ADA99A89A302}</t>
+          <t>{21A8229B-E244-4F4E-9CF9-334DF58C50B8}</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2874</v>
+        <v>2830</v>
       </c>
       <c r="D394" t="n">
-        <v>2885</v>
+        <v>2833</v>
       </c>
       <c r="E394" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" ht="18.75" customHeight="1">
       <c r="A395" t="inlineStr">
         <is>
-          <t>قسمة للإبن سنوى (أنت هو كلمة الآب)</t>
+          <t>قسمة للإبن سنوى (أيها الكائن الذى كان)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>{F2499A0D-A0A3-42EB-A437-5664CF9EB56C}</t>
+          <t>{F90E4B14-C4FF-486F-98C1-ADA99A89A302}</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2886</v>
+        <v>2834</v>
       </c>
       <c r="D395" t="n">
-        <v>2890</v>
+        <v>2845</v>
       </c>
       <c r="E395" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" ht="18.75" customHeight="1">
       <c r="A396" t="inlineStr">
         <is>
-          <t>قسمة للإبن لأى وقت (أيها الإبن الإله الكلمة)</t>
+          <t>قسمة للإبن سنوى (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>{027EC456-759E-4983-982E-8E661C082017}</t>
+          <t>{F2499A0D-A0A3-42EB-A437-5664CF9EB56C}</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2891</v>
+        <v>2846</v>
       </c>
       <c r="D396" t="n">
-        <v>2901</v>
+        <v>2850</v>
       </c>
       <c r="E396" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397" ht="18.75" customHeight="1">
       <c r="A397" t="inlineStr">
         <is>
-          <t>قسمة للابن سنوي (يا مخلصي هذه هي الرأس)</t>
+          <t>قسمة للإبن لأى وقت (أيها الإبن الإله الكلمة)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>{1BA28636-E0D3-4C62-9A88-2EC8CD89FCDF}</t>
+          <t>{027EC456-759E-4983-982E-8E661C082017}</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2902</v>
+        <v>2851</v>
       </c>
       <c r="D397" t="n">
-        <v>2907</v>
+        <v>2861</v>
       </c>
       <c r="E397" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" ht="18.75" customHeight="1">
       <c r="A398" t="inlineStr">
         <is>
-          <t>قسمة للابن تقال في أي وقت (لمجد صورة جوهريتك نخضع)</t>
+          <t>قسمة للابن سنوي (يا مخلصي هذه هي الرأس)</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>{9C7B0DA2-DB0E-4576-B2DF-875A87310C06}</t>
+          <t>{1BA28636-E0D3-4C62-9A88-2EC8CD89FCDF}</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2908</v>
+        <v>2862</v>
       </c>
       <c r="D398" t="n">
-        <v>2917</v>
+        <v>2867</v>
       </c>
       <c r="E398" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399" ht="18.75" customHeight="1">
       <c r="A399" t="inlineStr">
         <is>
-          <t>قسمة النيروز (لنسبح الله تسبيحا جديدا)</t>
+          <t>قسمة للابن تقال في أي وقت (لمجد صورة جوهريتك نخضع)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>{8CC6F153-C335-4534-8CF6-42E3774875A6}</t>
+          <t>{9C7B0DA2-DB0E-4576-B2DF-875A87310C06}</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2918</v>
+        <v>2868</v>
       </c>
       <c r="D399" t="n">
-        <v>2925</v>
+        <v>2877</v>
       </c>
       <c r="E399" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" ht="18.75" customHeight="1">
       <c r="A400" t="inlineStr">
         <is>
-          <t>قسمة عيد الصليب (ايها المسيح الهنا الابن الكلمة)</t>
+          <t>قسمة النيروز (لنسبح الله تسبيحا جديدا)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>{3DF2ADE7-6EAF-4FD9-8250-7048D4114339}</t>
+          <t>{8CC6F153-C335-4534-8CF6-42E3774875A6}</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2926</v>
+        <v>2878</v>
       </c>
       <c r="D400" t="n">
-        <v>2936</v>
+        <v>2885</v>
       </c>
       <c r="E400" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401" ht="18.75" customHeight="1">
       <c r="A401" t="inlineStr">
         <is>
-          <t>قسمة للآب في صوم الميلاد وعيد الميلاد وسنوى (أيها السيد الرب إلهنا)</t>
+          <t>قسمة عيد الصليب (ايها المسيح الهنا الابن الكلمة)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>{C2F28915-B86E-4596-8EB2-7455EF4E91BD}</t>
+          <t>{3DF2ADE7-6EAF-4FD9-8250-7048D4114339}</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2937</v>
+        <v>2886</v>
       </c>
       <c r="D401" t="n">
-        <v>2941</v>
+        <v>2896</v>
       </c>
       <c r="E401" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" ht="18.75" customHeight="1">
       <c r="A402" t="inlineStr">
         <is>
-          <t>قسمة لميلاد الابن وفي الأعياد (اللهم المعتني بكل احد)</t>
+          <t>قسمة للآب في صوم الميلاد وعيد الميلاد وسنوى (أيها السيد الرب إلهنا)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>{E1024E42-D34E-4378-A071-0E68524DECE6}</t>
+          <t>{C2F28915-B86E-4596-8EB2-7455EF4E91BD}</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2942</v>
+        <v>2897</v>
       </c>
       <c r="D402" t="n">
-        <v>2955</v>
+        <v>2901</v>
       </c>
       <c r="E402" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="403" ht="18.75" customHeight="1">
       <c r="A403" t="inlineStr">
         <is>
-          <t>قسمة في الأعياد السيدية وفي الميلاد (اللهم الذي سبق علمه وجود الكائنات)</t>
+          <t>قسمة لميلاد الابن وفي الأعياد (اللهم المعتني بكل احد)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>{0E73CD3E-C982-4143-9947-E842D2626778}</t>
+          <t>{E1024E42-D34E-4378-A071-0E68524DECE6}</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2956</v>
+        <v>2902</v>
       </c>
       <c r="D403" t="n">
-        <v>2965</v>
+        <v>2915</v>
       </c>
       <c r="E403" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" ht="18.75" customHeight="1">
       <c r="A404" t="inlineStr">
         <is>
-          <t>قسمة عيد الختان و الدخول المسيح الهيكل (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة في الأعياد السيدية وفي الميلاد (اللهم الذي سبق علمه وجود الكائنات)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>{7F6F8D4A-D920-4593-8079-02F63856B7EC}</t>
+          <t>{0E73CD3E-C982-4143-9947-E842D2626778}</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2966</v>
+        <v>2916</v>
       </c>
       <c r="D404" t="n">
-        <v>2971</v>
+        <v>2925</v>
       </c>
       <c r="E404" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" ht="18.75" customHeight="1">
       <c r="A405" t="inlineStr">
         <is>
-          <t>قسمة عيد عرس قانا الجليل (أنت هو كلمة الآب)</t>
+          <t>قسمة عيد الختان و الدخول المسيح الهيكل (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>{73518929-B0CA-4403-BF97-0AC121ED4EF6}</t>
+          <t>{7F6F8D4A-D920-4593-8079-02F63856B7EC}</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2972</v>
+        <v>2926</v>
       </c>
       <c r="D405" t="n">
-        <v>2977</v>
+        <v>2931</v>
       </c>
       <c r="E405" t="n">
         <v>6</v>
@@ -8999,523 +8999,523 @@
     <row r="406" ht="18.75" customHeight="1">
       <c r="A406" t="inlineStr">
         <is>
-          <t>قسمة للآب في عيد الغطاس وسنوى (إذ أعطيتنا نعمة البنوة بحميم الميلاد)</t>
+          <t>قسمة عيد عرس قانا الجليل (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>{31B52FC4-A94D-4CCF-951F-BB1D2DD2D5D9}</t>
+          <t>{73518929-B0CA-4403-BF97-0AC121ED4EF6}</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2978</v>
+        <v>2932</v>
       </c>
       <c r="D406" t="n">
-        <v>2981</v>
+        <v>2937</v>
       </c>
       <c r="E406" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="407" ht="18.75" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
-          <t>قسمه عيد الغطاس وعيد يوحنا المعمدان (يا الله الذي أنعم على زكريا)</t>
+          <t>قسمة للآب في عيد الغطاس وسنوى (إذ أعطيتنا نعمة البنوة بحميم الميلاد)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>{65D2E228-2773-41A5-AD1F-5A718752D590}</t>
+          <t>{31B52FC4-A94D-4CCF-951F-BB1D2DD2D5D9}</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2982</v>
+        <v>2938</v>
       </c>
       <c r="D407" t="n">
-        <v>2986</v>
+        <v>2941</v>
       </c>
       <c r="E407" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" ht="18.75" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
-          <t>قسمة صوم نينوى (الله الرحوم)</t>
+          <t>قسمه عيد الغطاس وعيد يوحنا المعمدان (يا الله الذي أنعم على زكريا)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>{BB553AF2-8A5E-46E8-B567-4E8500E5A1C1}</t>
+          <t>{65D2E228-2773-41A5-AD1F-5A718752D590}</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2987</v>
+        <v>2942</v>
       </c>
       <c r="D408" t="n">
-        <v>2995</v>
+        <v>2946</v>
       </c>
       <c r="E408" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409" ht="18.75" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
-          <t>قسمة للآب في الصوم الكبير المقدس (أيها السيد الرب الإله ضابط الكل)</t>
+          <t>قسمة صوم نينوى (الله الرحوم)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>{41DD9B19-60F1-44CE-BF9E-34D6DA71F069}</t>
+          <t>{BB553AF2-8A5E-46E8-B567-4E8500E5A1C1}</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2996</v>
+        <v>2947</v>
       </c>
       <c r="D409" t="n">
-        <v>3003</v>
+        <v>2955</v>
       </c>
       <c r="E409" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="410" ht="18.75" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
-          <t>قسمة للإبن في أيام صوم الأربعين المقدس (أنت هو الله الرحوم مخلص)</t>
+          <t>قسمة للآب في الصوم الكبير المقدس (أيها السيد الرب الإله ضابط الكل)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>{F076B353-F7AB-4001-959A-5D482DE256DB}</t>
+          <t>{41DD9B19-60F1-44CE-BF9E-34D6DA71F069}</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>3004</v>
+        <v>2956</v>
       </c>
       <c r="D410" t="n">
-        <v>3008</v>
+        <v>2963</v>
       </c>
       <c r="E410" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="411" ht="18.75" customHeight="1">
       <c r="A411" t="inlineStr">
         <is>
-          <t>قسمة عيد البشارة المجيد (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة للإبن في أيام صوم الأربعين المقدس (أنت هو الله الرحوم مخلص)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>{3BCBBDE0-13A1-4825-B7A1-04CDC2E502E4}</t>
+          <t>{F076B353-F7AB-4001-959A-5D482DE256DB}</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>3009</v>
+        <v>2964</v>
       </c>
       <c r="D411" t="n">
-        <v>3014</v>
+        <v>2968</v>
       </c>
       <c r="E411" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="412" ht="18.75" customHeight="1">
       <c r="A412" t="inlineStr">
         <is>
-          <t>قسمة للآب في أحد الشعانين وسنوى (أيها الرب ربنا لقد صار إسمك)</t>
+          <t>قسمة عيد البشارة المجيد (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>{DBFE5A01-1D04-4F27-A7F4-057D75E8CBED}</t>
+          <t>{3BCBBDE0-13A1-4825-B7A1-04CDC2E502E4}</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>3015</v>
+        <v>2969</v>
       </c>
       <c r="D412" t="n">
-        <v>3017</v>
+        <v>2974</v>
       </c>
       <c r="E412" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413" ht="18.75" customHeight="1">
       <c r="A413" t="inlineStr">
         <is>
-          <t>قسمة تُقال في احد الشعانين (أيها الرب مثل ربنا مثل عجيب صار إسمك)</t>
+          <t>قسمة للآب في أحد الشعانين وسنوى (أيها الرب ربنا لقد صار إسمك)</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>{FA39B8EF-3898-43AD-B4E9-1E0FE167AE86}</t>
+          <t>{DBFE5A01-1D04-4F27-A7F4-057D75E8CBED}</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>3018</v>
+        <v>2975</v>
       </c>
       <c r="D413" t="n">
-        <v>3024</v>
+        <v>2977</v>
       </c>
       <c r="E413" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" ht="18.75" customHeight="1">
       <c r="A414" t="inlineStr">
         <is>
-          <t>قسمة للأب علي ذبح اسحق (وحدث في الأيام)</t>
+          <t>قسمة تُقال في احد الشعانين (أيها الرب مثل ربنا مثل عجيب صار إسمك)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>{F11101FD-3032-48C3-B6F9-29275566989B}</t>
+          <t>{FA39B8EF-3898-43AD-B4E9-1E0FE167AE86}</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>3025</v>
+        <v>2978</v>
       </c>
       <c r="D414" t="n">
-        <v>3034</v>
+        <v>2984</v>
       </c>
       <c r="E414" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" ht="18.75" customHeight="1">
       <c r="A415" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في سبت الفرح (يا يسوع المسيح ذا الإسم المخلص)</t>
+          <t>قسمة للأب علي ذبح اسحق (وحدث في الأيام)</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>{F6C1CD0D-A2FB-4ED4-AB68-DC5D2D8AA3F1}</t>
+          <t>{F11101FD-3032-48C3-B6F9-29275566989B}</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>3035</v>
+        <v>2985</v>
       </c>
       <c r="D415" t="n">
-        <v>3042</v>
+        <v>2994</v>
       </c>
       <c r="E415" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" ht="18.75" customHeight="1">
       <c r="A416" t="inlineStr">
         <is>
-          <t>قسمة للآب في عيد القيامة والخمسين (أيها السيد الرب الإله ضابط الكل)</t>
+          <t>قسمة للإبن تقال في سبت الفرح (يا يسوع المسيح ذا الإسم المخلص)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>{3E1960C6-4E54-4563-B3A6-E8AAB1680607}</t>
+          <t>{F6C1CD0D-A2FB-4ED4-AB68-DC5D2D8AA3F1}</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>3043</v>
+        <v>2995</v>
       </c>
       <c r="D416" t="n">
-        <v>3049</v>
+        <v>3002</v>
       </c>
       <c r="E416" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" ht="18.75" customHeight="1">
       <c r="A417" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في القيامة (أيها المسيح إلهنا رئيس كهنة)</t>
+          <t>قسمة للآب في عيد القيامة والخمسين (أيها السيد الرب الإله ضابط الكل)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>{4AD14E1E-7934-4DBD-9067-5222067CDCCC}</t>
+          <t>{3E1960C6-4E54-4563-B3A6-E8AAB1680607}</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3050</v>
+        <v>3003</v>
       </c>
       <c r="D417" t="n">
-        <v>3054</v>
+        <v>3009</v>
       </c>
       <c r="E417" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" ht="18.75" customHeight="1">
       <c r="A418" t="inlineStr">
         <is>
-          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
+          <t>قسمة للإبن تقال في القيامة (أيها المسيح إلهنا رئيس كهنة)</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
+          <t>{4AD14E1E-7934-4DBD-9067-5222067CDCCC}</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3055</v>
+        <v>3010</v>
       </c>
       <c r="D418" t="n">
-        <v>3062</v>
+        <v>3014</v>
       </c>
       <c r="E418" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" ht="18.75" customHeight="1">
       <c r="A419" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
+          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
+          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3063</v>
+        <v>3015</v>
       </c>
       <c r="D419" t="n">
-        <v>3069</v>
+        <v>3022</v>
       </c>
       <c r="E419" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="420" ht="18.75" customHeight="1">
       <c r="A420" t="inlineStr">
         <is>
-          <t>قسمة لعيد الرسل (يا الله الآب السماوي)</t>
+          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>{40A6164E-FE8E-46BF-8E33-41EB49A3EBD7}</t>
+          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3070</v>
+        <v>3023</v>
       </c>
       <c r="D420" t="n">
-        <v>3081</v>
+        <v>3029</v>
       </c>
       <c r="E420" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" ht="18.75" customHeight="1">
       <c r="A421" t="inlineStr">
         <is>
-          <t>قسمة للإبن تُقال في عيد التجلي (أنت هو كلمة الآب)</t>
+          <t>قسمة لعيد الرسل (يا الله الآب السماوي)</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>{C23F094B-BD4E-4348-8186-D1C4B8744FAA}</t>
+          <t>{40A6164E-FE8E-46BF-8E33-41EB49A3EBD7}</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3082</v>
+        <v>3030</v>
       </c>
       <c r="D421" t="n">
-        <v>3087</v>
+        <v>3041</v>
       </c>
       <c r="E421" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" ht="18.75" customHeight="1">
       <c r="A422" t="inlineStr">
         <is>
-          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
+          <t>قسمة للإبن تُقال في عيد التجلي (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
+          <t>{C23F094B-BD4E-4348-8186-D1C4B8744FAA}</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3088</v>
+        <v>3042</v>
       </c>
       <c r="D422" t="n">
-        <v>3096</v>
+        <v>3047</v>
       </c>
       <c r="E422" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" ht="18.75" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
-          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
+          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
+          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3097</v>
+        <v>3048</v>
       </c>
       <c r="D423" t="n">
-        <v>3110</v>
+        <v>3056</v>
       </c>
       <c r="E423" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" ht="18.75" customHeight="1">
       <c r="A424" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
+          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
+          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3111</v>
+        <v>3057</v>
       </c>
       <c r="D424" t="n">
-        <v>3118</v>
+        <v>3070</v>
       </c>
       <c r="E424" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="425" ht="18.75" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
-          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
+          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3119</v>
+        <v>3071</v>
       </c>
       <c r="D425" t="n">
-        <v>3128</v>
+        <v>3078</v>
       </c>
       <c r="E425" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" ht="18.75" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
+          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3129</v>
+        <v>3079</v>
       </c>
       <c r="D426" t="n">
-        <v>3134</v>
+        <v>3088</v>
       </c>
       <c r="E426" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" ht="18.75" customHeight="1">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ما قبل الإعتراف</t>
+          <t>ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
+          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3135</v>
+        <v>3089</v>
       </c>
       <c r="D427" t="n">
-        <v>3159</v>
+        <v>3094</v>
       </c>
       <c r="E427" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" ht="18.75" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
-          <t>الاعتراف</t>
+          <t>ما قبل الإعتراف</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
+          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3160</v>
+        <v>3095</v>
       </c>
       <c r="D428" t="n">
-        <v>3183</v>
+        <v>3119</v>
       </c>
       <c r="E428" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="429" ht="18.75" customHeight="1">
       <c r="A429" t="inlineStr">
         <is>
-          <t>مرد توزيع النيروز</t>
+          <t>الاعتراف</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
+          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3184</v>
+        <v>3120</v>
       </c>
       <c r="D429" t="n">
-        <v>3184</v>
+        <v>3143</v>
       </c>
       <c r="E429" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" ht="18.75" customHeight="1">
       <c r="A430" t="inlineStr">
         <is>
-          <t>مرد توزيع الصليب</t>
+          <t>مرد توزيع النيروز</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
+          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3185</v>
+        <v>3144</v>
       </c>
       <c r="D430" t="n">
-        <v>3185</v>
+        <v>3144</v>
       </c>
       <c r="E430" t="n">
         <v>1</v>
@@ -9524,19 +9524,19 @@
     <row r="431" ht="18.75" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
-          <t>مرد توزيع الغطاس</t>
+          <t>مرد توزيع الصليب</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
+          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3186</v>
+        <v>3145</v>
       </c>
       <c r="D431" t="n">
-        <v>3186</v>
+        <v>3145</v>
       </c>
       <c r="E431" t="n">
         <v>1</v>
@@ -9545,19 +9545,19 @@
     <row r="432" ht="18.75" customHeight="1">
       <c r="A432" t="inlineStr">
         <is>
-          <t>مرد توزيع الختان</t>
+          <t>مرد توزيع الغطاس</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
+          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3187</v>
+        <v>3146</v>
       </c>
       <c r="D432" t="n">
-        <v>3187</v>
+        <v>3146</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
@@ -9566,19 +9566,19 @@
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" t="inlineStr">
         <is>
-          <t>مرد توزيع عرس قانا الجليل</t>
+          <t>مرد توزيع الختان</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
+          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3188</v>
+        <v>3147</v>
       </c>
       <c r="D433" t="n">
-        <v>3188</v>
+        <v>3147</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -9587,19 +9587,19 @@
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" t="inlineStr">
         <is>
-          <t>مرد توزيع دخول المسيح الهيكل</t>
+          <t>مرد توزيع عرس قانا الجليل</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
+          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3189</v>
+        <v>3148</v>
       </c>
       <c r="D434" t="n">
-        <v>3189</v>
+        <v>3148</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -9608,19 +9608,19 @@
     <row r="435" ht="18.75" customHeight="1">
       <c r="A435" t="inlineStr">
         <is>
-          <t>مرد توزيع صوم نينوى</t>
+          <t>مرد توزيع دخول المسيح الهيكل</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
+          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3190</v>
+        <v>3149</v>
       </c>
       <c r="D435" t="n">
-        <v>3190</v>
+        <v>3149</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -9629,19 +9629,19 @@
     <row r="436" ht="18.75" customHeight="1">
       <c r="A436" t="inlineStr">
         <is>
-          <t>مرد توزيع الصوم الكبير</t>
+          <t>مرد توزيع صوم نينوى</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
+          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3191</v>
+        <v>3150</v>
       </c>
       <c r="D436" t="n">
-        <v>3191</v>
+        <v>3150</v>
       </c>
       <c r="E436" t="n">
         <v>1</v>
@@ -9650,19 +9650,19 @@
     <row r="437" ht="18.75" customHeight="1">
       <c r="A437" t="inlineStr">
         <is>
-          <t>مرد توزيع الشعانين</t>
+          <t>مرد توزيع الصوم الكبير</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
+          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3192</v>
+        <v>3151</v>
       </c>
       <c r="D437" t="n">
-        <v>3192</v>
+        <v>3151</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -9671,19 +9671,19 @@
     <row r="438" ht="18.75" customHeight="1">
       <c r="A438" t="inlineStr">
         <is>
-          <t>مرد توزيع البشارة</t>
+          <t>مرد توزيع الشعانين</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
+          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3193</v>
+        <v>3152</v>
       </c>
       <c r="D438" t="n">
-        <v>3193</v>
+        <v>3152</v>
       </c>
       <c r="E438" t="n">
         <v>1</v>
@@ -9692,19 +9692,19 @@
     <row r="439" ht="18.75" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
-          <t>مرد توزيع الميلاد</t>
+          <t>مرد توزيع البشارة</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
+          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3194</v>
+        <v>3153</v>
       </c>
       <c r="D439" t="n">
-        <v>3194</v>
+        <v>3153</v>
       </c>
       <c r="E439" t="n">
         <v>1</v>
@@ -9713,19 +9713,19 @@
     <row r="440" ht="18.75" customHeight="1">
       <c r="A440" t="inlineStr">
         <is>
-          <t>مرد توزيع القيامة</t>
+          <t>مرد توزيع الميلاد</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
+          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3195</v>
+        <v>3154</v>
       </c>
       <c r="D440" t="n">
-        <v>3195</v>
+        <v>3154</v>
       </c>
       <c r="E440" t="n">
         <v>1</v>
@@ -9734,19 +9734,19 @@
     <row r="441" ht="18.75" customHeight="1">
       <c r="A441" t="inlineStr">
         <is>
-          <t>مرد توزيع الصعود</t>
+          <t>مرد توزيع القيامة</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
+          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3196</v>
+        <v>3155</v>
       </c>
       <c r="D441" t="n">
-        <v>3196</v>
+        <v>3155</v>
       </c>
       <c r="E441" t="n">
         <v>1</v>
@@ -9755,19 +9755,19 @@
     <row r="442" ht="18.75" customHeight="1">
       <c r="A442" t="inlineStr">
         <is>
-          <t>مرد توزيع العنصرة</t>
+          <t>مرد توزيع الصعود</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
+          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3197</v>
+        <v>3156</v>
       </c>
       <c r="D442" t="n">
-        <v>3197</v>
+        <v>3156</v>
       </c>
       <c r="E442" t="n">
         <v>1</v>
@@ -9776,19 +9776,19 @@
     <row r="443" ht="18.75" customHeight="1">
       <c r="A443" t="inlineStr">
         <is>
-          <t>مرد توزيع التجلي</t>
+          <t>مرد توزيع العنصرة</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>{0080F7D2-9802-4100-8B27-DD23FBF42BCF}</t>
+          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3198</v>
+        <v>3157</v>
       </c>
       <c r="D443" t="n">
-        <v>3198</v>
+        <v>3157</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
@@ -9797,334 +9797,334 @@
     <row r="444" ht="18.75" customHeight="1">
       <c r="A444" t="inlineStr">
         <is>
-          <t>مزمور التوزيع</t>
+          <t>مرد توزيع التجلي</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
+          <t>{0080F7D2-9802-4100-8B27-DD23FBF42BCF}</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3199</v>
+        <v>3158</v>
       </c>
       <c r="D444" t="n">
-        <v>3215</v>
+        <v>3158</v>
       </c>
       <c r="E444" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" ht="18.75" customHeight="1">
       <c r="A445" t="inlineStr">
         <is>
-          <t>اطاي بارثينوس</t>
+          <t>مزمور التوزيع</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
+          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3216</v>
+        <v>3159</v>
       </c>
       <c r="D445" t="n">
-        <v>3237</v>
+        <v>3175</v>
       </c>
       <c r="E445" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" ht="18.75" customHeight="1">
       <c r="A446" t="inlineStr">
         <is>
-          <t>لازاروس</t>
+          <t>اطاي بارثينوس</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
+          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3238</v>
+        <v>3176</v>
       </c>
       <c r="D446" t="n">
-        <v>3265</v>
+        <v>3197</v>
       </c>
       <c r="E446" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" ht="18.75" customHeight="1">
       <c r="A447" t="inlineStr">
         <is>
-          <t>كاطا ني خوروس</t>
+          <t>لازاروس</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
+          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3266</v>
+        <v>3198</v>
       </c>
       <c r="D447" t="n">
-        <v>3269</v>
+        <v>3225</v>
       </c>
       <c r="E447" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="448" ht="18.75" customHeight="1">
       <c r="A448" t="inlineStr">
         <is>
-          <t>فهرس الحان التوزيع</t>
+          <t>كاطا ني خوروس</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
+          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3270</v>
+        <v>3226</v>
       </c>
       <c r="D448" t="n">
-        <v>3270</v>
+        <v>3229</v>
       </c>
       <c r="E448" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="449" ht="18.75" customHeight="1">
       <c r="A449" t="inlineStr">
         <is>
-          <t>اك اسماروؤت</t>
+          <t>فهرس الحان التوزيع</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
+          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3271</v>
+        <v>3230</v>
       </c>
       <c r="D449" t="n">
-        <v>3272</v>
+        <v>3230</v>
       </c>
       <c r="E449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" ht="18.75" customHeight="1">
       <c r="A450" t="inlineStr">
         <is>
-          <t>بي اويك</t>
+          <t>اك اسماروؤت</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
+          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3273</v>
+        <v>3231</v>
       </c>
       <c r="D450" t="n">
-        <v>3283</v>
+        <v>3232</v>
       </c>
       <c r="E450" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" ht="18.75" customHeight="1">
       <c r="A451" t="inlineStr">
         <is>
-          <t>جي اف اسماروؤت</t>
+          <t>بي اويك</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
+          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3284</v>
+        <v>3233</v>
       </c>
       <c r="D451" t="n">
-        <v>3285</v>
+        <v>3243</v>
       </c>
       <c r="E451" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="452" ht="18.75" customHeight="1">
       <c r="A452" t="inlineStr">
         <is>
-          <t>اسومين</t>
+          <t>جي اف اسماروؤت</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
+          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3286</v>
+        <v>3244</v>
       </c>
       <c r="D452" t="n">
-        <v>3310</v>
+        <v>3245</v>
       </c>
       <c r="E452" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" ht="18.75" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
-          <t>اف امبشا غار</t>
+          <t>اسومين</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
+          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3311</v>
+        <v>3246</v>
       </c>
       <c r="D453" t="n">
-        <v>3349</v>
+        <v>3270</v>
       </c>
       <c r="E453" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="454" ht="18.75" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
-          <t>تي بارثينوس</t>
+          <t>اف امبشا غار</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
+          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3350</v>
+        <v>3271</v>
       </c>
       <c r="D454" t="n">
-        <v>3362</v>
+        <v>3309</v>
       </c>
       <c r="E454" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="455" ht="18.75" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
-          <t>يونا بى ابروفيتيس</t>
+          <t>تي بارثينوس</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
+          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3363</v>
+        <v>3310</v>
       </c>
       <c r="D455" t="n">
-        <v>3378</v>
+        <v>3322</v>
       </c>
       <c r="E455" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="456" ht="18.75" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
-          <t>بي ماي رومي</t>
+          <t>يونا بى ابروفيتيس</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
+          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3379</v>
+        <v>3323</v>
       </c>
       <c r="D456" t="n">
-        <v>3393</v>
+        <v>3338</v>
       </c>
       <c r="E456" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457" ht="18.75" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
-          <t>اونيشتي اميستيريون</t>
+          <t>بي ماي رومي</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
+          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>3394</v>
+        <v>3339</v>
       </c>
       <c r="D457" t="n">
-        <v>3413</v>
+        <v>3353</v>
       </c>
       <c r="E457" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="458" ht="18.75" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
-          <t>مدائح سنوي</t>
+          <t>اونيشتي اميستيريون</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
+          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3414</v>
+        <v>3354</v>
       </c>
       <c r="D458" t="n">
-        <v>3414</v>
+        <v>3373</v>
       </c>
       <c r="E458" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" ht="18.75" customHeight="1">
       <c r="A459" t="inlineStr">
         <is>
-          <t>مدائح كيهك</t>
+          <t>مدائح سنوي</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
+          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3415</v>
+        <v>3374</v>
       </c>
       <c r="D459" t="n">
-        <v>3415</v>
+        <v>3374</v>
       </c>
       <c r="E459" t="n">
         <v>1</v>
@@ -10133,19 +10133,19 @@
     <row r="460" ht="18.75" customHeight="1">
       <c r="A460" t="inlineStr">
         <is>
-          <t>مدائح الميلاد</t>
+          <t>مدائح كيهك</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
+          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3416</v>
+        <v>3375</v>
       </c>
       <c r="D460" t="n">
-        <v>3416</v>
+        <v>3375</v>
       </c>
       <c r="E460" t="n">
         <v>1</v>
@@ -10154,19 +10154,19 @@
     <row r="461" ht="18.75" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
-          <t>مدائح صوم نينوى</t>
+          <t>مدائح الميلاد</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
+          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3417</v>
+        <v>3376</v>
       </c>
       <c r="D461" t="n">
-        <v>3417</v>
+        <v>3376</v>
       </c>
       <c r="E461" t="n">
         <v>1</v>
@@ -10175,19 +10175,19 @@
     <row r="462" ht="18.75" customHeight="1">
       <c r="A462" t="inlineStr">
         <is>
-          <t>مدائح الصوم الكبير</t>
+          <t>مدائح صوم نينوى</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
+          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3418</v>
+        <v>3377</v>
       </c>
       <c r="D462" t="n">
-        <v>3418</v>
+        <v>3377</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -10196,19 +10196,19 @@
     <row r="463" ht="18.75" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
-          <t>مدائح سبت لعازر</t>
+          <t>مدائح الصوم الكبير</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
+          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3419</v>
+        <v>3378</v>
       </c>
       <c r="D463" t="n">
-        <v>3419</v>
+        <v>3378</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -10217,19 +10217,19 @@
     <row r="464" ht="18.75" customHeight="1">
       <c r="A464" t="inlineStr">
         <is>
-          <t>مدائح احد الشعانين</t>
+          <t>مدائح سبت لعازر</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
+          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3420</v>
+        <v>3379</v>
       </c>
       <c r="D464" t="n">
-        <v>3420</v>
+        <v>3379</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -10238,19 +10238,19 @@
     <row r="465" ht="18.75" customHeight="1">
       <c r="A465" t="inlineStr">
         <is>
-          <t>مدائح القيامة</t>
+          <t>مدائح احد الشعانين</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
+          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3421</v>
+        <v>3380</v>
       </c>
       <c r="D465" t="n">
-        <v>3421</v>
+        <v>3380</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
@@ -10259,19 +10259,19 @@
     <row r="466" ht="18.75" customHeight="1">
       <c r="A466" t="inlineStr">
         <is>
-          <t>مدائح الخماسين من 2 الى 39</t>
+          <t>مدائح القيامة</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
+          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3422</v>
+        <v>3381</v>
       </c>
       <c r="D466" t="n">
-        <v>3422</v>
+        <v>3381</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
@@ -10280,19 +10280,19 @@
     <row r="467" ht="18.75" customHeight="1">
       <c r="A467" t="inlineStr">
         <is>
-          <t>مدائح الصعود الى العنصرة</t>
+          <t>مدائح الخماسين من 2 الى 39</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
+          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3423</v>
+        <v>3382</v>
       </c>
       <c r="D467" t="n">
-        <v>3423</v>
+        <v>3382</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
@@ -10301,19 +10301,19 @@
     <row r="468" ht="18.75" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
-          <t>مدائح صوم الرسل</t>
+          <t>مدائح الصعود الى العنصرة</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
+          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3424</v>
+        <v>3383</v>
       </c>
       <c r="D468" t="n">
-        <v>3424</v>
+        <v>3383</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
@@ -10322,19 +10322,19 @@
     <row r="469" ht="18.75" customHeight="1">
       <c r="A469" t="inlineStr">
         <is>
-          <t>مدائح الاعياد السيدية</t>
+          <t>مدائح صوم الرسل</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>{147FD013-1F73-40AC-92A0-5544B48FA888}</t>
+          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3425</v>
+        <v>3384</v>
       </c>
       <c r="D469" t="n">
-        <v>3425</v>
+        <v>3384</v>
       </c>
       <c r="E469" t="n">
         <v>1</v>
@@ -10343,19 +10343,19 @@
     <row r="470" ht="18.75" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
-          <t>مدائح ال29 من الشهر</t>
+          <t>مدائح الاعياد السيدية</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
+          <t>{147FD013-1F73-40AC-92A0-5544B48FA888}</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3426</v>
+        <v>3385</v>
       </c>
       <c r="D470" t="n">
-        <v>3426</v>
+        <v>3385</v>
       </c>
       <c r="E470" t="n">
         <v>1</v>
@@ -10364,147 +10364,168 @@
     <row r="471" ht="18.75" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ابؤرو للتوزيع</t>
+          <t>مدائح ال29 من الشهر</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
+          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3427</v>
+        <v>3386</v>
       </c>
       <c r="D471" t="n">
-        <v>3437</v>
+        <v>3386</v>
       </c>
       <c r="E471" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" ht="18.75" customHeight="1">
       <c r="A472" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>ابؤرو للتوزيع</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>3438</v>
+        <v>3387</v>
       </c>
       <c r="D472" t="n">
-        <v>3438</v>
+        <v>3397</v>
       </c>
       <c r="E472" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="473" ht="18.75" customHeight="1">
       <c r="A473" t="inlineStr">
         <is>
-          <t>الختام السنوي</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3439</v>
+        <v>3398</v>
       </c>
       <c r="D473" t="n">
-        <v>3441</v>
+        <v>3398</v>
       </c>
       <c r="E473" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" ht="18.75" customHeight="1">
       <c r="A474" t="inlineStr">
         <is>
-          <t>الختام في الصوم المقدس</t>
+          <t>الختام السنوي</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
+          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3442</v>
+        <v>3399</v>
       </c>
       <c r="D474" t="n">
-        <v>3447</v>
+        <v>3401</v>
       </c>
       <c r="E474" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" ht="18.75" customHeight="1">
       <c r="A475" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>الختام في الصوم المقدس</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3448</v>
+        <v>3402</v>
       </c>
       <c r="D475" t="n">
-        <v>3472</v>
+        <v>3407</v>
       </c>
       <c r="E475" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" ht="18.75" customHeight="1">
       <c r="A476" t="inlineStr">
         <is>
-          <t>في حضور الاسقف</t>
+          <t>تكملة على حسب المناسبة</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3473</v>
+        <v>3408</v>
       </c>
       <c r="D476" t="n">
-        <v>3481</v>
+        <v>3432</v>
       </c>
       <c r="E476" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="477" ht="18.75" customHeight="1">
       <c r="A477" t="inlineStr">
         <is>
+          <t>في حضور الاسقف</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>3433</v>
+      </c>
+      <c r="D477" t="n">
+        <v>3441</v>
+      </c>
+      <c r="E477" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
           <t>الختام 2</t>
         </is>
       </c>
-      <c r="B477" t="inlineStr">
+      <c r="B478" t="inlineStr">
         <is>
           <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
         </is>
       </c>
-      <c r="C477" t="n">
-        <v>3482</v>
-      </c>
-      <c r="D477" t="n">
-        <v>3486</v>
-      </c>
-      <c r="E477" t="n">
+      <c r="C478" t="n">
+        <v>3442</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3446</v>
+      </c>
+      <c r="E478" t="n">
         <v>5</v>
       </c>
     </row>
@@ -21476,7 +21497,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23201,12 +23222,12 @@
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>جي افسمارؤوت</t>
+          <t>ربع قال في عيد الرسل</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{DD53DBD3-9599-4D1D-B8C1-EAB35FBD36D3}</t>
+          <t>{38E5A337-7696-4261-833A-DF790456C6A8}</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -23222,61 +23243,61 @@
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>اوشية السلام</t>
+          <t>جي افسمارؤوت</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{4DB48091-D529-44E1-939A-81BC51E41D41}</t>
+          <t>{DD53DBD3-9599-4D1D-B8C1-EAB35FBD36D3}</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>818</v>
       </c>
       <c r="D83" t="n">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>اوشية الآباء</t>
+          <t>اوشية السلام</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{64C3B268-ED69-4006-B650-A09460633196}</t>
+          <t>{4DB48091-D529-44E1-939A-81BC51E41D41}</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D84" t="n">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>أوشية الموضع</t>
+          <t>اوشية الآباء</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{9DACDA4B-74BF-4F4B-A961-DA43C70DC545}</t>
+          <t>{64C3B268-ED69-4006-B650-A09460633196}</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D85" t="n">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="E85" t="n">
         <v>9</v>
@@ -23285,210 +23306,231 @@
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>تكملة الاواشي</t>
+          <t>أوشية الموضع</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
+          <t>{9DACDA4B-74BF-4F4B-A961-DA43C70DC545}</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="D86" t="n">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>أوشية الإجتماعات</t>
+          <t>تكملة الاواشي</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{7259AEAC-8F21-4B0E-9C69-498513DD91E4}</t>
+          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="D87" t="n">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="E87" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>أوشية الإجتماعات</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{FD187B58-5CE8-4776-8487-9C5928B14F0D}</t>
+          <t>{7259AEAC-8F21-4B0E-9C69-498513DD91E4}</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="D88" t="n">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{FD187B58-5CE8-4776-8487-9C5928B14F0D}</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D89" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D90" t="n">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="E90" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>في حضور الاسقف</t>
+          <t>تكملة على حسب المناسبة</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="D91" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>الختام 2</t>
+          <t>في حضور الاسقف</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="D92" t="n">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>اوشية المياة</t>
+          <t>الختام 2</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{BA51DE45-1C6C-43E6-AFF3-A98C3B049C70}</t>
+          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D93" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>أوشية الزروع</t>
+          <t>اوشية المياة</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{A0DD24B6-1053-42A1-8391-038649B3219B}</t>
+          <t>{BA51DE45-1C6C-43E6-AFF3-A98C3B049C70}</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D94" t="n">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
+          <t>أوشية الزروع</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{A0DD24B6-1053-42A1-8391-038649B3219B}</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>942</v>
+      </c>
+      <c r="D95" t="n">
+        <v>949</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>اوشية الأهوية والثمار</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>{BD1D9BBC-5109-4880-BAFF-4C03F37555C1}</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>948</v>
-      </c>
-      <c r="D95" t="n">
-        <v>953</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="C96" t="n">
+        <v>950</v>
+      </c>
+      <c r="D96" t="n">
+        <v>955</v>
+      </c>
+      <c r="E96" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Files Data.xlsx
+++ b/Files Data.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E478"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6911,280 +6911,280 @@
         <v>1546</v>
       </c>
       <c r="D306" t="n">
-        <v>1561</v>
+        <v>1553</v>
       </c>
       <c r="E306" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" ht="18.75" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>اوشية الموضع</t>
+          <t>اوشية الرحمة</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>{2ECD6135-2428-4841-B908-03856AFDC81D}</t>
+          <t>{804E566D-FBF3-4E1D-94B1-4A8A60C780D9}</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>1562</v>
+        <v>1554</v>
       </c>
       <c r="D307" t="n">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="E307" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" ht="18.75" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>شعبك و كنيستك</t>
+          <t>اوشية الموضع</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>{1F952089-45AE-42C0-8112-C78465ED3E6F}</t>
+          <t>{2ECD6135-2428-4841-B908-03856AFDC81D}</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="D308" t="n">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="E308" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" ht="18.75" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>انعم على شعبك  (ب)</t>
+          <t>شعبك و كنيستك</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>{D5C49608-F0FA-4671-A539-CDDC22CF5DFA}</t>
+          <t>{1F952089-45AE-42C0-8112-C78465ED3E6F}</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="D309" t="n">
-        <v>1580</v>
+        <v>1570</v>
       </c>
       <c r="E309" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" ht="18.75" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>اوشية الزروع  العشب</t>
+          <t>انعم على شعبك  (ب)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>{F94B3D1F-649D-4839-BD2E-19439E173129}</t>
+          <t>{D5C49608-F0FA-4671-A539-CDDC22CF5DFA}</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>1581</v>
+        <v>1571</v>
       </c>
       <c r="D310" t="n">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="E310" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" ht="18.75" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>اوشية اهوية السماء</t>
+          <t>اوشية الزروع  العشب</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>{BC7E3DCD-6AA8-44CC-B8AF-BC3E2BC71B5A}</t>
+          <t>{F94B3D1F-649D-4839-BD2E-19439E173129}</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="D311" t="n">
-        <v>1603</v>
+        <v>1586</v>
       </c>
       <c r="E311" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" ht="18.75" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>اوشية المياة</t>
+          <t>اوشية اهوية السماء</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>{C7FC170A-D45F-4D4E-BD01-F17CADBFB65C}</t>
+          <t>{BC7E3DCD-6AA8-44CC-B8AF-BC3E2BC71B5A}</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>1604</v>
+        <v>1587</v>
       </c>
       <c r="D312" t="n">
-        <v>1611</v>
+        <v>1596</v>
       </c>
       <c r="E312" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" ht="18.75" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>تكملة الاواشي</t>
+          <t>اوشية المياة</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
+          <t>{C7FC170A-D45F-4D4E-BD01-F17CADBFB65C}</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1612</v>
+        <v>1597</v>
       </c>
       <c r="D313" t="n">
-        <v>1630</v>
+        <v>1604</v>
       </c>
       <c r="E313" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314" ht="18.75" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>طلبة شفاء للمرضي</t>
+          <t>تكملة الاواشي</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>{86B5CAD4-1D22-4D49-9B93-49C5B6DCE1DF}</t>
+          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1631</v>
+        <v>1605</v>
       </c>
       <c r="D314" t="n">
-        <v>1646</v>
+        <v>1623</v>
       </c>
       <c r="E314" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="315" ht="18.75" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>اوشية القرابين</t>
+          <t>طلبة شفاء للمرضي</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>{F588C389-BFD4-4A54-B993-15734340E7FF}</t>
+          <t>{86B5CAD4-1D22-4D49-9B93-49C5B6DCE1DF}</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1647</v>
+        <v>1624</v>
       </c>
       <c r="D315" t="n">
-        <v>1654</v>
+        <v>1639</v>
       </c>
       <c r="E315" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316" ht="18.75" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>المجمع</t>
+          <t>اوشية القرابين</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>{8FCBD292-4189-45F5-AF0B-9EAD4160BB28}</t>
+          <t>{F588C389-BFD4-4A54-B993-15734340E7FF}</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>1655</v>
+        <v>1640</v>
       </c>
       <c r="D316" t="n">
-        <v>1693</v>
+        <v>1647</v>
       </c>
       <c r="E316" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" ht="18.75" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>تكملة المجمع</t>
+          <t>المجمع</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>{4DF61446-E421-4047-B456-1B71E19EBFD8}</t>
+          <t>{8FCBD292-4189-45F5-AF0B-9EAD4160BB28}</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>1694</v>
+        <v>1648</v>
       </c>
       <c r="D317" t="n">
-        <v>1717</v>
+        <v>1686</v>
       </c>
       <c r="E317" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="318" ht="18.75" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>الترحيم</t>
+          <t>تكملة المجمع</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>{FFBD833A-6176-47DE-A85E-7A9BB2FFE72F}</t>
+          <t>{4DF61446-E421-4047-B456-1B71E19EBFD8}</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1718</v>
+        <v>1687</v>
       </c>
       <c r="D318" t="n">
-        <v>1730</v>
+        <v>1710</v>
       </c>
       <c r="E318" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" ht="18.75" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>اوشية الراقدين</t>
+          <t>الترحيم</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>{55D9CC4B-BC83-4237-85FE-6D531AF420A0}</t>
+          <t>{FFBD833A-6176-47DE-A85E-7A9BB2FFE72F}</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>1731</v>
+        <v>1711</v>
       </c>
       <c r="D319" t="n">
-        <v>1743</v>
+        <v>1723</v>
       </c>
       <c r="E319" t="n">
         <v>13</v>
@@ -7193,313 +7193,313 @@
     <row r="320" ht="18.75" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>افشيس</t>
+          <t>اوشية الراقدين</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>{03EDB4A5-40B5-4F67-9CDB-183580596BDE}</t>
+          <t>{55D9CC4B-BC83-4237-85FE-6D531AF420A0}</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1744</v>
+        <v>1724</v>
       </c>
       <c r="D320" t="n">
-        <v>1759</v>
+        <v>1736</v>
       </c>
       <c r="E320" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" ht="18.75" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>بي نشتي</t>
+          <t>افشيس</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>{B0EAE33A-CFB5-43ED-837F-92BF160A191B}</t>
+          <t>{03EDB4A5-40B5-4F67-9CDB-183580596BDE}</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>1760</v>
+        <v>1737</v>
       </c>
       <c r="D321" t="n">
-        <v>1767</v>
+        <v>1752</v>
       </c>
       <c r="E321" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" ht="18.75" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>بركتهم المقدسة</t>
+          <t>بي نشتي</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>{BAF472A2-B2E6-49D4-83D1-70E0A58B0511}</t>
+          <t>{B0EAE33A-CFB5-43ED-837F-92BF160A191B}</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>1768</v>
+        <v>1753</v>
       </c>
       <c r="D322" t="n">
-        <v>1771</v>
+        <v>1760</v>
       </c>
       <c r="E322" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" ht="18.75" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>اولئك يارب باسيلي</t>
+          <t>بركتهم المقدسة</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>{CDA9FA3F-B284-4AEC-813A-0D768D8DA969}</t>
+          <t>{BAF472A2-B2E6-49D4-83D1-70E0A58B0511}</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>1772</v>
+        <v>1761</v>
       </c>
       <c r="D323" t="n">
-        <v>1790</v>
+        <v>1764</v>
       </c>
       <c r="E323" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" ht="18.75" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>مقدمة القمسة</t>
+          <t>اولئك يارب باسيلي</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>{6C2572D7-3BC9-4B6E-B091-7E8D7012BBB4}</t>
+          <t>{CDA9FA3F-B284-4AEC-813A-0D768D8DA969}</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>1791</v>
+        <v>1765</v>
       </c>
       <c r="D324" t="n">
-        <v>1813</v>
+        <v>1783</v>
       </c>
       <c r="E324" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="325" ht="18.75" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>صلاة الصلح كيرلسي - يا رئيس الحياة</t>
+          <t>مقدمة القمسة</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>{63765287-CFAE-4A09-8ABE-6C4A062E93F7}</t>
+          <t>{6C2572D7-3BC9-4B6E-B091-7E8D7012BBB4}</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1814</v>
+        <v>1784</v>
       </c>
       <c r="D325" t="n">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="E325" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="326" ht="18.75" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>صلاة الصلح بعنق العبودية  كيرلسي 1</t>
+          <t>صلاة الصلح كيرلسي - يا رئيس الحياة</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>{CCD4C0F9-F9FF-4577-B53C-FD4D26B293F4}</t>
+          <t>{63765287-CFAE-4A09-8ABE-6C4A062E93F7}</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="D326" t="n">
-        <v>1834</v>
+        <v>1813</v>
       </c>
       <c r="E326" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" ht="18.75" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>صلاة صلح ثانية يا اله المحبة كيرلسي 2</t>
+          <t>صلاة الصلح بعنق العبودية  كيرلسي 1</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>{98135805-5FF1-49A7-BBD4-DB7347DC1D4D}</t>
+          <t>{CCD4C0F9-F9FF-4577-B53C-FD4D26B293F4}</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1835</v>
+        <v>1814</v>
       </c>
       <c r="D327" t="n">
-        <v>1840</v>
+        <v>1826</v>
       </c>
       <c r="E327" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" ht="18.75" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>تكملة القداس الكيرلسي</t>
+          <t>صلاة صلح ثانية يا اله المحبة كيرلسي 2</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>{955E93F1-B6A2-4E45-8F2F-BD62CA07640B}</t>
+          <t>{98135805-5FF1-49A7-BBD4-DB7347DC1D4D}</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1841</v>
+        <v>1827</v>
       </c>
       <c r="D328" t="n">
-        <v>1854</v>
+        <v>1832</v>
       </c>
       <c r="E328" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" ht="18.75" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>اوشية السلامة  كيرلسي</t>
+          <t>تكملة القداس الكيرلسي</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>{340DA9A1-7654-4A30-A491-EA09CBEF4ED7}</t>
+          <t>{955E93F1-B6A2-4E45-8F2F-BD62CA07640B}</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1855</v>
+        <v>1833</v>
       </c>
       <c r="D329" t="n">
-        <v>1863</v>
+        <v>1846</v>
       </c>
       <c r="E329" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" ht="18.75" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>اوشية المرضي  كيرلسي</t>
+          <t>اوشية السلامة  كيرلسي</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>{16889C06-BBCA-4DB4-AE96-12DBEEE496E0}</t>
+          <t>{340DA9A1-7654-4A30-A491-EA09CBEF4ED7}</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1864</v>
+        <v>1847</v>
       </c>
       <c r="D330" t="n">
-        <v>1874</v>
+        <v>1855</v>
       </c>
       <c r="E330" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" ht="18.75" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>اوشية المسافرين  كيرلسي</t>
+          <t>اوشية المرضي  كيرلسي</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>{6E693822-2A92-42F1-BEFD-457A892648F1}</t>
+          <t>{16889C06-BBCA-4DB4-AE96-12DBEEE496E0}</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>1875</v>
+        <v>1856</v>
       </c>
       <c r="D331" t="n">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="E331" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" ht="18.75" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>اوشية الزروع و العشب  كيرلسي</t>
+          <t>اوشية المسافرين  كيرلسي</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>{D20A78DA-0456-493A-A49F-2979E8649CE7}</t>
+          <t>{6E693822-2A92-42F1-BEFD-457A892648F1}</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="D332" t="n">
-        <v>1894</v>
+        <v>1874</v>
       </c>
       <c r="E332" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="333" ht="18.75" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>اوهية السماء  كيرلسي</t>
+          <t>اوشية الزروع و العشب  كيرلسي</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>{167C8ECB-173C-44D4-9E97-C3002FBE8970}</t>
+          <t>{D20A78DA-0456-493A-A49F-2979E8649CE7}</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>1895</v>
+        <v>1875</v>
       </c>
       <c r="D333" t="n">
-        <v>1897</v>
+        <v>1886</v>
       </c>
       <c r="E333" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" ht="18.75" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>اوشية المياة  كيرلسي</t>
+          <t>اوهية السماء  كيرلسي</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>{3C5DAA61-C03B-488A-8078-B0F7D264A8D7}</t>
+          <t>{167C8ECB-173C-44D4-9E97-C3002FBE8970}</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>1898</v>
+        <v>1887</v>
       </c>
       <c r="D334" t="n">
-        <v>1900</v>
+        <v>1889</v>
       </c>
       <c r="E334" t="n">
         <v>3</v>
@@ -7508,85 +7508,85 @@
     <row r="335" ht="18.75" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>تكملة الاواشي  كيرلسي</t>
+          <t>اوشية المياة  كيرلسي</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>{9EF84E53-CF1B-4271-A7D5-D6714187A72A}</t>
+          <t>{3C5DAA61-C03B-488A-8078-B0F7D264A8D7}</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>1901</v>
+        <v>1890</v>
       </c>
       <c r="D335" t="n">
-        <v>1919</v>
+        <v>1892</v>
       </c>
       <c r="E335" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" ht="18.75" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>اوشية الملك  كيرلسي</t>
+          <t>تكملة الاواشي  كيرلسي</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>{7D1156D6-3A8C-4821-967D-C6B993389F59}</t>
+          <t>{9EF84E53-CF1B-4271-A7D5-D6714187A72A}</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>1920</v>
+        <v>1893</v>
       </c>
       <c r="D336" t="n">
-        <v>1926</v>
+        <v>1911</v>
       </c>
       <c r="E336" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="337" ht="18.75" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>المجمع  كيرلسي</t>
+          <t>اوشية الملك  كيرلسي</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>{28582067-ABA3-4CA6-A20F-9F5FC70F0388}</t>
+          <t>{7D1156D6-3A8C-4821-967D-C6B993389F59}</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>1927</v>
+        <v>1912</v>
       </c>
       <c r="D337" t="n">
-        <v>1936</v>
+        <v>1918</v>
       </c>
       <c r="E337" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="338" ht="18.75" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>الترحيم  كيرلسي</t>
+          <t>المجمع  كيرلسي</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>{731C0222-4DEB-4BE3-BFC0-F033FAE75370}</t>
+          <t>{28582067-ABA3-4CA6-A20F-9F5FC70F0388}</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1937</v>
+        <v>1919</v>
       </c>
       <c r="D338" t="n">
-        <v>1942</v>
+        <v>1928</v>
       </c>
       <c r="E338" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" ht="18.75" customHeight="1">
@@ -7597,101 +7597,101 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>{D7C0CFE0-CE05-472D-B19E-2AC9D24E27F8}</t>
+          <t>{731C0222-4DEB-4BE3-BFC0-F033FAE75370}</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>1943</v>
+        <v>1929</v>
       </c>
       <c r="D339" t="n">
-        <v>1953</v>
+        <v>1934</v>
       </c>
       <c r="E339" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="340" ht="18.75" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>اوشية القرابين  كيرلسي</t>
+          <t>الترحيم  كيرلسي</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>{2F871026-7578-4DC5-ACC0-1CA207EC60F4}</t>
+          <t>{D7C0CFE0-CE05-472D-B19E-2AC9D24E27F8}</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>1954</v>
+        <v>1935</v>
       </c>
       <c r="D340" t="n">
-        <v>1963</v>
+        <v>1945</v>
       </c>
       <c r="E340" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" ht="18.75" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>اوشية البطريرك  كيرلسي</t>
+          <t>اوشية القرابين  كيرلسي</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>{1C9D0FE3-B92D-49E8-BD11-C4D8C07B712F}</t>
+          <t>{2F871026-7578-4DC5-ACC0-1CA207EC60F4}</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>1964</v>
+        <v>1946</v>
       </c>
       <c r="D341" t="n">
-        <v>1971</v>
+        <v>1955</v>
       </c>
       <c r="E341" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" ht="18.75" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>اوشية الاساقفة  كيرلسي</t>
+          <t>اوشية البطريرك  كيرلسي</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>{1BBEB8D9-C2E1-4E49-9E4C-BB84051D1B22}</t>
+          <t>{1C9D0FE3-B92D-49E8-BD11-C4D8C07B712F}</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>1972</v>
+        <v>1956</v>
       </c>
       <c r="D342" t="n">
-        <v>1974</v>
+        <v>1963</v>
       </c>
       <c r="E342" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="343" ht="18.75" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>اوشية القسوس  كيرلسي</t>
+          <t>اوشية الاساقفة  كيرلسي</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>{5D90CB09-2E95-47C4-B20D-AEE6F3E65A01}</t>
+          <t>{1BBEB8D9-C2E1-4E49-9E4C-BB84051D1B22}</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="D343" t="n">
-        <v>1979</v>
+        <v>1966</v>
       </c>
       <c r="E343" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" ht="18.75" customHeight="1">
@@ -7702,14 +7702,14 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>{B55D570E-7773-4EF8-A742-B7D712925011}</t>
+          <t>{5D90CB09-2E95-47C4-B20D-AEE6F3E65A01}</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1980</v>
+        <v>1967</v>
       </c>
       <c r="D344" t="n">
-        <v>1984</v>
+        <v>1971</v>
       </c>
       <c r="E344" t="n">
         <v>5</v>
@@ -7718,127 +7718,127 @@
     <row r="345" ht="18.75" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>اوشية الموضع  كيرلسي</t>
+          <t>اوشية القسوس  كيرلسي</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>{9672DED3-7848-4D74-B426-932E4E7A644F}</t>
+          <t>{B55D570E-7773-4EF8-A742-B7D712925011}</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1985</v>
+        <v>1972</v>
       </c>
       <c r="D345" t="n">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="E345" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" ht="18.75" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>أوشية تذكار الموصين كيرلسي</t>
+          <t>اوشية الموضع  كيرلسي</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>{CCE6BBA2-58C3-4D14-A4FC-099784C5A510}</t>
+          <t>{9672DED3-7848-4D74-B426-932E4E7A644F}</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1995</v>
+        <v>1977</v>
       </c>
       <c r="D346" t="n">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="E346" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" ht="18.75" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>كيرلسي</t>
+          <t>أوشية تذكار الموصين كيرلسي</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>{7D4E2885-59B2-458D-9A11-95390B340D12}</t>
+          <t>{CCE6BBA2-58C3-4D14-A4FC-099784C5A510}</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>2000</v>
+        <v>1987</v>
       </c>
       <c r="D347" t="n">
-        <v>2003</v>
+        <v>1991</v>
       </c>
       <c r="E347" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" ht="18.75" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>اوشية الكهنوت كيرلسي</t>
+          <t>كيرلسي</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>{C143CC01-6DCC-4259-8D92-426D290B6744}</t>
+          <t>{7D4E2885-59B2-458D-9A11-95390B340D12}</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="D348" t="n">
-        <v>2008</v>
+        <v>1995</v>
       </c>
       <c r="E348" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="349" ht="18.75" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>اوشيه الاجتماعات كيرلسي</t>
+          <t>اوشية الكهنوت كيرلسي</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>{FD27AF11-9B0B-4169-8105-33F457DB2B76}</t>
+          <t>{C143CC01-6DCC-4259-8D92-426D290B6744}</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2009</v>
+        <v>1996</v>
       </c>
       <c r="D349" t="n">
-        <v>2017</v>
+        <v>2000</v>
       </c>
       <c r="E349" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" ht="18.75" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>كيرلسي</t>
+          <t>اوشيه الاجتماعات كيرلسي</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>{0B57DB68-84E9-4905-8DEA-F0EF30C7AF9A}</t>
+          <t>{FD27AF11-9B0B-4169-8105-33F457DB2B76}</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="D350" t="n">
-        <v>2043</v>
+        <v>2009</v>
       </c>
       <c r="E350" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" ht="18.75" customHeight="1">
@@ -7849,434 +7849,434 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>{CD9F44D3-4698-47A7-9721-B3E0C22C6296}</t>
+          <t>{0B57DB68-84E9-4905-8DEA-F0EF30C7AF9A}</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>2044</v>
+        <v>2010</v>
       </c>
       <c r="D351" t="n">
-        <v>2050</v>
+        <v>2035</v>
       </c>
       <c r="E351" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="352" ht="18.75" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>نهاية الكيرلسي</t>
+          <t>كيرلسي</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>{94BB223B-8F01-4E99-AA4F-47986D7DFFB1}</t>
+          <t>{CD9F44D3-4698-47A7-9721-B3E0C22C6296}</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2051</v>
+        <v>2036</v>
       </c>
       <c r="D352" t="n">
-        <v>2168</v>
+        <v>2042</v>
       </c>
       <c r="E352" t="n">
-        <v>118</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353" ht="18.75" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>صلاة الصلح الغريغوري</t>
+          <t>نهاية الكيرلسي</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>{3BC71AB1-EED4-44BF-AD68-E2CAB42E7B46}</t>
+          <t>{94BB223B-8F01-4E99-AA4F-47986D7DFFB1}</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>2169</v>
+        <v>2043</v>
       </c>
       <c r="D353" t="n">
-        <v>2201</v>
+        <v>2160</v>
       </c>
       <c r="E353" t="n">
-        <v>33</v>
+        <v>118</v>
       </c>
     </row>
     <row r="354" ht="18.75" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
-          <t>قبلو بعضكم</t>
+          <t>صلاة الصلح الغريغوري</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>{F9629322-CB65-4820-8A4F-1525DA7C29BC}</t>
+          <t>{3BC71AB1-EED4-44BF-AD68-E2CAB42E7B46}</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>2202</v>
+        <v>2161</v>
       </c>
       <c r="D354" t="n">
-        <v>2208</v>
+        <v>2193</v>
       </c>
       <c r="E354" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="355" ht="18.75" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
-          <t>قبلوا الكبيرة ( اسبازيتي)  غ</t>
+          <t>قبلو بعضكم</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>{82C51C9A-F8C3-469C-A147-8DC4705E6B19}</t>
+          <t>{F9629322-CB65-4820-8A4F-1525DA7C29BC}</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2209</v>
+        <v>2194</v>
       </c>
       <c r="D355" t="n">
-        <v>2220</v>
+        <v>2200</v>
       </c>
       <c r="E355" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="356" ht="18.75" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
-          <t>بشافاعات والدة الاله</t>
+          <t>قبلوا الكبيرة ( اسبازيتي)  غ</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>{946602B6-52AA-4366-B9D4-B425DDE6F19B}</t>
+          <t>{82C51C9A-F8C3-469C-A147-8DC4705E6B19}</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2221</v>
+        <v>2201</v>
       </c>
       <c r="D356" t="n">
-        <v>2226</v>
+        <v>2212</v>
       </c>
       <c r="E356" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" ht="18.75" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
-          <t>الانافورا غورغوري</t>
+          <t>بشافاعات والدة الاله</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>{CE8740B1-B325-44CA-8D6C-D7795F0B74D9}</t>
+          <t>{946602B6-52AA-4366-B9D4-B425DDE6F19B}</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>2227</v>
+        <v>2213</v>
       </c>
       <c r="D357" t="n">
-        <v>2300</v>
+        <v>2218</v>
       </c>
       <c r="E357" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358" ht="18.75" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
-          <t>الشاروبيم (غ)</t>
+          <t>الانافورا غورغوري</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>{AED5AC0D-D4EA-470D-8C90-CC421CCD6F6B}</t>
+          <t>{CE8740B1-B325-44CA-8D6C-D7795F0B74D9}</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2301</v>
+        <v>2219</v>
       </c>
       <c r="D358" t="n">
-        <v>2306</v>
+        <v>2292</v>
       </c>
       <c r="E358" t="n">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="359" ht="18.75" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
-          <t>تكلمة الانافورا غريغوري</t>
+          <t>الشاروبيم (غ)</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>{17A22C0D-DE20-43A4-B799-28755E1BA794}</t>
+          <t>{AED5AC0D-D4EA-470D-8C90-CC421CCD6F6B}</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2307</v>
+        <v>2293</v>
       </c>
       <c r="D359" t="n">
-        <v>2388</v>
+        <v>2298</v>
       </c>
       <c r="E359" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" ht="18.75" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
-          <t>الصلوات التأسيسية الغريغوري</t>
+          <t>تكلمة الانافورا غريغوري</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>{EEEB93D6-A541-4FE4-B34A-C0D4C3B663AE}</t>
+          <t>{17A22C0D-DE20-43A4-B799-28755E1BA794}</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>2389</v>
+        <v>2299</v>
       </c>
       <c r="D360" t="n">
-        <v>2437</v>
+        <v>2380</v>
       </c>
       <c r="E360" t="n">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="361" ht="18.75" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
-          <t>سر حلول الروح القدس غريغوري</t>
+          <t>الصلوات التأسيسية الغريغوري</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>{A6B3ADB6-5321-4D59-AB7D-50D42A368712}</t>
+          <t>{EEEB93D6-A541-4FE4-B34A-C0D4C3B663AE}</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>2438</v>
+        <v>2381</v>
       </c>
       <c r="D361" t="n">
-        <v>2462</v>
+        <v>2429</v>
       </c>
       <c r="E361" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="362" ht="18.75" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
-          <t>الطلبة الاولى غريغوري</t>
+          <t>سر حلول الروح القدس غريغوري</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>{F05CC5B8-E547-4A13-94AB-09A058F28367}</t>
+          <t>{A6B3ADB6-5321-4D59-AB7D-50D42A368712}</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2463</v>
+        <v>2430</v>
       </c>
       <c r="D362" t="n">
-        <v>2475</v>
+        <v>2454</v>
       </c>
       <c r="E362" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="363" ht="18.75" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
-          <t>اوشية السلام غ</t>
+          <t>الطلبة الاولى غريغوري</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>{2871A82F-3C61-4C8B-8D2C-9105872E10BB}</t>
+          <t>{F05CC5B8-E547-4A13-94AB-09A058F28367}</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2476</v>
+        <v>2455</v>
       </c>
       <c r="D363" t="n">
-        <v>2480</v>
+        <v>2467</v>
       </c>
       <c r="E363" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" ht="18.75" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
-          <t>اوشية الاباء غ</t>
+          <t>اوشية السلام غ</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>{474487EB-4554-4A30-B351-6EF762D2F2D6}</t>
+          <t>{2871A82F-3C61-4C8B-8D2C-9105872E10BB}</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>2481</v>
+        <v>2468</v>
       </c>
       <c r="D364" t="n">
-        <v>2491</v>
+        <v>2472</v>
       </c>
       <c r="E364" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="365" ht="18.75" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
-          <t>اوشية الاباء القمامصة  غ</t>
+          <t>اوشية الاباء غ</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>{4B91971E-0123-47B6-9384-1CC46F7E2AFF}</t>
+          <t>{474487EB-4554-4A30-B351-6EF762D2F2D6}</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>2492</v>
+        <v>2473</v>
       </c>
       <c r="D365" t="n">
-        <v>2504</v>
+        <v>2483</v>
       </c>
       <c r="E365" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" ht="18.75" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
-          <t>اوشية الملوك  غ</t>
+          <t>اوشية الاباء القمامصة  غ</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>{01356C3D-7679-4DAF-B84C-AB565D0F42B4}</t>
+          <t>{4B91971E-0123-47B6-9384-1CC46F7E2AFF}</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2505</v>
+        <v>2484</v>
       </c>
       <c r="D366" t="n">
-        <v>2508</v>
+        <v>2496</v>
       </c>
       <c r="E366" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" ht="18.75" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
-          <t>اوشية البلاط  غ</t>
+          <t>اوشية الملوك  غ</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>{AE2C1828-83C0-44DB-A782-95847853A9FE}</t>
+          <t>{01356C3D-7679-4DAF-B84C-AB565D0F42B4}</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>2509</v>
+        <v>2497</v>
       </c>
       <c r="D367" t="n">
-        <v>2513</v>
+        <v>2500</v>
       </c>
       <c r="E367" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" ht="18.75" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
-          <t>اوشية القرابين غ</t>
+          <t>اوشية البلاط  غ</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>{75EC87D0-3172-4B55-8BFB-D574A915CE4C}</t>
+          <t>{AE2C1828-83C0-44DB-A782-95847853A9FE}</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>2514</v>
+        <v>2501</v>
       </c>
       <c r="D368" t="n">
-        <v>2521</v>
+        <v>2505</v>
       </c>
       <c r="E368" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" ht="18.75" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
-          <t>اوشية المسبيين  غ</t>
+          <t>اوشية القرابين غ</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>{9B41FE00-FD95-4983-A823-216FC8861E53}</t>
+          <t>{75EC87D0-3172-4B55-8BFB-D574A915CE4C}</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>2522</v>
+        <v>2506</v>
       </c>
       <c r="D369" t="n">
-        <v>2527</v>
+        <v>2513</v>
       </c>
       <c r="E369" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" ht="18.75" customHeight="1">
       <c r="A370" t="inlineStr">
         <is>
-          <t>شعبك وكنيستك  غ</t>
+          <t>اوشية المسبيين  غ</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>{76C56A92-AA5B-48EC-BF95-196908A09EBE}</t>
+          <t>{9B41FE00-FD95-4983-A823-216FC8861E53}</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>2528</v>
+        <v>2514</v>
       </c>
       <c r="D370" t="n">
-        <v>2540</v>
+        <v>2519</v>
       </c>
       <c r="E370" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" ht="18.75" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
-          <t>اوشية الزروع و العشب غ</t>
+          <t>شعبك وكنيستك  غ</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>{3D4C118C-E6FF-4DF8-8E8F-B0CDF0FDBA54}</t>
+          <t>{76C56A92-AA5B-48EC-BF95-196908A09EBE}</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2541</v>
+        <v>2520</v>
       </c>
       <c r="D371" t="n">
-        <v>2553</v>
+        <v>2532</v>
       </c>
       <c r="E371" t="n">
         <v>13</v>
@@ -8285,103 +8285,103 @@
     <row r="372" ht="18.75" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
-          <t>اوشية اهوية السماء غ</t>
+          <t>اوشية الزروع و العشب غ</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>{A20DA654-32F7-4B4C-96CB-C76232EB96E8}</t>
+          <t>{3D4C118C-E6FF-4DF8-8E8F-B0CDF0FDBA54}</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>2554</v>
+        <v>2533</v>
       </c>
       <c r="D372" t="n">
-        <v>2563</v>
+        <v>2545</v>
       </c>
       <c r="E372" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" ht="18.75" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
-          <t>اوشية المياة غ</t>
+          <t>اوشية اهوية السماء غ</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>{5DD6BABA-9FE4-4D33-9F90-0C865CB95EE4}</t>
+          <t>{A20DA654-32F7-4B4C-96CB-C76232EB96E8}</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2564</v>
+        <v>2546</v>
       </c>
       <c r="D373" t="n">
-        <v>2570</v>
+        <v>2555</v>
       </c>
       <c r="E373" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" ht="18.75" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
-          <t>تكملة الاواشي غ</t>
+          <t>اوشية المياة غ</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>{243BA6AB-32B4-49FC-97E7-920E4E05CE67}</t>
+          <t>{5DD6BABA-9FE4-4D33-9F90-0C865CB95EE4}</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2571</v>
+        <v>2556</v>
       </c>
       <c r="D374" t="n">
-        <v>2589</v>
+        <v>2562</v>
       </c>
       <c r="E374" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" ht="18.75" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
-          <t>الطلبة الثانية</t>
+          <t>تكملة الاواشي غ</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>{A9AFDBDD-92C7-4D4A-825F-669B140FC280}</t>
+          <t>{243BA6AB-32B4-49FC-97E7-920E4E05CE67}</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>2590</v>
+        <v>2563</v>
       </c>
       <c r="D375" t="n">
-        <v>2605</v>
+        <v>2581</v>
       </c>
       <c r="E375" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" ht="18.75" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
-          <t>اوشية الموضع غ</t>
+          <t>الطلبة الثانية</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>{6BE3EFA4-4509-486C-903A-3621F43AC1BC}</t>
+          <t>{A9AFDBDD-92C7-4D4A-825F-669B140FC280}</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>2606</v>
+        <v>2582</v>
       </c>
       <c r="D376" t="n">
-        <v>2621</v>
+        <v>2597</v>
       </c>
       <c r="E376" t="n">
         <v>16</v>
@@ -8390,376 +8390,376 @@
     <row r="377" ht="18.75" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
-          <t>المجمع غريغوري</t>
+          <t>اوشية الموضع غ</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>{4AD0C7EA-CB1D-4658-A57F-FB42A721C4D2}</t>
+          <t>{6BE3EFA4-4509-486C-903A-3621F43AC1BC}</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>2622</v>
+        <v>2598</v>
       </c>
       <c r="D377" t="n">
-        <v>2662</v>
+        <v>2608</v>
       </c>
       <c r="E377" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" ht="18.75" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
-          <t>الترحيم</t>
+          <t>المجمع غريغوري</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>{0348F644-C9BD-46E0-9195-9E1BC414CB06}</t>
+          <t>{4AD0C7EA-CB1D-4658-A57F-FB42A721C4D2}</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2663</v>
+        <v>2609</v>
       </c>
       <c r="D378" t="n">
-        <v>2676</v>
+        <v>2649</v>
       </c>
       <c r="E378" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="379" ht="18.75" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
-          <t>اوشية الراقدين</t>
+          <t>الترحيم</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>{29FB122B-02C5-402C-BDF5-28621F4343D2}</t>
+          <t>{0348F644-C9BD-46E0-9195-9E1BC414CB06}</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>2677</v>
+        <v>2650</v>
       </c>
       <c r="D379" t="n">
-        <v>2689</v>
+        <v>2663</v>
       </c>
       <c r="E379" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" ht="18.75" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
-          <t>افشيس</t>
+          <t>اوشية الراقدين</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>{147F01DB-6B54-479F-946C-73CACFA208A8}</t>
+          <t>{29FB122B-02C5-402C-BDF5-28621F4343D2}</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2690</v>
+        <v>2664</v>
       </c>
       <c r="D380" t="n">
-        <v>2705</v>
+        <v>2676</v>
       </c>
       <c r="E380" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" ht="18.75" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
-          <t>بي نشتي</t>
+          <t>افشيس</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>{07C520EB-CAE3-4B07-B2F5-20AD48A6274F}</t>
+          <t>{147F01DB-6B54-479F-946C-73CACFA208A8}</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>2706</v>
+        <v>2677</v>
       </c>
       <c r="D381" t="n">
-        <v>2713</v>
+        <v>2692</v>
       </c>
       <c r="E381" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382" ht="18.75" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
-          <t>بركتهم المقدسة غ</t>
+          <t>بي نشتي</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>{1A423266-1309-43C1-B6E7-33568634EF99}</t>
+          <t>{07C520EB-CAE3-4B07-B2F5-20AD48A6274F}</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2714</v>
+        <v>2693</v>
       </c>
       <c r="D382" t="n">
-        <v>2717</v>
+        <v>2700</v>
       </c>
       <c r="E382" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="383" ht="18.75" customHeight="1">
       <c r="A383" t="inlineStr">
         <is>
-          <t>آرى إفميفئى إبشويس  (غريغوري)</t>
+          <t>بركتهم المقدسة غ</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>{CC1C566A-1B83-45E7-B6EF-6C6804C3F60D}</t>
+          <t>{1A423266-1309-43C1-B6E7-33568634EF99}</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2718</v>
+        <v>2701</v>
       </c>
       <c r="D383" t="n">
-        <v>2741</v>
+        <v>2704</v>
       </c>
       <c r="E383" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" ht="18.75" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
-          <t>مقدمة القسمة غريغوري</t>
+          <t>آرى إفميفئى إبشويس  (غريغوري)</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>{202CFCE8-4AB7-4B77-AF97-C1F250E8C17B}</t>
+          <t>{CC1C566A-1B83-45E7-B6EF-6C6804C3F60D}</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>2742</v>
+        <v>2705</v>
       </c>
       <c r="D384" t="n">
-        <v>2767</v>
+        <v>2728</v>
       </c>
       <c r="E384" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" ht="18.75" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
-          <t>القسمة</t>
+          <t>مقدمة القسمة غريغوري</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>{01F61BFD-210C-4F99-A7C7-7308CFAA93F4}</t>
+          <t>{202CFCE8-4AB7-4B77-AF97-C1F250E8C17B}</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>2768</v>
+        <v>2729</v>
       </c>
       <c r="D385" t="n">
-        <v>2771</v>
+        <v>2754</v>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="386" ht="18.75" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
-          <t>قسمة القداس الباسيلي (أيها السيد الرب إلهنا)</t>
+          <t>القسمة</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>{681FF6A7-4230-4171-8F41-83FD64E8C960}</t>
+          <t>{01F61BFD-210C-4F99-A7C7-7308CFAA93F4}</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>2772</v>
+        <v>2755</v>
       </c>
       <c r="D386" t="n">
-        <v>2778</v>
+        <v>2758</v>
       </c>
       <c r="E386" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" ht="18.75" customHeight="1">
       <c r="A387" t="inlineStr">
         <is>
-          <t>القسمة الوجيزة. (يا الله الذى أنعم)</t>
+          <t>قسمة القداس الباسيلي (أيها السيد الرب إلهنا)</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>{7B54BAD5-B8CF-4429-A92E-5B93F815B4CC}</t>
+          <t>{681FF6A7-4230-4171-8F41-83FD64E8C960}</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>2779</v>
+        <v>2759</v>
       </c>
       <c r="D387" t="n">
-        <v>2781</v>
+        <v>2765</v>
       </c>
       <c r="E387" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="388" ht="18.75" customHeight="1">
       <c r="A388" t="inlineStr">
         <is>
-          <t>قسمة للآب للقديس إغريغوريوس (يا الله العظيم القدوس المحتجب)</t>
+          <t>القسمة الوجيزة. (يا الله الذى أنعم)</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>{CD4B0555-C283-484C-9B20-BFAEC3D58EDF}</t>
+          <t>{7B54BAD5-B8CF-4429-A92E-5B93F815B4CC}</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2782</v>
+        <v>2766</v>
       </c>
       <c r="D388" t="n">
-        <v>2793</v>
+        <v>2768</v>
       </c>
       <c r="E388" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" ht="18.75" customHeight="1">
       <c r="A389" t="inlineStr">
         <is>
-          <t>قسمة للقديس أثناسيوس الرسولي. (وأيضاً نتضرع إلى الرحمة)</t>
+          <t>قسمة للآب للقديس إغريغوريوس (يا الله العظيم القدوس المحتجب)</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>{9909362D-CDB1-45A5-A137-1D47556E7993}</t>
+          <t>{CD4B0555-C283-484C-9B20-BFAEC3D58EDF}</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>2794</v>
+        <v>2769</v>
       </c>
       <c r="D389" t="n">
-        <v>2798</v>
+        <v>2780</v>
       </c>
       <c r="E389" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" ht="18.75" customHeight="1">
       <c r="A390" t="inlineStr">
         <is>
-          <t>قسمة للقديس كيرلس (يا حمل الله الذى بأوجاعك)</t>
+          <t>قسمة للقديس أثناسيوس الرسولي. (وأيضاً نتضرع إلى الرحمة)</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>{4EAEC385-F619-4C46-9589-1F1CA515D356}</t>
+          <t>{9909362D-CDB1-45A5-A137-1D47556E7993}</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2799</v>
+        <v>2781</v>
       </c>
       <c r="D390" t="n">
-        <v>2809</v>
+        <v>2785</v>
       </c>
       <c r="E390" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391" ht="18.75" customHeight="1">
       <c r="A391" t="inlineStr">
         <is>
-          <t>قسمة سنوي للقديس أبيفانيوس (يا إلهنا بلاد الحكمة أين مسكنها)</t>
+          <t>قسمة للقديس كيرلس (يا حمل الله الذى بأوجاعك)</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>{C2DFC0DA-3FDC-48DD-9C18-031C9675CB8F}</t>
+          <t>{4EAEC385-F619-4C46-9589-1F1CA515D356}</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2810</v>
+        <v>2786</v>
       </c>
       <c r="D391" t="n">
-        <v>2818</v>
+        <v>2796</v>
       </c>
       <c r="E391" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" ht="18.75" customHeight="1">
       <c r="A392" t="inlineStr">
         <is>
-          <t>القسمة السريانية (هكذا بالحقيقة تألم كلمة الله)</t>
+          <t>قسمة سنوي للقديس أبيفانيوس (يا إلهنا بلاد الحكمة أين مسكنها)</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>{A713A459-8589-42C8-A9D7-AC9B6A4DAF13}</t>
+          <t>{C2DFC0DA-3FDC-48DD-9C18-031C9675CB8F}</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>2819</v>
+        <v>2797</v>
       </c>
       <c r="D392" t="n">
-        <v>2825</v>
+        <v>2805</v>
       </c>
       <c r="E392" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" ht="18.75" customHeight="1">
       <c r="A393" t="inlineStr">
         <is>
-          <t>قسمة للآب سنوى (اللهم والد النور، ورئيس الحياة)</t>
+          <t>القسمة السريانية (هكذا بالحقيقة تألم كلمة الله)</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>{C9D901A8-7926-457C-8037-22BD903476CC}</t>
+          <t>{A713A459-8589-42C8-A9D7-AC9B6A4DAF13}</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2826</v>
+        <v>2806</v>
       </c>
       <c r="D393" t="n">
-        <v>2829</v>
+        <v>2812</v>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="394" ht="18.75" customHeight="1">
       <c r="A394" t="inlineStr">
         <is>
-          <t>قسمة للآب سنوى (أيها الرب إلهنا العظيم)</t>
+          <t>قسمة للآب سنوى (اللهم والد النور، ورئيس الحياة)</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>{21A8229B-E244-4F4E-9CF9-334DF58C50B8}</t>
+          <t>{C9D901A8-7926-457C-8037-22BD903476CC}</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>2830</v>
+        <v>2813</v>
       </c>
       <c r="D394" t="n">
-        <v>2833</v>
+        <v>2816</v>
       </c>
       <c r="E394" t="n">
         <v>4</v>
@@ -8768,250 +8768,250 @@
     <row r="395" ht="18.75" customHeight="1">
       <c r="A395" t="inlineStr">
         <is>
-          <t>قسمة للإبن سنوى (أيها الكائن الذى كان)</t>
+          <t>قسمة للآب سنوى (أيها الرب إلهنا العظيم)</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>{F90E4B14-C4FF-486F-98C1-ADA99A89A302}</t>
+          <t>{21A8229B-E244-4F4E-9CF9-334DF58C50B8}</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>2834</v>
+        <v>2817</v>
       </c>
       <c r="D395" t="n">
-        <v>2845</v>
+        <v>2820</v>
       </c>
       <c r="E395" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" ht="18.75" customHeight="1">
       <c r="A396" t="inlineStr">
         <is>
-          <t>قسمة للإبن سنوى (أنت هو كلمة الآب)</t>
+          <t>قسمة للإبن سنوى (أيها الكائن الذى كان)</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>{F2499A0D-A0A3-42EB-A437-5664CF9EB56C}</t>
+          <t>{F90E4B14-C4FF-486F-98C1-ADA99A89A302}</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>2846</v>
+        <v>2821</v>
       </c>
       <c r="D396" t="n">
-        <v>2850</v>
+        <v>2832</v>
       </c>
       <c r="E396" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" ht="18.75" customHeight="1">
       <c r="A397" t="inlineStr">
         <is>
-          <t>قسمة للإبن لأى وقت (أيها الإبن الإله الكلمة)</t>
+          <t>قسمة للإبن سنوى (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>{027EC456-759E-4983-982E-8E661C082017}</t>
+          <t>{F2499A0D-A0A3-42EB-A437-5664CF9EB56C}</t>
         </is>
       </c>
       <c r="C397" t="n">
-        <v>2851</v>
+        <v>2833</v>
       </c>
       <c r="D397" t="n">
-        <v>2861</v>
+        <v>2837</v>
       </c>
       <c r="E397" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" ht="18.75" customHeight="1">
       <c r="A398" t="inlineStr">
         <is>
-          <t>قسمة للابن سنوي (يا مخلصي هذه هي الرأس)</t>
+          <t>قسمة للإبن لأى وقت (أيها الإبن الإله الكلمة)</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>{1BA28636-E0D3-4C62-9A88-2EC8CD89FCDF}</t>
+          <t>{027EC456-759E-4983-982E-8E661C082017}</t>
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2862</v>
+        <v>2838</v>
       </c>
       <c r="D398" t="n">
-        <v>2867</v>
+        <v>2848</v>
       </c>
       <c r="E398" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" ht="18.75" customHeight="1">
       <c r="A399" t="inlineStr">
         <is>
-          <t>قسمة للابن تقال في أي وقت (لمجد صورة جوهريتك نخضع)</t>
+          <t>قسمة للابن سنوي (يا مخلصي هذه هي الرأس)</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>{9C7B0DA2-DB0E-4576-B2DF-875A87310C06}</t>
+          <t>{1BA28636-E0D3-4C62-9A88-2EC8CD89FCDF}</t>
         </is>
       </c>
       <c r="C399" t="n">
-        <v>2868</v>
+        <v>2849</v>
       </c>
       <c r="D399" t="n">
-        <v>2877</v>
+        <v>2854</v>
       </c>
       <c r="E399" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400" ht="18.75" customHeight="1">
       <c r="A400" t="inlineStr">
         <is>
-          <t>قسمة النيروز (لنسبح الله تسبيحا جديدا)</t>
+          <t>قسمة للابن تقال في أي وقت (لمجد صورة جوهريتك نخضع)</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>{8CC6F153-C335-4534-8CF6-42E3774875A6}</t>
+          <t>{9C7B0DA2-DB0E-4576-B2DF-875A87310C06}</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>2878</v>
+        <v>2855</v>
       </c>
       <c r="D400" t="n">
-        <v>2885</v>
+        <v>2864</v>
       </c>
       <c r="E400" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" ht="18.75" customHeight="1">
       <c r="A401" t="inlineStr">
         <is>
-          <t>قسمة عيد الصليب (ايها المسيح الهنا الابن الكلمة)</t>
+          <t>قسمة النيروز (لنسبح الله تسبيحا جديدا)</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>{3DF2ADE7-6EAF-4FD9-8250-7048D4114339}</t>
+          <t>{8CC6F153-C335-4534-8CF6-42E3774875A6}</t>
         </is>
       </c>
       <c r="C401" t="n">
-        <v>2886</v>
+        <v>2865</v>
       </c>
       <c r="D401" t="n">
-        <v>2896</v>
+        <v>2872</v>
       </c>
       <c r="E401" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" ht="18.75" customHeight="1">
       <c r="A402" t="inlineStr">
         <is>
-          <t>قسمة للآب في صوم الميلاد وعيد الميلاد وسنوى (أيها السيد الرب إلهنا)</t>
+          <t>قسمة عيد الصليب (ايها المسيح الهنا الابن الكلمة)</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>{C2F28915-B86E-4596-8EB2-7455EF4E91BD}</t>
+          <t>{3DF2ADE7-6EAF-4FD9-8250-7048D4114339}</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2897</v>
+        <v>2873</v>
       </c>
       <c r="D402" t="n">
-        <v>2901</v>
+        <v>2883</v>
       </c>
       <c r="E402" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" ht="18.75" customHeight="1">
       <c r="A403" t="inlineStr">
         <is>
-          <t>قسمة لميلاد الابن وفي الأعياد (اللهم المعتني بكل احد)</t>
+          <t>قسمة للآب في صوم الميلاد وعيد الميلاد وسنوى (أيها السيد الرب إلهنا)</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>{E1024E42-D34E-4378-A071-0E68524DECE6}</t>
+          <t>{C2F28915-B86E-4596-8EB2-7455EF4E91BD}</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2902</v>
+        <v>2884</v>
       </c>
       <c r="D403" t="n">
-        <v>2915</v>
+        <v>2888</v>
       </c>
       <c r="E403" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="404" ht="18.75" customHeight="1">
       <c r="A404" t="inlineStr">
         <is>
-          <t>قسمة في الأعياد السيدية وفي الميلاد (اللهم الذي سبق علمه وجود الكائنات)</t>
+          <t>قسمة لميلاد الابن وفي الأعياد (اللهم المعتني بكل احد)</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>{0E73CD3E-C982-4143-9947-E842D2626778}</t>
+          <t>{E1024E42-D34E-4378-A071-0E68524DECE6}</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>2916</v>
+        <v>2889</v>
       </c>
       <c r="D404" t="n">
-        <v>2925</v>
+        <v>2902</v>
       </c>
       <c r="E404" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405" ht="18.75" customHeight="1">
       <c r="A405" t="inlineStr">
         <is>
-          <t>قسمة عيد الختان و الدخول المسيح الهيكل (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة في الأعياد السيدية وفي الميلاد (اللهم الذي سبق علمه وجود الكائنات)</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>{7F6F8D4A-D920-4593-8079-02F63856B7EC}</t>
+          <t>{0E73CD3E-C982-4143-9947-E842D2626778}</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2926</v>
+        <v>2903</v>
       </c>
       <c r="D405" t="n">
-        <v>2931</v>
+        <v>2912</v>
       </c>
       <c r="E405" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" ht="18.75" customHeight="1">
       <c r="A406" t="inlineStr">
         <is>
-          <t>قسمة عيد عرس قانا الجليل (أنت هو كلمة الآب)</t>
+          <t>قسمة عيد الختان و الدخول المسيح الهيكل (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>{73518929-B0CA-4403-BF97-0AC121ED4EF6}</t>
+          <t>{7F6F8D4A-D920-4593-8079-02F63856B7EC}</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>2932</v>
+        <v>2913</v>
       </c>
       <c r="D406" t="n">
-        <v>2937</v>
+        <v>2918</v>
       </c>
       <c r="E406" t="n">
         <v>6</v>
@@ -9020,523 +9020,523 @@
     <row r="407" ht="18.75" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
-          <t>قسمة للآب في عيد الغطاس وسنوى (إذ أعطيتنا نعمة البنوة بحميم الميلاد)</t>
+          <t>قسمة عيد عرس قانا الجليل (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>{31B52FC4-A94D-4CCF-951F-BB1D2DD2D5D9}</t>
+          <t>{73518929-B0CA-4403-BF97-0AC121ED4EF6}</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>2938</v>
+        <v>2919</v>
       </c>
       <c r="D407" t="n">
-        <v>2941</v>
+        <v>2924</v>
       </c>
       <c r="E407" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="408" ht="18.75" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
-          <t>قسمه عيد الغطاس وعيد يوحنا المعمدان (يا الله الذي أنعم على زكريا)</t>
+          <t>قسمة للآب في عيد الغطاس وسنوى (إذ أعطيتنا نعمة البنوة بحميم الميلاد)</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>{65D2E228-2773-41A5-AD1F-5A718752D590}</t>
+          <t>{31B52FC4-A94D-4CCF-951F-BB1D2DD2D5D9}</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2942</v>
+        <v>2925</v>
       </c>
       <c r="D408" t="n">
-        <v>2946</v>
+        <v>2928</v>
       </c>
       <c r="E408" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" ht="18.75" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
-          <t>قسمة صوم نينوى (الله الرحوم)</t>
+          <t>قسمه عيد الغطاس وعيد يوحنا المعمدان (يا الله الذي أنعم على زكريا)</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>{BB553AF2-8A5E-46E8-B567-4E8500E5A1C1}</t>
+          <t>{65D2E228-2773-41A5-AD1F-5A718752D590}</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>2947</v>
+        <v>2929</v>
       </c>
       <c r="D409" t="n">
-        <v>2955</v>
+        <v>2933</v>
       </c>
       <c r="E409" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410" ht="18.75" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
-          <t>قسمة للآب في الصوم الكبير المقدس (أيها السيد الرب الإله ضابط الكل)</t>
+          <t>قسمة صوم نينوى (الله الرحوم)</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>{41DD9B19-60F1-44CE-BF9E-34D6DA71F069}</t>
+          <t>{BB553AF2-8A5E-46E8-B567-4E8500E5A1C1}</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2956</v>
+        <v>2934</v>
       </c>
       <c r="D410" t="n">
-        <v>2963</v>
+        <v>2942</v>
       </c>
       <c r="E410" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" ht="18.75" customHeight="1">
       <c r="A411" t="inlineStr">
         <is>
-          <t>قسمة للإبن في أيام صوم الأربعين المقدس (أنت هو الله الرحوم مخلص)</t>
+          <t>قسمة للآب في الصوم الكبير المقدس (أيها السيد الرب الإله ضابط الكل)</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>{F076B353-F7AB-4001-959A-5D482DE256DB}</t>
+          <t>{41DD9B19-60F1-44CE-BF9E-34D6DA71F069}</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>2964</v>
+        <v>2943</v>
       </c>
       <c r="D411" t="n">
-        <v>2968</v>
+        <v>2950</v>
       </c>
       <c r="E411" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="412" ht="18.75" customHeight="1">
       <c r="A412" t="inlineStr">
         <is>
-          <t>قسمة عيد البشارة المجيد (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة للإبن في أيام صوم الأربعين المقدس (أنت هو الله الرحوم مخلص)</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>{3BCBBDE0-13A1-4825-B7A1-04CDC2E502E4}</t>
+          <t>{F076B353-F7AB-4001-959A-5D482DE256DB}</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>2969</v>
+        <v>2951</v>
       </c>
       <c r="D412" t="n">
-        <v>2974</v>
+        <v>2955</v>
       </c>
       <c r="E412" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="413" ht="18.75" customHeight="1">
       <c r="A413" t="inlineStr">
         <is>
-          <t>قسمة للآب في أحد الشعانين وسنوى (أيها الرب ربنا لقد صار إسمك)</t>
+          <t>قسمة عيد البشارة المجيد (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>{DBFE5A01-1D04-4F27-A7F4-057D75E8CBED}</t>
+          <t>{3BCBBDE0-13A1-4825-B7A1-04CDC2E502E4}</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>2975</v>
+        <v>2956</v>
       </c>
       <c r="D413" t="n">
-        <v>2977</v>
+        <v>2961</v>
       </c>
       <c r="E413" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="414" ht="18.75" customHeight="1">
       <c r="A414" t="inlineStr">
         <is>
-          <t>قسمة تُقال في احد الشعانين (أيها الرب مثل ربنا مثل عجيب صار إسمك)</t>
+          <t>قسمة للآب في أحد الشعانين وسنوى (أيها الرب ربنا لقد صار إسمك)</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>{FA39B8EF-3898-43AD-B4E9-1E0FE167AE86}</t>
+          <t>{DBFE5A01-1D04-4F27-A7F4-057D75E8CBED}</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2978</v>
+        <v>2962</v>
       </c>
       <c r="D414" t="n">
-        <v>2984</v>
+        <v>2964</v>
       </c>
       <c r="E414" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" ht="18.75" customHeight="1">
       <c r="A415" t="inlineStr">
         <is>
-          <t>قسمة للأب علي ذبح اسحق (وحدث في الأيام)</t>
+          <t>قسمة تُقال في احد الشعانين (أيها الرب مثل ربنا مثل عجيب صار إسمك)</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>{F11101FD-3032-48C3-B6F9-29275566989B}</t>
+          <t>{FA39B8EF-3898-43AD-B4E9-1E0FE167AE86}</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>2985</v>
+        <v>2965</v>
       </c>
       <c r="D415" t="n">
-        <v>2994</v>
+        <v>2971</v>
       </c>
       <c r="E415" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" ht="18.75" customHeight="1">
       <c r="A416" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في سبت الفرح (يا يسوع المسيح ذا الإسم المخلص)</t>
+          <t>قسمة للأب علي ذبح اسحق (وحدث في الأيام)</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>{F6C1CD0D-A2FB-4ED4-AB68-DC5D2D8AA3F1}</t>
+          <t>{F11101FD-3032-48C3-B6F9-29275566989B}</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2995</v>
+        <v>2972</v>
       </c>
       <c r="D416" t="n">
-        <v>3002</v>
+        <v>2981</v>
       </c>
       <c r="E416" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" ht="18.75" customHeight="1">
       <c r="A417" t="inlineStr">
         <is>
-          <t>قسمة للآب في عيد القيامة والخمسين (أيها السيد الرب الإله ضابط الكل)</t>
+          <t>قسمة للإبن تقال في سبت الفرح (يا يسوع المسيح ذا الإسم المخلص)</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>{3E1960C6-4E54-4563-B3A6-E8AAB1680607}</t>
+          <t>{F6C1CD0D-A2FB-4ED4-AB68-DC5D2D8AA3F1}</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>3003</v>
+        <v>2982</v>
       </c>
       <c r="D417" t="n">
-        <v>3009</v>
+        <v>2989</v>
       </c>
       <c r="E417" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" ht="18.75" customHeight="1">
       <c r="A418" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في القيامة (أيها المسيح إلهنا رئيس كهنة)</t>
+          <t>قسمة للآب في عيد القيامة والخمسين (أيها السيد الرب الإله ضابط الكل)</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>{4AD14E1E-7934-4DBD-9067-5222067CDCCC}</t>
+          <t>{3E1960C6-4E54-4563-B3A6-E8AAB1680607}</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3010</v>
+        <v>2990</v>
       </c>
       <c r="D418" t="n">
-        <v>3014</v>
+        <v>2996</v>
       </c>
       <c r="E418" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" ht="18.75" customHeight="1">
       <c r="A419" t="inlineStr">
         <is>
-          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
+          <t>قسمة للإبن تقال في القيامة (أيها المسيح إلهنا رئيس كهنة)</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
+          <t>{4AD14E1E-7934-4DBD-9067-5222067CDCCC}</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>3015</v>
+        <v>2997</v>
       </c>
       <c r="D419" t="n">
-        <v>3022</v>
+        <v>3001</v>
       </c>
       <c r="E419" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" ht="18.75" customHeight="1">
       <c r="A420" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
+          <t>قسمة صوم الرسل وسنوي (ما أبعد أحكامك عن الفحص)</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
+          <t>{F5E0EC3E-73EF-4E5E-8F7C-09BEC9CFCCDA}</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>3023</v>
+        <v>3002</v>
       </c>
       <c r="D420" t="n">
-        <v>3029</v>
+        <v>3009</v>
       </c>
       <c r="E420" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="421" ht="18.75" customHeight="1">
       <c r="A421" t="inlineStr">
         <is>
-          <t>قسمة لعيد الرسل (يا الله الآب السماوي)</t>
+          <t>قسمة للإبن تقال في صوم الرسل (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>{40A6164E-FE8E-46BF-8E33-41EB49A3EBD7}</t>
+          <t>{A6211BD9-8280-4580-B6B5-6DD0D352FB24}</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>3030</v>
+        <v>3010</v>
       </c>
       <c r="D421" t="n">
-        <v>3041</v>
+        <v>3016</v>
       </c>
       <c r="E421" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" ht="18.75" customHeight="1">
       <c r="A422" t="inlineStr">
         <is>
-          <t>قسمة للإبن تُقال في عيد التجلي (أنت هو كلمة الآب)</t>
+          <t>قسمة لعيد الرسل (يا الله الآب السماوي)</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>{C23F094B-BD4E-4348-8186-D1C4B8744FAA}</t>
+          <t>{40A6164E-FE8E-46BF-8E33-41EB49A3EBD7}</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>3042</v>
+        <v>3017</v>
       </c>
       <c r="D422" t="n">
-        <v>3047</v>
+        <v>3028</v>
       </c>
       <c r="E422" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" ht="18.75" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
-          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
+          <t>قسمة للإبن تُقال في عيد التجلي (أنت هو كلمة الآب)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
+          <t>{C23F094B-BD4E-4348-8186-D1C4B8744FAA}</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>3048</v>
+        <v>3029</v>
       </c>
       <c r="D423" t="n">
-        <v>3056</v>
+        <v>3034</v>
       </c>
       <c r="E423" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="424" ht="18.75" customHeight="1">
       <c r="A424" t="inlineStr">
         <is>
-          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
+          <t>قسمة أعياد الملائكة والسيدة العذراء وسنوى (هوذا كائن معنا على هذه)</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
+          <t>{71232865-63AA-40C5-8F02-BABBFE7297D3}</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>3057</v>
+        <v>3035</v>
       </c>
       <c r="D424" t="n">
-        <v>3070</v>
+        <v>3043</v>
       </c>
       <c r="E424" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" ht="18.75" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
-          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
+          <t>صوم و أعياد القديسة العذراء مريم (يا الله الساكن في الأعالي)</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
+          <t>{C78EDE33-ED5C-411D-A2E6-2B55E70B9F6B}</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>3071</v>
+        <v>3044</v>
       </c>
       <c r="D425" t="n">
-        <v>3078</v>
+        <v>3057</v>
       </c>
       <c r="E425" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="426" ht="18.75" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
-          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
+          <t>قسمة للإبن تقال في الأعياد السيدية وسنوى (نسبح ونمجد إله الآلهة)</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
+          <t>{2A09ADD1-849A-4776-9FF5-9E0F56C9BAED}</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>3079</v>
+        <v>3058</v>
       </c>
       <c r="D426" t="n">
-        <v>3088</v>
+        <v>3065</v>
       </c>
       <c r="E426" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="427" ht="18.75" customHeight="1">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>قسمة تذكار البشارة والميلاد والقيامة (نسبح ونمجد إله الآلهة ورب الأرباب)</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
+          <t>{BCFF601E-ED54-486A-9884-027CD11CA3C0}</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>3089</v>
+        <v>3066</v>
       </c>
       <c r="D427" t="n">
-        <v>3094</v>
+        <v>3075</v>
       </c>
       <c r="E427" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="428" ht="18.75" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ما قبل الإعتراف</t>
+          <t>ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
+          <t>{F8657D52-0E61-475D-90AC-DB10509A5D22}</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>3095</v>
+        <v>3076</v>
       </c>
       <c r="D428" t="n">
-        <v>3119</v>
+        <v>3081</v>
       </c>
       <c r="E428" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429" ht="18.75" customHeight="1">
       <c r="A429" t="inlineStr">
         <is>
-          <t>الاعتراف</t>
+          <t>ما قبل الإعتراف</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
+          <t>{80F60976-3BEB-4133-A7EB-026E12D4799C}</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>3120</v>
+        <v>3082</v>
       </c>
       <c r="D429" t="n">
-        <v>3143</v>
+        <v>3106</v>
       </c>
       <c r="E429" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="430" ht="18.75" customHeight="1">
       <c r="A430" t="inlineStr">
         <is>
-          <t>مرد توزيع النيروز</t>
+          <t>الاعتراف</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
+          <t>{EE8004CA-FF9E-4471-963C-7F0946AE78FC}</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>3144</v>
+        <v>3107</v>
       </c>
       <c r="D430" t="n">
-        <v>3144</v>
+        <v>3130</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" ht="18.75" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
-          <t>مرد توزيع الصليب</t>
+          <t>مرد توزيع النيروز</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
+          <t>{76AC6D29-E354-4FF7-AA9F-EA0B71399749}</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>3145</v>
+        <v>3131</v>
       </c>
       <c r="D431" t="n">
-        <v>3145</v>
+        <v>3131</v>
       </c>
       <c r="E431" t="n">
         <v>1</v>
@@ -9545,19 +9545,19 @@
     <row r="432" ht="18.75" customHeight="1">
       <c r="A432" t="inlineStr">
         <is>
-          <t>مرد توزيع الغطاس</t>
+          <t>مرد توزيع الصليب</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
+          <t>{E4E79CE2-AD28-44FB-B8B3-6B59A5D64B62}</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>3146</v>
+        <v>3132</v>
       </c>
       <c r="D432" t="n">
-        <v>3146</v>
+        <v>3132</v>
       </c>
       <c r="E432" t="n">
         <v>1</v>
@@ -9566,19 +9566,19 @@
     <row r="433" ht="18.75" customHeight="1">
       <c r="A433" t="inlineStr">
         <is>
-          <t>مرد توزيع الختان</t>
+          <t>مرد توزيع الغطاس</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
+          <t>{96A65364-75BE-44B2-A2D8-29785DBD26C4}</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3147</v>
+        <v>3133</v>
       </c>
       <c r="D433" t="n">
-        <v>3147</v>
+        <v>3133</v>
       </c>
       <c r="E433" t="n">
         <v>1</v>
@@ -9587,19 +9587,19 @@
     <row r="434" ht="18.75" customHeight="1">
       <c r="A434" t="inlineStr">
         <is>
-          <t>مرد توزيع عرس قانا الجليل</t>
+          <t>مرد توزيع الختان</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
+          <t>{3ED0ED6F-B67A-410E-958B-1437069EE8B5}</t>
         </is>
       </c>
       <c r="C434" t="n">
-        <v>3148</v>
+        <v>3134</v>
       </c>
       <c r="D434" t="n">
-        <v>3148</v>
+        <v>3134</v>
       </c>
       <c r="E434" t="n">
         <v>1</v>
@@ -9608,19 +9608,19 @@
     <row r="435" ht="18.75" customHeight="1">
       <c r="A435" t="inlineStr">
         <is>
-          <t>مرد توزيع دخول المسيح الهيكل</t>
+          <t>مرد توزيع عرس قانا الجليل</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
+          <t>{DACB52D6-560B-4038-BDA3-7A7315DEA6D0}</t>
         </is>
       </c>
       <c r="C435" t="n">
-        <v>3149</v>
+        <v>3135</v>
       </c>
       <c r="D435" t="n">
-        <v>3149</v>
+        <v>3135</v>
       </c>
       <c r="E435" t="n">
         <v>1</v>
@@ -9629,19 +9629,19 @@
     <row r="436" ht="18.75" customHeight="1">
       <c r="A436" t="inlineStr">
         <is>
-          <t>مرد توزيع صوم نينوى</t>
+          <t>مرد توزيع دخول المسيح الهيكل</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
+          <t>{49900A3A-E6E6-4152-84C8-B741F3C50853}</t>
         </is>
       </c>
       <c r="C436" t="n">
-        <v>3150</v>
+        <v>3136</v>
       </c>
       <c r="D436" t="n">
-        <v>3150</v>
+        <v>3136</v>
       </c>
       <c r="E436" t="n">
         <v>1</v>
@@ -9650,19 +9650,19 @@
     <row r="437" ht="18.75" customHeight="1">
       <c r="A437" t="inlineStr">
         <is>
-          <t>مرد توزيع الصوم الكبير</t>
+          <t>مرد توزيع صوم نينوى</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
+          <t>{8B7ED515-48EF-40B6-B9F2-80B8A4CC1126}</t>
         </is>
       </c>
       <c r="C437" t="n">
-        <v>3151</v>
+        <v>3137</v>
       </c>
       <c r="D437" t="n">
-        <v>3151</v>
+        <v>3137</v>
       </c>
       <c r="E437" t="n">
         <v>1</v>
@@ -9671,19 +9671,19 @@
     <row r="438" ht="18.75" customHeight="1">
       <c r="A438" t="inlineStr">
         <is>
-          <t>مرد توزيع الشعانين</t>
+          <t>مرد توزيع الصوم الكبير</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
+          <t>{F9ED982E-F6FB-4E2B-8955-C5E80C70C2D6}</t>
         </is>
       </c>
       <c r="C438" t="n">
-        <v>3152</v>
+        <v>3138</v>
       </c>
       <c r="D438" t="n">
-        <v>3152</v>
+        <v>3138</v>
       </c>
       <c r="E438" t="n">
         <v>1</v>
@@ -9692,19 +9692,19 @@
     <row r="439" ht="18.75" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
-          <t>مرد توزيع البشارة</t>
+          <t>مرد توزيع الشعانين</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
+          <t>{C95D30EC-C174-40B5-8671-08FA653E3199}</t>
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3153</v>
+        <v>3139</v>
       </c>
       <c r="D439" t="n">
-        <v>3153</v>
+        <v>3139</v>
       </c>
       <c r="E439" t="n">
         <v>1</v>
@@ -9713,19 +9713,19 @@
     <row r="440" ht="18.75" customHeight="1">
       <c r="A440" t="inlineStr">
         <is>
-          <t>مرد توزيع الميلاد</t>
+          <t>مرد توزيع البشارة</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
+          <t>{2F035E60-4CC5-4808-A906-367BDB0FC9B0}</t>
         </is>
       </c>
       <c r="C440" t="n">
-        <v>3154</v>
+        <v>3140</v>
       </c>
       <c r="D440" t="n">
-        <v>3154</v>
+        <v>3140</v>
       </c>
       <c r="E440" t="n">
         <v>1</v>
@@ -9734,19 +9734,19 @@
     <row r="441" ht="18.75" customHeight="1">
       <c r="A441" t="inlineStr">
         <is>
-          <t>مرد توزيع القيامة</t>
+          <t>مرد توزيع الميلاد</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
+          <t>{D10973F3-B5C6-431E-8EDA-60ABA7A98C9E}</t>
         </is>
       </c>
       <c r="C441" t="n">
-        <v>3155</v>
+        <v>3141</v>
       </c>
       <c r="D441" t="n">
-        <v>3155</v>
+        <v>3141</v>
       </c>
       <c r="E441" t="n">
         <v>1</v>
@@ -9755,19 +9755,19 @@
     <row r="442" ht="18.75" customHeight="1">
       <c r="A442" t="inlineStr">
         <is>
-          <t>مرد توزيع الصعود</t>
+          <t>مرد توزيع القيامة</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
+          <t>{AB0FAC0A-1DAB-4ABD-BAA1-7557AA4860AA}</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>3156</v>
+        <v>3142</v>
       </c>
       <c r="D442" t="n">
-        <v>3156</v>
+        <v>3142</v>
       </c>
       <c r="E442" t="n">
         <v>1</v>
@@ -9776,19 +9776,19 @@
     <row r="443" ht="18.75" customHeight="1">
       <c r="A443" t="inlineStr">
         <is>
-          <t>مرد توزيع العنصرة</t>
+          <t>مرد توزيع الصعود</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
+          <t>{834F8F17-CEC0-4E51-A927-8074D22B6A78}</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>3157</v>
+        <v>3143</v>
       </c>
       <c r="D443" t="n">
-        <v>3157</v>
+        <v>3143</v>
       </c>
       <c r="E443" t="n">
         <v>1</v>
@@ -9797,19 +9797,19 @@
     <row r="444" ht="18.75" customHeight="1">
       <c r="A444" t="inlineStr">
         <is>
-          <t>مرد توزيع التجلي</t>
+          <t>مرد توزيع العنصرة</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>{0080F7D2-9802-4100-8B27-DD23FBF42BCF}</t>
+          <t>{22674B27-BBD5-49D8-98B9-ABCA6F4C5504}</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>3158</v>
+        <v>3144</v>
       </c>
       <c r="D444" t="n">
-        <v>3158</v>
+        <v>3144</v>
       </c>
       <c r="E444" t="n">
         <v>1</v>
@@ -9818,334 +9818,334 @@
     <row r="445" ht="18.75" customHeight="1">
       <c r="A445" t="inlineStr">
         <is>
-          <t>مزمور التوزيع</t>
+          <t>مرد توزيع التجلي</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
+          <t>{0080F7D2-9802-4100-8B27-DD23FBF42BCF}</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>3159</v>
+        <v>3145</v>
       </c>
       <c r="D445" t="n">
-        <v>3175</v>
+        <v>3145</v>
       </c>
       <c r="E445" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" ht="18.75" customHeight="1">
       <c r="A446" t="inlineStr">
         <is>
-          <t>اطاي بارثينوس</t>
+          <t>مزمور التوزيع</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
+          <t>{C29E5A83-A98B-4077-8194-99A6D803EF53}</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>3176</v>
+        <v>3146</v>
       </c>
       <c r="D446" t="n">
-        <v>3197</v>
+        <v>3162</v>
       </c>
       <c r="E446" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" ht="18.75" customHeight="1">
       <c r="A447" t="inlineStr">
         <is>
-          <t>لازاروس</t>
+          <t>اطاي بارثينوس</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
+          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>3198</v>
+        <v>3163</v>
       </c>
       <c r="D447" t="n">
-        <v>3225</v>
+        <v>3184</v>
       </c>
       <c r="E447" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="448" ht="18.75" customHeight="1">
       <c r="A448" t="inlineStr">
         <is>
-          <t>كاطا ني خوروس</t>
+          <t>لازاروس</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
+          <t>{78C64C43-B3F6-4110-8CB0-1E10086C77C2}</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>3226</v>
+        <v>3185</v>
       </c>
       <c r="D448" t="n">
-        <v>3229</v>
+        <v>3212</v>
       </c>
       <c r="E448" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="449" ht="18.75" customHeight="1">
       <c r="A449" t="inlineStr">
         <is>
-          <t>فهرس الحان التوزيع</t>
+          <t>كاطا ني خوروس</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
+          <t>{8E020F97-3459-40AC-828C-13346E2C46B1}</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>3230</v>
+        <v>3213</v>
       </c>
       <c r="D449" t="n">
-        <v>3230</v>
+        <v>3216</v>
       </c>
       <c r="E449" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" ht="18.75" customHeight="1">
       <c r="A450" t="inlineStr">
         <is>
-          <t>اك اسماروؤت</t>
+          <t>فهرس الحان التوزيع</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
+          <t>{688FAD52-7F6A-4FA9-8CF7-EBB80B3B6069}</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>3231</v>
+        <v>3217</v>
       </c>
       <c r="D450" t="n">
-        <v>3232</v>
+        <v>3217</v>
       </c>
       <c r="E450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" ht="18.75" customHeight="1">
       <c r="A451" t="inlineStr">
         <is>
-          <t>بي اويك</t>
+          <t>اك اسماروؤت</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
+          <t>{507EFD97-98F8-4376-848B-20D72E16D2C1}</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="D451" t="n">
-        <v>3243</v>
+        <v>3219</v>
       </c>
       <c r="E451" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" ht="18.75" customHeight="1">
       <c r="A452" t="inlineStr">
         <is>
-          <t>جي اف اسماروؤت</t>
+          <t>بي اويك</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
+          <t>{B9A30F5E-0C89-471B-A99A-23DBE7F58504}</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>3244</v>
+        <v>3220</v>
       </c>
       <c r="D452" t="n">
-        <v>3245</v>
+        <v>3230</v>
       </c>
       <c r="E452" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="453" ht="18.75" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
-          <t>اسومين</t>
+          <t>جي اف اسماروؤت</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
+          <t>{82450F2E-38A9-42FB-ACFD-B874384545D2}</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>3246</v>
+        <v>3231</v>
       </c>
       <c r="D453" t="n">
-        <v>3270</v>
+        <v>3232</v>
       </c>
       <c r="E453" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" ht="18.75" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
-          <t>اف امبشا غار</t>
+          <t>اسومين</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
+          <t>{3F22DD0B-D926-42B9-BABE-6C6486C9BD62}</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>3271</v>
+        <v>3233</v>
       </c>
       <c r="D454" t="n">
-        <v>3309</v>
+        <v>3257</v>
       </c>
       <c r="E454" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="455" ht="18.75" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
-          <t>تي بارثينوس</t>
+          <t>اف امبشا غار</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
+          <t>{87BCA258-F572-4FEC-97DE-71CBA3159BB9}</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>3310</v>
+        <v>3258</v>
       </c>
       <c r="D455" t="n">
-        <v>3322</v>
+        <v>3296</v>
       </c>
       <c r="E455" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="456" ht="18.75" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
-          <t>يونا بى ابروفيتيس</t>
+          <t>تي بارثينوس</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
+          <t>{185E1789-C295-487F-8018-CC029600A8F6}</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>3323</v>
+        <v>3297</v>
       </c>
       <c r="D456" t="n">
-        <v>3338</v>
+        <v>3309</v>
       </c>
       <c r="E456" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="457" ht="18.75" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
-          <t>بي ماي رومي</t>
+          <t>يونا بى ابروفيتيس</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
+          <t>{859D33B0-D7E3-4EDC-8AB9-E56533A2D980}</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>3339</v>
+        <v>3310</v>
       </c>
       <c r="D457" t="n">
-        <v>3353</v>
+        <v>3325</v>
       </c>
       <c r="E457" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="458" ht="18.75" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
-          <t>اونيشتي اميستيريون</t>
+          <t>بي ماي رومي</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
+          <t>{315091E2-E367-43B7-A35E-4175DF947038}</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>3354</v>
+        <v>3326</v>
       </c>
       <c r="D458" t="n">
-        <v>3373</v>
+        <v>3340</v>
       </c>
       <c r="E458" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="459" ht="18.75" customHeight="1">
       <c r="A459" t="inlineStr">
         <is>
-          <t>مدائح سنوي</t>
+          <t>اونيشتي اميستيريون</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
+          <t>{DB680029-4B05-4C3F-98B3-FB5469AADBD7}</t>
         </is>
       </c>
       <c r="C459" t="n">
-        <v>3374</v>
+        <v>3341</v>
       </c>
       <c r="D459" t="n">
-        <v>3374</v>
+        <v>3360</v>
       </c>
       <c r="E459" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="460" ht="18.75" customHeight="1">
       <c r="A460" t="inlineStr">
         <is>
-          <t>مدائح كيهك</t>
+          <t>مدائح سنوي</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
+          <t>{07298C47-E831-4285-ACB7-25BB3772C6A2}</t>
         </is>
       </c>
       <c r="C460" t="n">
-        <v>3375</v>
+        <v>3361</v>
       </c>
       <c r="D460" t="n">
-        <v>3375</v>
+        <v>3361</v>
       </c>
       <c r="E460" t="n">
         <v>1</v>
@@ -10154,19 +10154,19 @@
     <row r="461" ht="18.75" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
-          <t>مدائح الميلاد</t>
+          <t>مدائح كيهك</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
+          <t>{DCEAD1F4-0405-4EE6-9905-219FC8E85798}</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>3376</v>
+        <v>3362</v>
       </c>
       <c r="D461" t="n">
-        <v>3376</v>
+        <v>3362</v>
       </c>
       <c r="E461" t="n">
         <v>1</v>
@@ -10175,19 +10175,19 @@
     <row r="462" ht="18.75" customHeight="1">
       <c r="A462" t="inlineStr">
         <is>
-          <t>مدائح صوم نينوى</t>
+          <t>مدائح الميلاد</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
+          <t>{42181297-997B-4C4C-B43B-4E9D8A23858D}</t>
         </is>
       </c>
       <c r="C462" t="n">
-        <v>3377</v>
+        <v>3363</v>
       </c>
       <c r="D462" t="n">
-        <v>3377</v>
+        <v>3363</v>
       </c>
       <c r="E462" t="n">
         <v>1</v>
@@ -10196,19 +10196,19 @@
     <row r="463" ht="18.75" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
-          <t>مدائح الصوم الكبير</t>
+          <t>مدائح صوم نينوى</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
+          <t>{43C9AE43-EC80-4A72-97F0-F38A712DDA09}</t>
         </is>
       </c>
       <c r="C463" t="n">
-        <v>3378</v>
+        <v>3364</v>
       </c>
       <c r="D463" t="n">
-        <v>3378</v>
+        <v>3364</v>
       </c>
       <c r="E463" t="n">
         <v>1</v>
@@ -10217,19 +10217,19 @@
     <row r="464" ht="18.75" customHeight="1">
       <c r="A464" t="inlineStr">
         <is>
-          <t>مدائح سبت لعازر</t>
+          <t>مدائح الصوم الكبير</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
+          <t>{6C210ECD-CC91-4984-B251-46939B2A0039}</t>
         </is>
       </c>
       <c r="C464" t="n">
-        <v>3379</v>
+        <v>3365</v>
       </c>
       <c r="D464" t="n">
-        <v>3379</v>
+        <v>3365</v>
       </c>
       <c r="E464" t="n">
         <v>1</v>
@@ -10238,19 +10238,19 @@
     <row r="465" ht="18.75" customHeight="1">
       <c r="A465" t="inlineStr">
         <is>
-          <t>مدائح احد الشعانين</t>
+          <t>مدائح سبت لعازر</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
+          <t>{DB6B4ECA-F770-40E7-A7BA-46A8B5B46C3B}</t>
         </is>
       </c>
       <c r="C465" t="n">
-        <v>3380</v>
+        <v>3366</v>
       </c>
       <c r="D465" t="n">
-        <v>3380</v>
+        <v>3366</v>
       </c>
       <c r="E465" t="n">
         <v>1</v>
@@ -10259,19 +10259,19 @@
     <row r="466" ht="18.75" customHeight="1">
       <c r="A466" t="inlineStr">
         <is>
-          <t>مدائح القيامة</t>
+          <t>مدائح احد الشعانين</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
+          <t>{37DC4920-98DA-477A-A6F7-6D252B149A22}</t>
         </is>
       </c>
       <c r="C466" t="n">
-        <v>3381</v>
+        <v>3367</v>
       </c>
       <c r="D466" t="n">
-        <v>3381</v>
+        <v>3367</v>
       </c>
       <c r="E466" t="n">
         <v>1</v>
@@ -10280,19 +10280,19 @@
     <row r="467" ht="18.75" customHeight="1">
       <c r="A467" t="inlineStr">
         <is>
-          <t>مدائح الخماسين من 2 الى 39</t>
+          <t>مدائح القيامة</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
+          <t>{1D781881-AD2E-41FE-97D4-458A86F892F1}</t>
         </is>
       </c>
       <c r="C467" t="n">
-        <v>3382</v>
+        <v>3368</v>
       </c>
       <c r="D467" t="n">
-        <v>3382</v>
+        <v>3368</v>
       </c>
       <c r="E467" t="n">
         <v>1</v>
@@ -10301,19 +10301,19 @@
     <row r="468" ht="18.75" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
-          <t>مدائح الصعود الى العنصرة</t>
+          <t>مدائح الخماسين من 2 الى 39</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
+          <t>{F74608AC-8E8B-460A-97E7-1E6B86D50B5B}</t>
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3383</v>
+        <v>3369</v>
       </c>
       <c r="D468" t="n">
-        <v>3383</v>
+        <v>3369</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
@@ -10322,19 +10322,19 @@
     <row r="469" ht="18.75" customHeight="1">
       <c r="A469" t="inlineStr">
         <is>
-          <t>مدائح صوم الرسل</t>
+          <t>مدائح الصعود الى العنصرة</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
+          <t>{BAAC56F0-C9A0-4321-AB43-D79F5FCE37C9}</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>3384</v>
+        <v>3370</v>
       </c>
       <c r="D469" t="n">
-        <v>3384</v>
+        <v>3370</v>
       </c>
       <c r="E469" t="n">
         <v>1</v>
@@ -10343,19 +10343,19 @@
     <row r="470" ht="18.75" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
-          <t>مدائح الاعياد السيدية</t>
+          <t>مدائح صوم الرسل</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>{147FD013-1F73-40AC-92A0-5544B48FA888}</t>
+          <t>{5F05D018-CCA5-41B9-A869-A1F64A0C2BCC}</t>
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3385</v>
+        <v>3371</v>
       </c>
       <c r="D470" t="n">
-        <v>3385</v>
+        <v>3371</v>
       </c>
       <c r="E470" t="n">
         <v>1</v>
@@ -10364,19 +10364,19 @@
     <row r="471" ht="18.75" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
-          <t>مدائح ال29 من الشهر</t>
+          <t>مدائح الاعياد السيدية</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
+          <t>{147FD013-1F73-40AC-92A0-5544B48FA888}</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>3386</v>
+        <v>3372</v>
       </c>
       <c r="D471" t="n">
-        <v>3386</v>
+        <v>3372</v>
       </c>
       <c r="E471" t="n">
         <v>1</v>
@@ -10385,147 +10385,168 @@
     <row r="472" ht="18.75" customHeight="1">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ابؤرو للتوزيع</t>
+          <t>مدائح ال29 من الشهر</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
+          <t>{3BE1A381-B11E-4562-921A-ECB2221D0A43}</t>
         </is>
       </c>
       <c r="C472" t="n">
-        <v>3387</v>
+        <v>3373</v>
       </c>
       <c r="D472" t="n">
-        <v>3397</v>
+        <v>3373</v>
       </c>
       <c r="E472" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" ht="18.75" customHeight="1">
       <c r="A473" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>ابؤرو للتوزيع</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{7007E16E-5DD0-4268-A326-25AF88EA4DE9}</t>
         </is>
       </c>
       <c r="C473" t="n">
-        <v>3398</v>
+        <v>3374</v>
       </c>
       <c r="D473" t="n">
-        <v>3398</v>
+        <v>3384</v>
       </c>
       <c r="E473" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" ht="18.75" customHeight="1">
       <c r="A474" t="inlineStr">
         <is>
-          <t>الختام السنوي</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3399</v>
+        <v>3385</v>
       </c>
       <c r="D474" t="n">
-        <v>3401</v>
+        <v>3385</v>
       </c>
       <c r="E474" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" ht="18.75" customHeight="1">
       <c r="A475" t="inlineStr">
         <is>
-          <t>الختام في الصوم المقدس</t>
+          <t>الختام السنوي</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
+          <t>{0D2A50D9-F484-4E60-922B-66FF81444E2C}</t>
         </is>
       </c>
       <c r="C475" t="n">
-        <v>3402</v>
+        <v>3386</v>
       </c>
       <c r="D475" t="n">
-        <v>3407</v>
+        <v>3388</v>
       </c>
       <c r="E475" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" ht="18.75" customHeight="1">
       <c r="A476" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>الختام في الصوم المقدس</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{4A3AE26D-6D71-4143-8C05-7618E08EF248}</t>
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3408</v>
+        <v>3389</v>
       </c>
       <c r="D476" t="n">
-        <v>3432</v>
+        <v>3394</v>
       </c>
       <c r="E476" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" ht="18.75" customHeight="1">
       <c r="A477" t="inlineStr">
         <is>
-          <t>في حضور الاسقف</t>
+          <t>تكملة على حسب المناسبة</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
         </is>
       </c>
       <c r="C477" t="n">
-        <v>3433</v>
+        <v>3395</v>
       </c>
       <c r="D477" t="n">
-        <v>3441</v>
+        <v>3419</v>
       </c>
       <c r="E477" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
+          <t>في حضور الاسقف</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3428</v>
+      </c>
+      <c r="E478" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
           <t>الختام 2</t>
         </is>
       </c>
-      <c r="B478" t="inlineStr">
+      <c r="B479" t="inlineStr">
         <is>
           <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
         </is>
       </c>
-      <c r="C478" t="n">
-        <v>3442</v>
-      </c>
-      <c r="D478" t="n">
-        <v>3446</v>
-      </c>
-      <c r="E478" t="n">
+      <c r="C479" t="n">
+        <v>3429</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3433</v>
+      </c>
+      <c r="E479" t="n">
         <v>5</v>
       </c>
     </row>
@@ -21497,7 +21518,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21752,7 +21773,7 @@
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>تكملة ارباع الناقوس</t>
+          <t>ارباع عيد الصليب</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -21764,70 +21785,70 @@
         <v>72</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ربع بطرس و بولس</t>
+          <t>ارباع عيد التجلي</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>{3C444163-4B5E-4306-8A8A-489D9AF24A2A}</t>
+          <t>{AC5F2BCF-F75D-4BF9-819A-BF7F656F9A0D}</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ربع مارمرقس</t>
+          <t>تكملة ارباع الناقوس</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>{3CEEB174-A27F-4ACB-B72B-4D39D2FC700F}</t>
+          <t>{95F2B000-887E-494A-9B06-BF2AE6AB7F7E}</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D14" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ربع اسطفانوس</t>
+          <t>ربع بطرس و بولس</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>{A7614D8D-F4B4-41D2-A880-10234332DD2F}</t>
+          <t>{3C444163-4B5E-4306-8A8A-489D9AF24A2A}</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D15" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -21836,19 +21857,19 @@
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ربع مارجرجس</t>
+          <t>ربع مارمرقس</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>{4E9FE7F7-74A7-4CEE-8CA7-DD64178EF766}</t>
+          <t>{3CEEB174-A27F-4ACB-B72B-4D39D2FC700F}</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -21857,40 +21878,40 @@
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ربع مارمينا</t>
+          <t>ربع اسطفانوس</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>{6961CDD1-5D71-496E-B14F-1243FFFD6BBB}</t>
+          <t>{A7614D8D-F4B4-41D2-A880-10234332DD2F}</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ربع فيلوباتير ميرقوريوس</t>
+          <t>ربع مارجرجس</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>{7666EA7B-1BFC-44EC-AB49-26F16C714438}</t>
+          <t>{4E9FE7F7-74A7-4CEE-8CA7-DD64178EF766}</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -21899,754 +21920,754 @@
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ختام ارباع الناقوس</t>
+          <t>ربع مارمينا</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>{52EB6B04-BCFD-460D-A692-2D541D7484D5}</t>
+          <t>{6961CDD1-5D71-496E-B14F-1243FFFD6BBB}</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ختام ارباع الناقوس الفرايحي</t>
+          <t>ربع فيلوباتير ميرقوريوس</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>{B87EBA1A-E0E4-4E68-87D7-3C4A798CF278}</t>
+          <t>{7666EA7B-1BFC-44EC-AB49-26F16C714438}</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D20" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>اوشية الراقدين</t>
+          <t>ختام ارباع الناقوس</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>{83E6BC33-A9EC-45CA-89B6-24EFBC51B654}</t>
+          <t>{52EB6B04-BCFD-460D-A692-2D541D7484D5}</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" t="n">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="E21" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>تفضل يا رب</t>
+          <t>ختام ارباع الناقوس السنوي</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{D8AFA182-3999-4072-94E9-F65D50B876B9}</t>
+          <t>{BE52E209-B022-45B3-8B56-2C35B7DE60D1}</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="D22" t="n">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>اوشية المرضي</t>
+          <t>ختام ارباع الناقوس الفرايحي</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{069F7A79-999B-4223-82AE-CAF356118167}</t>
+          <t>{B87EBA1A-E0E4-4E68-87D7-3C4A798CF278}</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="D23" t="n">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>السبع طرايق</t>
+          <t>اوشية الراقدين</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>{385BAEA4-D798-4AD0-920D-ADEC0B972186}</t>
+          <t>{83E6BC33-A9EC-45CA-89B6-24EFBC51B654}</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="D24" t="n">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>اوشية المسافرين</t>
+          <t>تفضل يا رب</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>{A059EEC9-5D25-453F-A956-A2E149F0773C}</t>
+          <t>{D8AFA182-3999-4072-94E9-F65D50B876B9}</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="D25" t="n">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="E25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>اوشية القرابين</t>
+          <t>اوشية المرضي</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>{2C897F14-44CC-430E-9BE1-EB379FE7A9C7}</t>
+          <t>{069F7A79-999B-4223-82AE-CAF356118167}</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>384</v>
+        <v>190</v>
       </c>
       <c r="D26" t="n">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>فلنسبح مع الملائكة</t>
+          <t>السبع طرايق</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{2ECE1F1B-C143-4CE2-B550-348BEE185974}</t>
+          <t>{385BAEA4-D798-4AD0-920D-ADEC0B972186}</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>413</v>
+        <v>225</v>
       </c>
       <c r="D27" t="n">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>مقدمة الذوكصولوجيات</t>
+          <t>اوشية المسافرين</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>{D72E4090-F25E-47FA-91CC-49FA1BFA5556}</t>
+          <t>{A059EEC9-5D25-453F-A956-A2E149F0773C}</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="D28" t="n">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>الذكصولوجيات</t>
+          <t>اوشية القرابين</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>{A5B9CE2F-90E3-44D7-B22F-CAE6783C8E2F}</t>
+          <t>{2C897F14-44CC-430E-9BE1-EB379FE7A9C7}</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>443</v>
+        <v>384</v>
       </c>
       <c r="D29" t="n">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>مقدمة قانون الإيمان</t>
+          <t>فلنسبح مع الملائكة</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{409B3D0A-B40A-4475-811D-72C5125134AB}</t>
+          <t>{2ECE1F1B-C143-4CE2-B550-348BEE185974}</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>444</v>
+        <v>413</v>
       </c>
       <c r="D30" t="n">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>قانون الايمان</t>
+          <t>مقدمة الذوكصولوجيات</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>{3CD34DC9-72C7-4E1F-A24E-3878EF0435D6}</t>
+          <t>{D72E4090-F25E-47FA-91CC-49FA1BFA5556}</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D31" t="n">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>افنوتي ناي نان</t>
+          <t>الذكصولوجيات</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>{61880C5D-7B19-4DA9-9517-587F0006E7A4}</t>
+          <t>{A5B9CE2F-90E3-44D7-B22F-CAE6783C8E2F}</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D32" t="n">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ايطاف اني اسخاي</t>
+          <t>مقدمة قانون الإيمان</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{60A6EF5E-A7D1-4E39-AAE6-A0EA92726711}</t>
+          <t>{409B3D0A-B40A-4475-811D-72C5125134AB}</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D33" t="n">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>طرح عيد الصليب</t>
+          <t>قانون الايمان</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>{17F6A454-5ABF-4DFB-A78A-D146D086082D}</t>
+          <t>{3CD34DC9-72C7-4E1F-A24E-3878EF0435D6}</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="D34" t="n">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>طرح اخر لعيد الصليب</t>
+          <t>افنوتي ناي نان</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>{0BD005D7-2E83-417A-9686-5430EAAF391B}</t>
+          <t>{61880C5D-7B19-4DA9-9517-587F0006E7A4}</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="D35" t="n">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>مرد طرح عيد الصليب</t>
+          <t>ايطاف اني اسخاي</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{68F134B0-811C-48F0-A7D0-5BB19CE61443}</t>
+          <t>{60A6EF5E-A7D1-4E39-AAE6-A0EA92726711}</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D36" t="n">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>أفرحى يا مريم</t>
+          <t>طرح عيد الصليب</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>{1C20AEEF-0DEB-4F74-A46A-AFC5A06DC744}</t>
+          <t>{17F6A454-5ABF-4DFB-A78A-D146D086082D}</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D37" t="n">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E37" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>تماجيد نهضة العذراء</t>
+          <t>طرح اخر لعيد الصليب</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{7DE226B6-2157-492D-AB80-4448CDB8A41A}</t>
+          <t>{0BD005D7-2E83-417A-9686-5430EAAF391B}</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D38" t="n">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>لحن شيري ماريا</t>
+          <t>مرد طرح عيد الصليب</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>{1E7E7987-2CAA-4858-AB80-5A0AF761B6EF}</t>
+          <t>{68F134B0-811C-48F0-A7D0-5BB19CE61443}</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D39" t="n">
-        <v>519</v>
+        <v>484</v>
       </c>
       <c r="E39" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>إك اسماروؤت</t>
+          <t>أفرحى يا مريم</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>{D2101135-3E00-460B-BDBC-0ED4AE799C01}</t>
+          <t>{1C20AEEF-0DEB-4F74-A46A-AFC5A06DC744}</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>520</v>
+        <v>485</v>
       </c>
       <c r="D40" t="n">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>لحن شيرى ثيؤطوكى</t>
+          <t>تماجيد نهضة العذراء</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>{18389A37-F3FC-4832-AAAE-BB56BAA2569D}</t>
+          <t>{7DE226B6-2157-492D-AB80-4448CDB8A41A}</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="D41" t="n">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>لحن أو كيريوس</t>
+          <t>لحن شيري ماريا</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>{9374086D-AF79-49C7-AD9E-A4DD1D98361A}</t>
+          <t>{1E7E7987-2CAA-4858-AB80-5A0AF761B6EF}</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D42" t="n">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="E42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>شاشف إنسوب إمميني</t>
+          <t>إك اسماروؤت</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>{93BD22E8-BF7D-4E60-A57A-13DAE76001A3}</t>
+          <t>{D2101135-3E00-460B-BDBC-0ED4AE799C01}</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="D43" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>لحن راشى نى</t>
+          <t>لحن شيرى ثيؤطوكى</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>{0506AF9A-7F49-49A6-942D-C2D14565C280}</t>
+          <t>{18389A37-F3FC-4832-AAAE-BB56BAA2569D}</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>581</v>
+        <v>521</v>
       </c>
       <c r="D44" t="n">
-        <v>595</v>
+        <v>527</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ذفتية بانديس</t>
+          <t>لحن أو كيريوس</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>{E63D9888-2FCA-494A-AA68-15E76387F435}</t>
+          <t>{9374086D-AF79-49C7-AD9E-A4DD1D98361A}</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>596</v>
+        <v>528</v>
       </c>
       <c r="D45" t="n">
-        <v>620</v>
+        <v>542</v>
       </c>
       <c r="E45" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>سينا اتشو</t>
+          <t>شاشف إنسوب إمميني</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>{63C8AA8A-342F-4B05-BFCE-A3098B55F558}</t>
+          <t>{93BD22E8-BF7D-4E60-A57A-13DAE76001A3}</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>621</v>
+        <v>543</v>
       </c>
       <c r="D46" t="n">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="E46" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>فاي بى إبليمين</t>
+          <t>لحن راشى نى</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>{01E8A009-C53E-4034-AA0C-E39290F9C47E}</t>
+          <t>{0506AF9A-7F49-49A6-942D-C2D14565C280}</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="D47" t="n">
-        <v>649</v>
+        <v>595</v>
       </c>
       <c r="E47" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>اطاي بارثينوس</t>
+          <t>ذفتية بانديس</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
+          <t>{E63D9888-2FCA-494A-AA68-15E76387F435}</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>650</v>
+        <v>596</v>
       </c>
       <c r="D48" t="n">
-        <v>671</v>
+        <v>620</v>
       </c>
       <c r="E48" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="18.75" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>او اون او هلبيس</t>
+          <t>سينا اتشو</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>{1F005296-1C13-4026-A9B3-26C9C6CD6D9D}</t>
+          <t>{63C8AA8A-342F-4B05-BFCE-A3098B55F558}</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>672</v>
+        <v>621</v>
       </c>
       <c r="D49" t="n">
-        <v>676</v>
+        <v>632</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="18.75" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>اري ابريسفافين</t>
+          <t>فاي بى إبليمين</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>{08694BF7-6D62-4C4C-BA7C-6CFED091D44A}</t>
+          <t>{01E8A009-C53E-4034-AA0C-E39290F9C47E}</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="D50" t="n">
-        <v>678</v>
+        <v>649</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ابؤرو</t>
+          <t>اطاي بارثينوس</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>{DD757736-F2EB-40FA-9016-1E28087A0BE5}</t>
+          <t>{18835C90-087E-4BAC-9D66-708BC1E04983}</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>679</v>
+        <v>650</v>
       </c>
       <c r="D51" t="n">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>مديح السلام لك يا مريم</t>
+          <t>او اون او هلبيس</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>{1796645F-35B4-4F6F-9673-838DE7EF8F58}</t>
+          <t>{1F005296-1C13-4026-A9B3-26C9C6CD6D9D}</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D52" t="n">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="E52" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>خين أفران</t>
+          <t>اري ابريسفافين</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>{FD75781B-0996-4E12-BF4C-D163B4D1708F}</t>
+          <t>{08694BF7-6D62-4C4C-BA7C-6CFED091D44A}</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>715</v>
+        <v>677</v>
       </c>
       <c r="D53" t="n">
-        <v>717</v>
+        <v>678</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اسمعي يا ابنة</t>
+          <t>ابؤرو</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>{3C5D9889-94E1-4B35-82B5-58786720BA8A}</t>
+          <t>{DD757736-F2EB-40FA-9016-1E28087A0BE5}</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>718</v>
+        <v>679</v>
       </c>
       <c r="D54" t="n">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
@@ -22655,103 +22676,103 @@
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>اوشية الانجيل</t>
+          <t>مديح السلام لك يا مريم</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>{B897D380-076C-414A-9934-423AA6230FED}</t>
+          <t>{1796645F-35B4-4F6F-9673-838DE7EF8F58}</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="D55" t="n">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="E55" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>طواف مزمور عيد النيروز</t>
+          <t>خين أفران</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>{A05C62FF-6D7E-4E98-A99D-9A598F41AECB}</t>
+          <t>{FD75781B-0996-4E12-BF4C-D163B4D1708F}</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="D56" t="n">
-        <v>746</v>
+        <v>717</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>مرد مزمور النيروز</t>
+          <t>اسمعي يا ابنة</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>{11818F8A-85CC-4811-BF72-D444EBE28DB4}</t>
+          <t>{3C5D9889-94E1-4B35-82B5-58786720BA8A}</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>747</v>
+        <v>718</v>
       </c>
       <c r="D57" t="n">
-        <v>748</v>
+        <v>722</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>طواف مزمور عيد الصليب و أحد الشعانين</t>
+          <t>اوشية الانجيل</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>{FD80A82A-8C5C-4D6C-9644-19E9CC3FEC0F}</t>
+          <t>{B897D380-076C-414A-9934-423AA6230FED}</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="D58" t="n">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>مرد مزمور الصليب</t>
+          <t>طواف مزمور عيد النيروز</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>{0BC1F8D8-BE35-4C07-A134-EAB9CF63D177}</t>
+          <t>{A05C62FF-6D7E-4E98-A99D-9A598F41AECB}</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="D59" t="n">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
@@ -22760,145 +22781,145 @@
     <row r="60" ht="18.75" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>مرد مزمور الشعانين</t>
+          <t>مرد مزمور النيروز</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>{2AA95ED2-79CB-40D2-B716-1CB9E9E65C87}</t>
+          <t>{11818F8A-85CC-4811-BF72-D444EBE28DB4}</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D60" t="n">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>مزمور صوم وعشيات اعياد السيدة العذراء</t>
+          <t>طواف المزمور</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>{AB54231C-F141-461A-8580-187ADC04F4DB}</t>
+          <t>{FD80A82A-8C5C-4D6C-9644-19E9CC3FEC0F}</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D61" t="n">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>طواف صوم واعياد العذراء</t>
+          <t>مرد مزمور الصليب</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>{AD767EA5-20E9-48D6-9567-43335CC42D9A}</t>
+          <t>{0BC1F8D8-BE35-4C07-A134-EAB9CF63D177}</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D62" t="n">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>مارو اتشاسف</t>
+          <t>مرد مزمور الشعانين</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>{62A12AF8-CB6D-4CC5-9DB0-B73A7C24E2AD}</t>
+          <t>{2AA95ED2-79CB-40D2-B716-1CB9E9E65C87}</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="D63" t="n">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" ht="18.75" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>مقدمة الانجيل</t>
+          <t>مرد مزمور التجلي</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{C9DDD86A-610C-49CA-81D2-F3293213F325}</t>
+          <t>{51B41EEC-6FED-4A00-98C4-8291643CE6F6}</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D64" t="n">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>الانجيل قبطي</t>
+          <t>لحن جي افساجي</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>{B900AA98-6A60-4787-8E81-4111C4CE8DC1}</t>
+          <t>{BADDC8B6-0477-4F7D-94E5-E13A260C8ECA}</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="D65" t="n">
-        <v>783</v>
+        <v>756</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" ht="18.75" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>المزمور</t>
+          <t>مزمور صوم وعشيات اعياد السيدة العذراء</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>{6D1E6E7D-EECE-483C-A3AE-C135D02E717C}</t>
+          <t>{AB54231C-F141-461A-8580-187ADC04F4DB}</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>784</v>
+        <v>757</v>
       </c>
       <c r="D66" t="n">
-        <v>785</v>
+        <v>758</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -22907,19 +22928,19 @@
     <row r="67" ht="18.75" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>فليرفعوه</t>
+          <t>طواف صوم واعياد العذراء</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>{23533FC3-43FE-456F-9454-70C3088055E7}</t>
+          <t>{AD767EA5-20E9-48D6-9567-43335CC42D9A}</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>786</v>
+        <v>759</v>
       </c>
       <c r="D67" t="n">
-        <v>788</v>
+        <v>761</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
@@ -22928,166 +22949,166 @@
     <row r="68" ht="18.75" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>الانجيل</t>
+          <t>مارو اتشاسف</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>{B74DBB8C-2B2D-46E4-9508-DA46008D19A4}</t>
+          <t>{62A12AF8-CB6D-4CC5-9DB0-B73A7C24E2AD}</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>789</v>
+        <v>762</v>
       </c>
       <c r="D68" t="n">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="18.75" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>مرد انجيل الصليب</t>
+          <t>مقدمة الانجيل</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>{EDE09087-B069-49CA-8211-757926594D3F}</t>
+          <t>{C9DDD86A-610C-49CA-81D2-F3293213F325}</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="D69" t="n">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" ht="18.75" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>مرد انجيل عشية الشعانين</t>
+          <t>الانجيل قبطي</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>{995B3A40-EED6-4463-A2DC-498DF1965406}</t>
+          <t>{B900AA98-6A60-4787-8E81-4111C4CE8DC1}</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="D70" t="n">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" ht="18.75" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>مرد انجيل باكر الشعانين</t>
+          <t>المزمور</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>{AE580C60-FE10-48A4-8A58-816566E88A65}</t>
+          <t>{6D1E6E7D-EECE-483C-A3AE-C135D02E717C}</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D71" t="n">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>مرد انجيل التجلي</t>
+          <t>فليرفعوه</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>{424645C4-4007-414C-8960-3DE1095D0419}</t>
+          <t>{23533FC3-43FE-456F-9454-70C3088055E7}</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D72" t="n">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>فاي اريه بي اوو</t>
+          <t>الانجيل</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>{B7D98377-B994-4654-B49C-DE10E0DDE4F1}</t>
+          <t>{B74DBB8C-2B2D-46E4-9508-DA46008D19A4}</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D73" t="n">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" ht="18.75" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>مرد الانجيل السنوي</t>
+          <t>مرد انجيل الصليب</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>{BEECCC68-2AEF-4568-91AA-98BCD14D3B92}</t>
+          <t>{EDE09087-B069-49CA-8211-757926594D3F}</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="D74" t="n">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" ht="18.75" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>مرد انجيل كيهك 1</t>
+          <t>مرد انجيل عشية الشعانين</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>{765066DC-37D0-48B3-9046-D4F98F5B05BC}</t>
+          <t>{995B3A40-EED6-4463-A2DC-498DF1965406}</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D75" t="n">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
@@ -23096,103 +23117,103 @@
     <row r="76" ht="18.75" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>مرد انجيل كيهك 2</t>
+          <t>مرد انجيل باكر الشعانين</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>{D5E69BAC-0157-4B69-9255-B6775E2EE11D}</t>
+          <t>{AE580C60-FE10-48A4-8A58-816566E88A65}</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D76" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>تكملة مشتركة لكيهك</t>
+          <t>مرد انجيل التجلي</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>{98BAFA87-CFC9-4304-8B00-99AA9EC72A3D}</t>
+          <t>{424645C4-4007-414C-8960-3DE1095D0419}</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D77" t="n">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" ht="18.75" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>مرد انجيل صوم العذراء - عشية</t>
+          <t>فاي اريه بي اوو</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>{5043F523-486A-4B7C-9F73-2F3F943BB30C}</t>
+          <t>{B7D98377-B994-4654-B49C-DE10E0DDE4F1}</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D78" t="n">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>مرد انجيل صوم العذراء - باكر</t>
+          <t>مرد الانجيل السنوي</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>{037D8578-7219-4388-AFC5-4753352BFA8C}</t>
+          <t>{BEECCC68-2AEF-4568-91AA-98BCD14D3B92}</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D79" t="n">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" ht="18.75" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>اري ابرسفافين</t>
+          <t>مرد انجيل كيهك 1</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>{49534D46-CF48-4D9B-ADBF-B776827F6670}</t>
+          <t>{765066DC-37D0-48B3-9046-D4F98F5B05BC}</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D80" t="n">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
@@ -23201,19 +23222,19 @@
     <row r="81" ht="18.75" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ربع يقال في صوم الرسل</t>
+          <t>مرد انجيل كيهك 2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>{F5AB11D4-D7D2-4DA3-A830-32BA45BCB16D}</t>
+          <t>{D5E69BAC-0157-4B69-9255-B6775E2EE11D}</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="D81" t="n">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="E81" t="n">
         <v>2</v>
@@ -23222,19 +23243,19 @@
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ربع قال في عيد الرسل</t>
+          <t>تكملة مشتركة لكيهك</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>{38E5A337-7696-4261-833A-DF790456C6A8}</t>
+          <t>{98BAFA87-CFC9-4304-8B00-99AA9EC72A3D}</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D82" t="n">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
@@ -23243,19 +23264,19 @@
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>جي افسمارؤوت</t>
+          <t>مرد انجيل صوم العذراء - عشية</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>{DD53DBD3-9599-4D1D-B8C1-EAB35FBD36D3}</t>
+          <t>{5043F523-486A-4B7C-9F73-2F3F943BB30C}</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D83" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
@@ -23264,229 +23285,229 @@
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>اوشية السلام</t>
+          <t>مرد انجيل صوم العذراء - باكر</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>{4DB48091-D529-44E1-939A-81BC51E41D41}</t>
+          <t>{037D8578-7219-4388-AFC5-4753352BFA8C}</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D84" t="n">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="E84" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>اوشية الآباء</t>
+          <t>اري ابرسفافين</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>{64C3B268-ED69-4006-B650-A09460633196}</t>
+          <t>{49534D46-CF48-4D9B-ADBF-B776827F6670}</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="D85" t="n">
-        <v>841</v>
+        <v>815</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>أوشية الموضع</t>
+          <t>ربع يقال في صوم الرسل</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>{9DACDA4B-74BF-4F4B-A961-DA43C70DC545}</t>
+          <t>{F5AB11D4-D7D2-4DA3-A830-32BA45BCB16D}</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>842</v>
+        <v>816</v>
       </c>
       <c r="D86" t="n">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>تكملة الاواشي</t>
+          <t>ربع قال في عيد الرسل</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
+          <t>{38E5A337-7696-4261-833A-DF790456C6A8}</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="D87" t="n">
-        <v>865</v>
+        <v>819</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>أوشية الإجتماعات</t>
+          <t>جي افسمارؤوت</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>{7259AEAC-8F21-4B0E-9C69-498513DD91E4}</t>
+          <t>{DD53DBD3-9599-4D1D-B8C1-EAB35FBD36D3}</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>866</v>
+        <v>820</v>
       </c>
       <c r="D88" t="n">
-        <v>891</v>
+        <v>821</v>
       </c>
       <c r="E88" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ابانا الذي في السموات</t>
+          <t>اوشية السلام</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>{FD187B58-5CE8-4776-8487-9C5928B14F0D}</t>
+          <t>{4DB48091-D529-44E1-939A-81BC51E41D41}</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>892</v>
+        <v>822</v>
       </c>
       <c r="D89" t="n">
-        <v>898</v>
+        <v>834</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>الختام</t>
+          <t>اوشية الآباء</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
+          <t>{64C3B268-ED69-4006-B650-A09460633196}</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>899</v>
+        <v>835</v>
       </c>
       <c r="D90" t="n">
-        <v>901</v>
+        <v>843</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>تكملة على حسب المناسبة</t>
+          <t>أوشية الموضع</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+          <t>{9DACDA4B-74BF-4F4B-A961-DA43C70DC545}</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>902</v>
+        <v>844</v>
       </c>
       <c r="D91" t="n">
-        <v>920</v>
+        <v>852</v>
       </c>
       <c r="E91" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>في حضور الاسقف</t>
+          <t>تكملة الاواشي</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+          <t>{5DFBA264-6756-41DD-8F16-17B76F3E3F0F}</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>921</v>
+        <v>853</v>
       </c>
       <c r="D92" t="n">
-        <v>929</v>
+        <v>867</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>الختام 2</t>
+          <t>أوشية الإجتماعات</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
+          <t>{7259AEAC-8F21-4B0E-9C69-498513DD91E4}</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>930</v>
+        <v>868</v>
       </c>
       <c r="D93" t="n">
-        <v>934</v>
+        <v>893</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>اوشية المياة</t>
+          <t>ابانا الذي في السموات</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>{BA51DE45-1C6C-43E6-AFF3-A98C3B049C70}</t>
+          <t>{FD187B58-5CE8-4776-8487-9C5928B14F0D}</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>935</v>
+        <v>894</v>
       </c>
       <c r="D94" t="n">
-        <v>941</v>
+        <v>900</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
@@ -23495,42 +23516,147 @@
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>أوشية الزروع</t>
+          <t>الختام</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>{A0DD24B6-1053-42A1-8391-038649B3219B}</t>
+          <t>{90F50AB7-3911-445D-9C45-41866ECCCED0}</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>942</v>
+        <v>901</v>
       </c>
       <c r="D95" t="n">
-        <v>949</v>
+        <v>903</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
+          <t>تكملة على حسب المناسبة</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>{A18EDC94-F257-4FAC-99C7-0A8EA70F0FAF}</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>904</v>
+      </c>
+      <c r="D96" t="n">
+        <v>922</v>
+      </c>
+      <c r="E96" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>في حضور الاسقف</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>{A9183893-7B7E-459F-8547-F7A8F7D2D521}</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>923</v>
+      </c>
+      <c r="D97" t="n">
+        <v>931</v>
+      </c>
+      <c r="E97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>الختام 2</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>{A3DED752-5159-4F64-86F6-7B95F37A8327}</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>932</v>
+      </c>
+      <c r="D98" t="n">
+        <v>936</v>
+      </c>
+      <c r="E98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>اوشية المياة</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>{BA51DE45-1C6C-43E6-AFF3-A98C3B049C70}</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>937</v>
+      </c>
+      <c r="D99" t="n">
+        <v>943</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>أوشية الزروع</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>{A0DD24B6-1053-42A1-8391-038649B3219B}</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>944</v>
+      </c>
+      <c r="D100" t="n">
+        <v>951</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
           <t>اوشية الأهوية والثمار</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>{BD1D9BBC-5109-4880-BAFF-4C03F37555C1}</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>950</v>
-      </c>
-      <c r="D96" t="n">
-        <v>955</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="C101" t="n">
+        <v>952</v>
+      </c>
+      <c r="D101" t="n">
+        <v>957</v>
+      </c>
+      <c r="E101" t="n">
         <v>6</v>
       </c>
     </row>
@@ -25809,10 +25935,10 @@
         <v>1070</v>
       </c>
       <c r="D46" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E46" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" ht="18.75" customHeight="1">
@@ -25827,10 +25953,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D47" t="n">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E47" t="n">
         <v>45</v>
@@ -25848,10 +25974,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D48" t="n">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E48" t="n">
         <v>48</v>
@@ -25869,10 +25995,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D49" t="n">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E49" t="n">
         <v>45</v>
@@ -25890,10 +26016,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D50" t="n">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E50" t="n">
         <v>96</v>
@@ -25911,10 +26037,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D51" t="n">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E51" t="n">
         <v>29</v>
@@ -25932,10 +26058,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D52" t="n">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E52" t="n">
         <v>37</v>
@@ -25953,10 +26079,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D53" t="n">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E53" t="n">
         <v>13</v>
@@ -25974,10 +26100,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D54" t="n">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E54" t="n">
         <v>12</v>
@@ -25995,10 +26121,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D55" t="n">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E55" t="n">
         <v>9</v>
@@ -26016,10 +26142,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="D56" t="n">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E56" t="n">
         <v>15</v>
@@ -26037,10 +26163,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D57" t="n">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E57" t="n">
         <v>17</v>
@@ -26058,10 +26184,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D58" t="n">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E58" t="n">
         <v>20</v>
@@ -26079,10 +26205,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D59" t="n">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E59" t="n">
         <v>12</v>
@@ -26100,10 +26226,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D60" t="n">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E60" t="n">
         <v>16</v>
@@ -26121,10 +26247,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D61" t="n">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -26142,10 +26268,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D62" t="n">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E62" t="n">
         <v>4</v>
@@ -26163,10 +26289,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D63" t="n">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E63" t="n">
         <v>4</v>
@@ -26184,10 +26310,10 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D64" t="n">
         <v>1542</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1543</v>
       </c>
       <c r="E64" t="n">
         <v>2</v>
@@ -26205,10 +26331,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D65" t="n">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E65" t="n">
         <v>17</v>
@@ -26226,10 +26352,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D66" t="n">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="E66" t="n">
         <v>20</v>
@@ -26247,10 +26373,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D67" t="n">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E67" t="n">
         <v>15</v>
@@ -26268,10 +26394,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D68" t="n">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E68" t="n">
         <v>15</v>
@@ -26289,10 +26415,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D69" t="n">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
@@ -26310,10 +26436,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D70" t="n">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E70" t="n">
         <v>1</v>
